--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codys\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BAC71-4086-42DC-910D-A206210D0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB98D55A-0533-40B3-B238-03CF2EF11FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1545" windowWidth="28080" windowHeight="12660" firstSheet="3" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Outposts 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Transactions 9" sheetId="12" r:id="rId11"/>
     <sheet name="Types of Zombies 10" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,23 +45,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="159">
+  <si>
+    <t>CityID</t>
+  </si>
+  <si>
+    <t>Outpost Location</t>
+  </si>
   <si>
     <t>Security Level</t>
   </si>
   <si>
+    <t>OP001</t>
+  </si>
+  <si>
+    <t>SCSU Outpost</t>
+  </si>
+  <si>
+    <t>OP002</t>
+  </si>
+  <si>
+    <t>Saint Cloud Jail</t>
+  </si>
+  <si>
+    <t>OP003</t>
+  </si>
+  <si>
+    <t>North Saint Cloud</t>
+  </si>
+  <si>
+    <t>OP004</t>
+  </si>
+  <si>
+    <t>River Outpost</t>
+  </si>
+  <si>
+    <t>OP005</t>
+  </si>
+  <si>
+    <t>Saint Joseph Outpost</t>
+  </si>
+  <si>
+    <t>OP006</t>
+  </si>
+  <si>
+    <t>I94 Outpost</t>
+  </si>
+  <si>
+    <t>OP007</t>
+  </si>
+  <si>
+    <t>HW15 Outpost</t>
+  </si>
+  <si>
+    <t>OP008</t>
+  </si>
+  <si>
+    <t>SCTCC Outpost</t>
+  </si>
+  <si>
+    <t>OP009</t>
+  </si>
+  <si>
+    <t>Crossroads Outpost</t>
+  </si>
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>CityID</t>
-  </si>
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
     <t>P0001</t>
   </si>
   <si>
@@ -161,120 +218,63 @@
     <t>J001</t>
   </si>
   <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
     <t>J002</t>
   </si>
   <si>
+    <t>Medic</t>
+  </si>
+  <si>
     <t>J003</t>
   </si>
   <si>
+    <t>Farmer</t>
+  </si>
+  <si>
     <t>J004</t>
   </si>
   <si>
+    <t>Sentry</t>
+  </si>
+  <si>
     <t>J005</t>
   </si>
   <si>
+    <t>Scout</t>
+  </si>
+  <si>
     <t>J006</t>
   </si>
   <si>
+    <t>Finance Officer</t>
+  </si>
+  <si>
     <t>J007</t>
   </si>
   <si>
+    <t>Body Disposal</t>
+  </si>
+  <si>
     <t>J008</t>
   </si>
   <si>
+    <t>Merchant</t>
+  </si>
+  <si>
     <t>J009</t>
   </si>
   <si>
+    <t>Transport</t>
+  </si>
+  <si>
     <t>J010</t>
   </si>
   <si>
-    <t>Mechanic</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Sentry</t>
-  </si>
-  <si>
-    <t>Scout</t>
-  </si>
-  <si>
-    <t>Finance Officer</t>
-  </si>
-  <si>
-    <t>Body Disposal</t>
-  </si>
-  <si>
-    <t>Merchant</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
     <t>Scientist</t>
   </si>
   <si>
-    <t>OP001</t>
-  </si>
-  <si>
-    <t>OP002</t>
-  </si>
-  <si>
-    <t>OP003</t>
-  </si>
-  <si>
-    <t>OP004</t>
-  </si>
-  <si>
-    <t>OP005</t>
-  </si>
-  <si>
-    <t>OP006</t>
-  </si>
-  <si>
-    <t>OP007</t>
-  </si>
-  <si>
-    <t>OP008</t>
-  </si>
-  <si>
-    <t>OP009</t>
-  </si>
-  <si>
-    <t>North Saint Cloud</t>
-  </si>
-  <si>
-    <t>River Outpost</t>
-  </si>
-  <si>
-    <t>Saint Joseph Outpost</t>
-  </si>
-  <si>
-    <t>Outpost Location</t>
-  </si>
-  <si>
-    <t>I94 Outpost</t>
-  </si>
-  <si>
-    <t>HW15 Outpost</t>
-  </si>
-  <si>
-    <t>Saint Cloud Jail</t>
-  </si>
-  <si>
-    <t>SCTCC Outpost</t>
-  </si>
-  <si>
-    <t>SCSU Outpost</t>
-  </si>
-  <si>
-    <t>Crossroads Outpost</t>
-  </si>
-  <si>
     <t>InvID</t>
   </si>
   <si>
@@ -284,108 +284,105 @@
     <t>I0001</t>
   </si>
   <si>
+    <t>Hand Tools</t>
+  </si>
+  <si>
     <t>I0002</t>
   </si>
   <si>
+    <t>Handgun Ammunition</t>
+  </si>
+  <si>
     <t>I0003</t>
   </si>
   <si>
+    <t>Rifle Ammunition</t>
+  </si>
+  <si>
     <t>I0004</t>
   </si>
   <si>
+    <t>Shotgun Ammunition</t>
+  </si>
+  <si>
     <t>I0005</t>
   </si>
   <si>
+    <t>Concrete/Sand bags</t>
+  </si>
+  <si>
     <t>I0006</t>
   </si>
   <si>
+    <t>Boards</t>
+  </si>
+  <si>
     <t>I0007</t>
   </si>
   <si>
+    <t>Nails/Screws</t>
+  </si>
+  <si>
     <t>I0008</t>
   </si>
   <si>
+    <t>Cans of food</t>
+  </si>
+  <si>
     <t>I0009</t>
   </si>
   <si>
+    <t>Bottle of Water</t>
+  </si>
+  <si>
     <t>I0010</t>
   </si>
   <si>
+    <t>Bandages</t>
+  </si>
+  <si>
     <t>I0011</t>
   </si>
   <si>
+    <t>Blood Bags</t>
+  </si>
+  <si>
     <t>I0012</t>
   </si>
   <si>
     <t>I0013</t>
   </si>
   <si>
+    <t>Scrap Metal</t>
+  </si>
+  <si>
     <t>I0014</t>
   </si>
   <si>
+    <t>Generator</t>
+  </si>
+  <si>
     <t>I0015</t>
   </si>
   <si>
+    <t>Tires</t>
+  </si>
+  <si>
     <t>I0016</t>
   </si>
   <si>
+    <t>Sleeping Bags</t>
+  </si>
+  <si>
     <t>I0017</t>
   </si>
   <si>
+    <t>Body Armor</t>
+  </si>
+  <si>
     <t>I0018</t>
   </si>
   <si>
-    <t>Hand Tools</t>
-  </si>
-  <si>
-    <t>Handgun Ammunition</t>
-  </si>
-  <si>
-    <t>Rifle Ammunition</t>
-  </si>
-  <si>
-    <t>Shotgun Ammunition</t>
-  </si>
-  <si>
-    <t>Concrete/Sand bags</t>
-  </si>
-  <si>
-    <t>Boards</t>
-  </si>
-  <si>
-    <t>Nails/Screws</t>
-  </si>
-  <si>
-    <t>Cans of food</t>
-  </si>
-  <si>
-    <t>Bottle of Water</t>
-  </si>
-  <si>
-    <t>Bandages</t>
-  </si>
-  <si>
-    <t>Blood Bags</t>
-  </si>
-  <si>
-    <t>Gas cans</t>
-  </si>
-  <si>
-    <t>Scrap Metal</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Tires</t>
-  </si>
-  <si>
-    <t>Sleeping Bags</t>
-  </si>
-  <si>
-    <t>Body Armor</t>
-  </si>
-  <si>
     <t>Flashlight</t>
   </si>
   <si>
@@ -393,6 +390,138 @@
   </si>
   <si>
     <t>Quanitity</t>
+  </si>
+  <si>
+    <t>J011</t>
+  </si>
+  <si>
+    <t>Gatherer/Looter</t>
+  </si>
+  <si>
+    <t>Gas cans(empty)</t>
+  </si>
+  <si>
+    <t>I0019</t>
+  </si>
+  <si>
+    <t>Gas cans(full)</t>
+  </si>
+  <si>
+    <t>WeaponID</t>
+  </si>
+  <si>
+    <t>WeaponDescription</t>
+  </si>
+  <si>
+    <t>W001</t>
+  </si>
+  <si>
+    <t>W002</t>
+  </si>
+  <si>
+    <t>W003</t>
+  </si>
+  <si>
+    <t>W004</t>
+  </si>
+  <si>
+    <t>W005</t>
+  </si>
+  <si>
+    <t>W006</t>
+  </si>
+  <si>
+    <t>W007</t>
+  </si>
+  <si>
+    <t>W008</t>
+  </si>
+  <si>
+    <t>W009</t>
+  </si>
+  <si>
+    <t>Small machine gun</t>
+  </si>
+  <si>
+    <t>Assault Rifle</t>
+  </si>
+  <si>
+    <t>Bolt Action Rifle</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Grenade</t>
+  </si>
+  <si>
+    <t>Large machine gun</t>
+  </si>
+  <si>
+    <t>Machete</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>FoodID</t>
+  </si>
+  <si>
+    <t>FoodDescription</t>
+  </si>
+  <si>
+    <t>F010</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>F008</t>
+  </si>
+  <si>
+    <t>F009</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Potatos</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
   </si>
 </sst>
 </file>
@@ -752,122 +881,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -885,7 +1014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -897,7 +1026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -909,7 +1038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -923,132 +1052,132 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1058,103 +1187,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1169,97 +1306,97 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1269,18 +1406,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C1780-0DD5-41AF-BC3E-FC07A2BBFA9C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1288,148 +1425,156 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1446,27 +1591,27 @@
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -1475,196 +1620,196 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1673,196 +1818,196 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -1871,196 +2016,196 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -2069,188 +2214,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2266,24 +2411,196 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E64E3-2EEF-4D35-A877-B30CDD63B6A3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2294,7 +2611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codys\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB98D55A-0533-40B3-B238-03CF2EF11FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06FDFD3-B7F4-462E-970E-A30E0E1C5569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Outposts 1" sheetId="1" r:id="rId1"/>
-    <sheet name="People 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Jobs 3" sheetId="3" r:id="rId3"/>
-    <sheet name="People Jobs" sheetId="4" r:id="rId4"/>
+    <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Members 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Roles 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Member Roles" sheetId="4" r:id="rId4"/>
     <sheet name="Inventory Description 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Outpost Inventory" sheetId="6" r:id="rId6"/>
+    <sheet name="Settlement Inventory" sheetId="6" r:id="rId6"/>
     <sheet name="Weapons 5" sheetId="7" r:id="rId7"/>
-    <sheet name="Foods 6" sheetId="8" r:id="rId8"/>
+    <sheet name="Food 6" sheetId="8" r:id="rId8"/>
     <sheet name="Vehicles 7" sheetId="9" r:id="rId9"/>
-    <sheet name="Housing 8" sheetId="10" r:id="rId10"/>
-    <sheet name="Transactions 9" sheetId="12" r:id="rId11"/>
-    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId12"/>
+    <sheet name="First-Aid" sheetId="14" r:id="rId10"/>
+    <sheet name="Housing 8" sheetId="10" r:id="rId11"/>
+    <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
+    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="229">
   <si>
     <t>CityID</t>
   </si>
@@ -56,60 +57,12 @@
     <t>Security Level</t>
   </si>
   <si>
-    <t>OP001</t>
-  </si>
-  <si>
-    <t>SCSU Outpost</t>
-  </si>
-  <si>
-    <t>OP002</t>
-  </si>
-  <si>
     <t>Saint Cloud Jail</t>
   </si>
   <si>
-    <t>OP003</t>
-  </si>
-  <si>
     <t>North Saint Cloud</t>
   </si>
   <si>
-    <t>OP004</t>
-  </si>
-  <si>
-    <t>River Outpost</t>
-  </si>
-  <si>
-    <t>OP005</t>
-  </si>
-  <si>
-    <t>Saint Joseph Outpost</t>
-  </si>
-  <si>
-    <t>OP006</t>
-  </si>
-  <si>
-    <t>I94 Outpost</t>
-  </si>
-  <si>
-    <t>OP007</t>
-  </si>
-  <si>
-    <t>HW15 Outpost</t>
-  </si>
-  <si>
-    <t>OP008</t>
-  </si>
-  <si>
-    <t>SCTCC Outpost</t>
-  </si>
-  <si>
-    <t>OP009</t>
-  </si>
-  <si>
-    <t>Crossroads Outpost</t>
-  </si>
-  <si>
     <t>Idnumber</t>
   </si>
   <si>
@@ -119,90 +72,60 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>P0001</t>
-  </si>
-  <si>
     <t>Greg</t>
   </si>
   <si>
     <t>Laurence</t>
   </si>
   <si>
-    <t>P0002</t>
-  </si>
-  <si>
     <t>Sasha</t>
   </si>
   <si>
     <t>Dubow</t>
   </si>
   <si>
-    <t>P0003</t>
-  </si>
-  <si>
     <t>William</t>
   </si>
   <si>
     <t>Sanchez</t>
   </si>
   <si>
-    <t>P0004</t>
-  </si>
-  <si>
     <t>Jesse</t>
   </si>
   <si>
     <t>Shrowdel</t>
   </si>
   <si>
-    <t>P0005</t>
-  </si>
-  <si>
     <t>Phillip</t>
   </si>
   <si>
     <t>Shriner</t>
   </si>
   <si>
-    <t>P0006</t>
-  </si>
-  <si>
     <t>Miranda</t>
   </si>
   <si>
     <t>Spencer</t>
   </si>
   <si>
-    <t>P0007</t>
-  </si>
-  <si>
     <t>Natalie</t>
   </si>
   <si>
     <t>Heughs</t>
   </si>
   <si>
-    <t>P0008</t>
-  </si>
-  <si>
     <t>Dan</t>
   </si>
   <si>
     <t>Francis</t>
   </si>
   <si>
-    <t>P0009</t>
-  </si>
-  <si>
     <t>Quincy</t>
   </si>
   <si>
     <t>Jones</t>
   </si>
   <si>
-    <t>P0010</t>
-  </si>
-  <si>
     <t>Kendra</t>
   </si>
   <si>
@@ -281,108 +204,54 @@
     <t>InvDescription</t>
   </si>
   <si>
-    <t>I0001</t>
-  </si>
-  <si>
     <t>Hand Tools</t>
   </si>
   <si>
-    <t>I0002</t>
-  </si>
-  <si>
     <t>Handgun Ammunition</t>
   </si>
   <si>
-    <t>I0003</t>
-  </si>
-  <si>
     <t>Rifle Ammunition</t>
   </si>
   <si>
-    <t>I0004</t>
-  </si>
-  <si>
     <t>Shotgun Ammunition</t>
   </si>
   <si>
-    <t>I0005</t>
-  </si>
-  <si>
     <t>Concrete/Sand bags</t>
   </si>
   <si>
-    <t>I0006</t>
-  </si>
-  <si>
     <t>Boards</t>
   </si>
   <si>
-    <t>I0007</t>
-  </si>
-  <si>
     <t>Nails/Screws</t>
   </si>
   <si>
-    <t>I0008</t>
-  </si>
-  <si>
     <t>Cans of food</t>
   </si>
   <si>
-    <t>I0009</t>
-  </si>
-  <si>
     <t>Bottle of Water</t>
   </si>
   <si>
-    <t>I0010</t>
-  </si>
-  <si>
     <t>Bandages</t>
   </si>
   <si>
-    <t>I0011</t>
-  </si>
-  <si>
     <t>Blood Bags</t>
   </si>
   <si>
-    <t>I0012</t>
-  </si>
-  <si>
-    <t>I0013</t>
-  </si>
-  <si>
     <t>Scrap Metal</t>
   </si>
   <si>
-    <t>I0014</t>
-  </si>
-  <si>
     <t>Generator</t>
   </si>
   <si>
-    <t>I0015</t>
-  </si>
-  <si>
     <t>Tires</t>
   </si>
   <si>
-    <t>I0016</t>
-  </si>
-  <si>
     <t>Sleeping Bags</t>
   </si>
   <si>
-    <t>I0017</t>
-  </si>
-  <si>
     <t>Body Armor</t>
   </si>
   <si>
-    <t>I0018</t>
-  </si>
-  <si>
     <t>Flashlight</t>
   </si>
   <si>
@@ -401,9 +270,6 @@
     <t>Gas cans(empty)</t>
   </si>
   <si>
-    <t>I0019</t>
-  </si>
-  <si>
     <t>Gas cans(full)</t>
   </si>
   <si>
@@ -522,6 +388,351 @@
   </si>
   <si>
     <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>V001</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>VehicleDescription</t>
+  </si>
+  <si>
+    <t>V002</t>
+  </si>
+  <si>
+    <t>V003</t>
+  </si>
+  <si>
+    <t>V004</t>
+  </si>
+  <si>
+    <t>V005</t>
+  </si>
+  <si>
+    <t>V006</t>
+  </si>
+  <si>
+    <t>V007</t>
+  </si>
+  <si>
+    <t>V008</t>
+  </si>
+  <si>
+    <t>V009</t>
+  </si>
+  <si>
+    <t>V010</t>
+  </si>
+  <si>
+    <t>ATV</t>
+  </si>
+  <si>
+    <t>MotorCycle</t>
+  </si>
+  <si>
+    <t>Dirt Bike</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Helicopter</t>
+  </si>
+  <si>
+    <t>Horse w/ Buggy</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>SCSU Settlement</t>
+  </si>
+  <si>
+    <t>River Settlement</t>
+  </si>
+  <si>
+    <t>Saint Joseph Settlement</t>
+  </si>
+  <si>
+    <t>I94 Settlement</t>
+  </si>
+  <si>
+    <t>HW15 Settlement</t>
+  </si>
+  <si>
+    <t>SCTCC Settlement</t>
+  </si>
+  <si>
+    <t>Crossroads Settlement</t>
+  </si>
+  <si>
+    <t>I001</t>
+  </si>
+  <si>
+    <t>I002</t>
+  </si>
+  <si>
+    <t>I003</t>
+  </si>
+  <si>
+    <t>I004</t>
+  </si>
+  <si>
+    <t>I005</t>
+  </si>
+  <si>
+    <t>I006</t>
+  </si>
+  <si>
+    <t>I007</t>
+  </si>
+  <si>
+    <t>I008</t>
+  </si>
+  <si>
+    <t>I009</t>
+  </si>
+  <si>
+    <t>I010</t>
+  </si>
+  <si>
+    <t>I011</t>
+  </si>
+  <si>
+    <t>I012</t>
+  </si>
+  <si>
+    <t>I013</t>
+  </si>
+  <si>
+    <t>I014</t>
+  </si>
+  <si>
+    <t>I015</t>
+  </si>
+  <si>
+    <t>I016</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>I018</t>
+  </si>
+  <si>
+    <t>I019</t>
+  </si>
+  <si>
+    <t>FirstAidID</t>
+  </si>
+  <si>
+    <t>FirstAidDescription</t>
+  </si>
+  <si>
+    <t>Antibiotics</t>
+  </si>
+  <si>
+    <t>Tylenol</t>
+  </si>
+  <si>
+    <t>Syringes</t>
+  </si>
+  <si>
+    <t>Gause</t>
+  </si>
+  <si>
+    <t>Band-Aids</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Tournequet</t>
+  </si>
+  <si>
+    <t>Stitches</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>Cough Syrup</t>
+  </si>
+  <si>
+    <t>ZombieID</t>
+  </si>
+  <si>
+    <t>ZombieDescription</t>
+  </si>
+  <si>
+    <t>Z001</t>
+  </si>
+  <si>
+    <t>Z002</t>
+  </si>
+  <si>
+    <t>Z003</t>
+  </si>
+  <si>
+    <t>Z004</t>
+  </si>
+  <si>
+    <t>Z005</t>
+  </si>
+  <si>
+    <t>Z006</t>
+  </si>
+  <si>
+    <t>Z007</t>
+  </si>
+  <si>
+    <t>Z008</t>
+  </si>
+  <si>
+    <t>Z009</t>
+  </si>
+  <si>
+    <t>Z010</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Crawler</t>
+  </si>
+  <si>
+    <t>Exploder</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>Leaper</t>
+  </si>
+  <si>
+    <t>HousingID</t>
+  </si>
+  <si>
+    <t>HousingDescription</t>
+  </si>
+  <si>
+    <t>H001</t>
+  </si>
+  <si>
+    <t>H002</t>
+  </si>
+  <si>
+    <t>H003</t>
+  </si>
+  <si>
+    <t>H004</t>
+  </si>
+  <si>
+    <t>H005</t>
+  </si>
+  <si>
+    <t>H006</t>
+  </si>
+  <si>
+    <t>H007</t>
+  </si>
+  <si>
+    <t>H008</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>Camper</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>F011</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
   </si>
 </sst>
 </file>
@@ -881,14 +1092,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -905,10 +1116,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -916,10 +1127,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -927,10 +1138,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -938,10 +1149,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -949,10 +1160,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -960,10 +1171,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -971,10 +1182,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -982,10 +1193,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -993,10 +1204,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1009,18 +1220,192 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD74DBE3-6ABC-4C44-AB0D-011BBC123A92}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1032,14 +1417,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1049,7 +1514,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,123 +1526,123 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1655,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,98 +1665,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1313,90 +1780,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1419,162 +1886,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1587,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032382B-5B62-4C5B-AC12-CE1F890B35DB}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,21 +2067,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1622,10 +2089,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>320</v>
@@ -1633,10 +2100,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1644,10 +2111,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -1655,10 +2122,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -1666,10 +2133,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1677,10 +2144,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1688,10 +2155,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -1699,10 +2166,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -1710,10 +2177,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1721,10 +2188,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1732,10 +2199,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1743,10 +2210,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -1754,10 +2221,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1765,10 +2232,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1776,10 +2243,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1787,10 +2254,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1798,10 +2265,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1809,10 +2276,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1820,10 +2287,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -1831,10 +2298,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>423</v>
@@ -1842,10 +2309,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -1853,10 +2320,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -1864,10 +2331,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -1875,10 +2342,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1886,10 +2353,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -1897,10 +2364,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C28">
         <v>73</v>
@@ -1908,10 +2375,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1919,10 +2386,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1930,10 +2397,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -1941,10 +2408,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C32">
         <v>43</v>
@@ -1952,10 +2419,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1963,10 +2430,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -1974,10 +2441,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -1985,10 +2452,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1996,10 +2463,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2007,10 +2474,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2018,10 +2485,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C39">
         <v>142</v>
@@ -2029,10 +2496,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C40">
         <v>134</v>
@@ -2040,10 +2507,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -2051,10 +2518,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C42">
         <v>13</v>
@@ -2062,10 +2529,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2073,10 +2540,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2084,10 +2551,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -2095,10 +2562,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -2106,10 +2573,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2117,10 +2584,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2128,10 +2595,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2139,10 +2606,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -2150,10 +2617,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2161,10 +2628,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2172,10 +2639,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2183,10 +2650,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -2194,10 +2661,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -2205,10 +2672,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2216,10 +2683,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -2227,10 +2694,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>200</v>
@@ -2238,10 +2705,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -2249,10 +2716,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2260,10 +2727,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C61">
         <v>26</v>
@@ -2271,10 +2738,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -2282,10 +2749,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C63">
         <v>18</v>
@@ -2293,10 +2760,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C64">
         <v>30</v>
@@ -2304,10 +2771,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2315,10 +2782,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2326,10 +2793,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2337,10 +2804,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -2348,10 +2815,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2359,10 +2826,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2370,10 +2837,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2381,10 +2848,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2392,10 +2859,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2425,82 +2892,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2510,10 +2977,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,81 +2990,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2607,12 +3099,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -5,27 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06FDFD3-B7F4-462E-970E-A30E0E1C5569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CF0C34-8521-4D3D-9253-A46290CACE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="870" yWindow="2940" windowWidth="21420" windowHeight="11385" activeTab="1" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Members 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Roles 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Member Roles" sheetId="4" r:id="rId4"/>
+    <sheet name="Outposts 1" sheetId="1" r:id="rId1"/>
+    <sheet name="People 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Jobs 3" sheetId="3" r:id="rId3"/>
+    <sheet name="People Jobs" sheetId="4" r:id="rId4"/>
     <sheet name="Inventory Description 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Settlement Inventory" sheetId="6" r:id="rId6"/>
+    <sheet name="Outpost Inventory" sheetId="6" r:id="rId6"/>
     <sheet name="Weapons 5" sheetId="7" r:id="rId7"/>
-    <sheet name="Food 6" sheetId="8" r:id="rId8"/>
+    <sheet name="Foods 6" sheetId="8" r:id="rId8"/>
     <sheet name="Vehicles 7" sheetId="9" r:id="rId9"/>
-    <sheet name="First-Aid" sheetId="14" r:id="rId10"/>
-    <sheet name="Housing 8" sheetId="10" r:id="rId11"/>
-    <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
-    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId13"/>
+    <sheet name="Housing 8" sheetId="10" r:id="rId10"/>
+    <sheet name="Transactions 9" sheetId="12" r:id="rId11"/>
+    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="478">
   <si>
     <t>CityID</t>
   </si>
@@ -57,12 +56,60 @@
     <t>Security Level</t>
   </si>
   <si>
+    <t>OP001</t>
+  </si>
+  <si>
+    <t>SCSU Outpost</t>
+  </si>
+  <si>
+    <t>OP002</t>
+  </si>
+  <si>
     <t>Saint Cloud Jail</t>
   </si>
   <si>
+    <t>OP003</t>
+  </si>
+  <si>
     <t>North Saint Cloud</t>
   </si>
   <si>
+    <t>OP004</t>
+  </si>
+  <si>
+    <t>River Outpost</t>
+  </si>
+  <si>
+    <t>OP005</t>
+  </si>
+  <si>
+    <t>Saint Joseph Outpost</t>
+  </si>
+  <si>
+    <t>OP006</t>
+  </si>
+  <si>
+    <t>I94 Outpost</t>
+  </si>
+  <si>
+    <t>OP007</t>
+  </si>
+  <si>
+    <t>HW15 Outpost</t>
+  </si>
+  <si>
+    <t>OP008</t>
+  </si>
+  <si>
+    <t>SCTCC Outpost</t>
+  </si>
+  <si>
+    <t>OP009</t>
+  </si>
+  <si>
+    <t>Crossroads Outpost</t>
+  </si>
+  <si>
     <t>Idnumber</t>
   </si>
   <si>
@@ -72,60 +119,90 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>P0001</t>
+  </si>
+  <si>
     <t>Greg</t>
   </si>
   <si>
     <t>Laurence</t>
   </si>
   <si>
+    <t>P0002</t>
+  </si>
+  <si>
     <t>Sasha</t>
   </si>
   <si>
     <t>Dubow</t>
   </si>
   <si>
+    <t>P0003</t>
+  </si>
+  <si>
     <t>William</t>
   </si>
   <si>
     <t>Sanchez</t>
   </si>
   <si>
+    <t>P0004</t>
+  </si>
+  <si>
     <t>Jesse</t>
   </si>
   <si>
     <t>Shrowdel</t>
   </si>
   <si>
+    <t>P0005</t>
+  </si>
+  <si>
     <t>Phillip</t>
   </si>
   <si>
     <t>Shriner</t>
   </si>
   <si>
+    <t>P0006</t>
+  </si>
+  <si>
     <t>Miranda</t>
   </si>
   <si>
     <t>Spencer</t>
   </si>
   <si>
+    <t>P0007</t>
+  </si>
+  <si>
     <t>Natalie</t>
   </si>
   <si>
     <t>Heughs</t>
   </si>
   <si>
+    <t>P0008</t>
+  </si>
+  <si>
     <t>Dan</t>
   </si>
   <si>
     <t>Francis</t>
   </si>
   <si>
+    <t>P0009</t>
+  </si>
+  <si>
     <t>Quincy</t>
   </si>
   <si>
     <t>Jones</t>
   </si>
   <si>
+    <t>P0010</t>
+  </si>
+  <si>
     <t>Kendra</t>
   </si>
   <si>
@@ -204,54 +281,108 @@
     <t>InvDescription</t>
   </si>
   <si>
+    <t>I0001</t>
+  </si>
+  <si>
     <t>Hand Tools</t>
   </si>
   <si>
+    <t>I0002</t>
+  </si>
+  <si>
     <t>Handgun Ammunition</t>
   </si>
   <si>
+    <t>I0003</t>
+  </si>
+  <si>
     <t>Rifle Ammunition</t>
   </si>
   <si>
+    <t>I0004</t>
+  </si>
+  <si>
     <t>Shotgun Ammunition</t>
   </si>
   <si>
+    <t>I0005</t>
+  </si>
+  <si>
     <t>Concrete/Sand bags</t>
   </si>
   <si>
+    <t>I0006</t>
+  </si>
+  <si>
     <t>Boards</t>
   </si>
   <si>
+    <t>I0007</t>
+  </si>
+  <si>
     <t>Nails/Screws</t>
   </si>
   <si>
+    <t>I0008</t>
+  </si>
+  <si>
     <t>Cans of food</t>
   </si>
   <si>
+    <t>I0009</t>
+  </si>
+  <si>
     <t>Bottle of Water</t>
   </si>
   <si>
+    <t>I0010</t>
+  </si>
+  <si>
     <t>Bandages</t>
   </si>
   <si>
+    <t>I0011</t>
+  </si>
+  <si>
     <t>Blood Bags</t>
   </si>
   <si>
+    <t>I0012</t>
+  </si>
+  <si>
+    <t>I0013</t>
+  </si>
+  <si>
     <t>Scrap Metal</t>
   </si>
   <si>
+    <t>I0014</t>
+  </si>
+  <si>
     <t>Generator</t>
   </si>
   <si>
+    <t>I0015</t>
+  </si>
+  <si>
     <t>Tires</t>
   </si>
   <si>
+    <t>I0016</t>
+  </si>
+  <si>
     <t>Sleeping Bags</t>
   </si>
   <si>
+    <t>I0017</t>
+  </si>
+  <si>
     <t>Body Armor</t>
   </si>
   <si>
+    <t>I0018</t>
+  </si>
+  <si>
     <t>Flashlight</t>
   </si>
   <si>
@@ -270,6 +401,9 @@
     <t>Gas cans(empty)</t>
   </si>
   <si>
+    <t>I0019</t>
+  </si>
+  <si>
     <t>Gas cans(full)</t>
   </si>
   <si>
@@ -390,356 +524,971 @@
     <t>Tomatoes</t>
   </si>
   <si>
-    <t>V001</t>
-  </si>
-  <si>
-    <t>VehicleID</t>
-  </si>
-  <si>
-    <t>VehicleDescription</t>
-  </si>
-  <si>
-    <t>V002</t>
-  </si>
-  <si>
-    <t>V003</t>
-  </si>
-  <si>
-    <t>V004</t>
-  </si>
-  <si>
-    <t>V005</t>
-  </si>
-  <si>
-    <t>V006</t>
-  </si>
-  <si>
-    <t>V007</t>
-  </si>
-  <si>
-    <t>V008</t>
-  </si>
-  <si>
-    <t>V009</t>
-  </si>
-  <si>
-    <t>V010</t>
-  </si>
-  <si>
-    <t>ATV</t>
-  </si>
-  <si>
-    <t>MotorCycle</t>
-  </si>
-  <si>
-    <t>Dirt Bike</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Helicopter</t>
-  </si>
-  <si>
-    <t>Horse w/ Buggy</t>
-  </si>
-  <si>
-    <t>Boat</t>
-  </si>
-  <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>M002</t>
-  </si>
-  <si>
-    <t>M003</t>
-  </si>
-  <si>
-    <t>M004</t>
-  </si>
-  <si>
-    <t>M005</t>
-  </si>
-  <si>
-    <t>M006</t>
-  </si>
-  <si>
-    <t>M007</t>
-  </si>
-  <si>
-    <t>M008</t>
-  </si>
-  <si>
-    <t>M009</t>
-  </si>
-  <si>
-    <t>M010</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>SCSU Settlement</t>
-  </si>
-  <si>
-    <t>River Settlement</t>
-  </si>
-  <si>
-    <t>Saint Joseph Settlement</t>
-  </si>
-  <si>
-    <t>I94 Settlement</t>
-  </si>
-  <si>
-    <t>HW15 Settlement</t>
-  </si>
-  <si>
-    <t>SCTCC Settlement</t>
-  </si>
-  <si>
-    <t>Crossroads Settlement</t>
-  </si>
-  <si>
-    <t>I001</t>
-  </si>
-  <si>
-    <t>I002</t>
-  </si>
-  <si>
-    <t>I003</t>
-  </si>
-  <si>
-    <t>I004</t>
-  </si>
-  <si>
-    <t>I005</t>
-  </si>
-  <si>
-    <t>I006</t>
-  </si>
-  <si>
-    <t>I007</t>
-  </si>
-  <si>
-    <t>I008</t>
-  </si>
-  <si>
-    <t>I009</t>
-  </si>
-  <si>
-    <t>I010</t>
-  </si>
-  <si>
-    <t>I011</t>
-  </si>
-  <si>
-    <t>I012</t>
-  </si>
-  <si>
-    <t>I013</t>
-  </si>
-  <si>
-    <t>I014</t>
-  </si>
-  <si>
-    <t>I015</t>
-  </si>
-  <si>
-    <t>I016</t>
-  </si>
-  <si>
-    <t>I017</t>
-  </si>
-  <si>
-    <t>I018</t>
-  </si>
-  <si>
-    <t>I019</t>
-  </si>
-  <si>
-    <t>FirstAidID</t>
-  </si>
-  <si>
-    <t>FirstAidDescription</t>
-  </si>
-  <si>
-    <t>Antibiotics</t>
-  </si>
-  <si>
-    <t>Tylenol</t>
-  </si>
-  <si>
-    <t>Syringes</t>
-  </si>
-  <si>
-    <t>Gause</t>
-  </si>
-  <si>
-    <t>Band-Aids</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Tournequet</t>
-  </si>
-  <si>
-    <t>Stitches</t>
-  </si>
-  <si>
-    <t>Hydrogen Peroxide</t>
-  </si>
-  <si>
-    <t>Cough Syrup</t>
-  </si>
-  <si>
-    <t>ZombieID</t>
-  </si>
-  <si>
-    <t>ZombieDescription</t>
-  </si>
-  <si>
-    <t>Z001</t>
-  </si>
-  <si>
-    <t>Z002</t>
-  </si>
-  <si>
-    <t>Z003</t>
-  </si>
-  <si>
-    <t>Z004</t>
-  </si>
-  <si>
-    <t>Z005</t>
-  </si>
-  <si>
-    <t>Z006</t>
-  </si>
-  <si>
-    <t>Z007</t>
-  </si>
-  <si>
-    <t>Z008</t>
-  </si>
-  <si>
-    <t>Z009</t>
-  </si>
-  <si>
-    <t>Z010</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Crawler</t>
-  </si>
-  <si>
-    <t>Exploder</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>Leaper</t>
-  </si>
-  <si>
-    <t>HousingID</t>
-  </si>
-  <si>
-    <t>HousingDescription</t>
-  </si>
-  <si>
-    <t>H001</t>
-  </si>
-  <si>
-    <t>H002</t>
-  </si>
-  <si>
-    <t>H003</t>
-  </si>
-  <si>
-    <t>H004</t>
-  </si>
-  <si>
-    <t>H005</t>
-  </si>
-  <si>
-    <t>H006</t>
-  </si>
-  <si>
-    <t>H007</t>
-  </si>
-  <si>
-    <t>H008</t>
-  </si>
-  <si>
-    <t>Tent</t>
-  </si>
-  <si>
-    <t>Camper</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Prison</t>
-  </si>
-  <si>
-    <t>Peas</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-  </si>
-  <si>
-    <t>F011</t>
-  </si>
-  <si>
-    <t>F012</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
+    <t>P0011</t>
+  </si>
+  <si>
+    <t>P0012</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>P0014</t>
+  </si>
+  <si>
+    <t>P0015</t>
+  </si>
+  <si>
+    <t>P0016</t>
+  </si>
+  <si>
+    <t>P0017</t>
+  </si>
+  <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>P0019</t>
+  </si>
+  <si>
+    <t>P0020</t>
+  </si>
+  <si>
+    <t>P0021</t>
+  </si>
+  <si>
+    <t>P0022</t>
+  </si>
+  <si>
+    <t>P0023</t>
+  </si>
+  <si>
+    <t>P0024</t>
+  </si>
+  <si>
+    <t>P0025</t>
+  </si>
+  <si>
+    <t>P0026</t>
+  </si>
+  <si>
+    <t>P0027</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
+    <t>P0029</t>
+  </si>
+  <si>
+    <t>P0030</t>
+  </si>
+  <si>
+    <t>P0031</t>
+  </si>
+  <si>
+    <t>P0032</t>
+  </si>
+  <si>
+    <t>P0033</t>
+  </si>
+  <si>
+    <t>P0034</t>
+  </si>
+  <si>
+    <t>P0035</t>
+  </si>
+  <si>
+    <t>P0036</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>P0038</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
+    <t>P0040</t>
+  </si>
+  <si>
+    <t>P0041</t>
+  </si>
+  <si>
+    <t>P0042</t>
+  </si>
+  <si>
+    <t>P0043</t>
+  </si>
+  <si>
+    <t>P0044</t>
+  </si>
+  <si>
+    <t>P0045</t>
+  </si>
+  <si>
+    <t>P0046</t>
+  </si>
+  <si>
+    <t>P0047</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>P0053</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>P0068</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>P0070</t>
+  </si>
+  <si>
+    <t>P0071</t>
+  </si>
+  <si>
+    <t>P0072</t>
+  </si>
+  <si>
+    <t>P0073</t>
+  </si>
+  <si>
+    <t>P0074</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>P0076</t>
+  </si>
+  <si>
+    <t>P0077</t>
+  </si>
+  <si>
+    <t>P0078</t>
+  </si>
+  <si>
+    <t>P0079</t>
+  </si>
+  <si>
+    <t>P0080</t>
+  </si>
+  <si>
+    <t>P0081</t>
+  </si>
+  <si>
+    <t>P0082</t>
+  </si>
+  <si>
+    <t>P0083</t>
+  </si>
+  <si>
+    <t>P0084</t>
+  </si>
+  <si>
+    <t>P0085</t>
+  </si>
+  <si>
+    <t>P0086</t>
+  </si>
+  <si>
+    <t>P0087</t>
+  </si>
+  <si>
+    <t>P0088</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>P0090</t>
+  </si>
+  <si>
+    <t>P0091</t>
+  </si>
+  <si>
+    <t>P0092</t>
+  </si>
+  <si>
+    <t>P0093</t>
+  </si>
+  <si>
+    <t>P0094</t>
+  </si>
+  <si>
+    <t>P0095</t>
+  </si>
+  <si>
+    <t>P0096</t>
+  </si>
+  <si>
+    <t>P0097</t>
+  </si>
+  <si>
+    <t>P0098</t>
+  </si>
+  <si>
+    <t>P0099</t>
+  </si>
+  <si>
+    <t>P0100</t>
+  </si>
+  <si>
+    <t>P0101</t>
+  </si>
+  <si>
+    <t>P0102</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>P0105</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>P0107</t>
+  </si>
+  <si>
+    <t>P0108</t>
+  </si>
+  <si>
+    <t>P0109</t>
+  </si>
+  <si>
+    <t>P0110</t>
+  </si>
+  <si>
+    <t>P0111</t>
+  </si>
+  <si>
+    <t>P0112</t>
+  </si>
+  <si>
+    <t>P0113</t>
+  </si>
+  <si>
+    <t>P0114</t>
+  </si>
+  <si>
+    <t>P0115</t>
+  </si>
+  <si>
+    <t>P0116</t>
+  </si>
+  <si>
+    <t>P0117</t>
+  </si>
+  <si>
+    <t>P0118</t>
+  </si>
+  <si>
+    <t>P0119</t>
+  </si>
+  <si>
+    <t>Kloe</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Ocknor</t>
+  </si>
+  <si>
+    <t>Sade</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Nicks</t>
+  </si>
+  <si>
+    <t>Shi</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Patson</t>
+  </si>
+  <si>
+    <t>Obrian</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Osvald</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Tasha</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Mell</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Kamala</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Pascaline</t>
+  </si>
+  <si>
+    <t>Alline</t>
+  </si>
+  <si>
+    <t>Aleandro</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Mousa</t>
+  </si>
+  <si>
+    <t>Baka</t>
+  </si>
+  <si>
+    <t>Baley</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Martita</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Lionel</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Bratt</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Aurelie</t>
+  </si>
+  <si>
+    <t>Jasmina</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Kolia</t>
+  </si>
+  <si>
+    <t>Alin</t>
+  </si>
+  <si>
+    <t>Adasha</t>
+  </si>
+  <si>
+    <t>Bet</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Edouardo</t>
+  </si>
+  <si>
+    <t>Elvira</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Evelyne</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Bianka</t>
+  </si>
+  <si>
+    <t>Benedicta</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Rosaline</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Micheline</t>
+  </si>
+  <si>
+    <t>Madeline</t>
+  </si>
+  <si>
+    <t>Magaret</t>
+  </si>
+  <si>
+    <t>Mayi</t>
+  </si>
+  <si>
+    <t>Mafe</t>
+  </si>
+  <si>
+    <t>Mireille</t>
+  </si>
+  <si>
+    <t>Melonchon</t>
+  </si>
+  <si>
+    <t>Mondesir</t>
+  </si>
+  <si>
+    <t>Meite</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Nouba</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Kaline</t>
+  </si>
+  <si>
+    <t>Kathie</t>
+  </si>
+  <si>
+    <t>Katerine</t>
+  </si>
+  <si>
+    <t>Solange</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Georgeline</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Franchesca</t>
+  </si>
+  <si>
+    <t>Fidel</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Sandrine</t>
+  </si>
+  <si>
+    <t>Sissi</t>
+  </si>
+  <si>
+    <t>Sosso</t>
+  </si>
+  <si>
+    <t>Mamadou</t>
+  </si>
+  <si>
+    <t>Jafar</t>
+  </si>
+  <si>
+    <t>Guedi</t>
+  </si>
+  <si>
+    <t>Gethan</t>
+  </si>
+  <si>
+    <t>Gabriella</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Adeline</t>
+  </si>
+  <si>
+    <t>P0120</t>
+  </si>
+  <si>
+    <t>Koffi</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Cobbs</t>
+  </si>
+  <si>
+    <t>Ferari</t>
+  </si>
+  <si>
+    <t>Bona</t>
+  </si>
+  <si>
+    <t>Joujou</t>
+  </si>
+  <si>
+    <t>Bamba</t>
+  </si>
+  <si>
+    <t>Kolt</t>
+  </si>
+  <si>
+    <t>Arsange</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>Lolas</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Macron</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Karr</t>
+  </si>
+  <si>
+    <t>Mayorkas</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Monarc</t>
+  </si>
+  <si>
+    <t>Alcatras</t>
+  </si>
+  <si>
+    <t>Versace</t>
+  </si>
+  <si>
+    <t>Alioune</t>
+  </si>
+  <si>
+    <t>Bakary</t>
+  </si>
+  <si>
+    <t>Thones</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Brunette</t>
+  </si>
+  <si>
+    <t>Kabila</t>
+  </si>
+  <si>
+    <t>Knowles</t>
+  </si>
+  <si>
+    <t>Moab</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Sefora</t>
+  </si>
+  <si>
+    <t>Kepir</t>
+  </si>
+  <si>
+    <t>Messi</t>
+  </si>
+  <si>
+    <t>Dupont</t>
+  </si>
+  <si>
+    <t>Dicaprio</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Niane</t>
+  </si>
+  <si>
+    <t>Sengor</t>
+  </si>
+  <si>
+    <t>Aboulaye</t>
+  </si>
+  <si>
+    <t>Casty</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Kerr</t>
+  </si>
+  <si>
+    <t>Merkel</t>
+  </si>
+  <si>
+    <t>Evra</t>
+  </si>
+  <si>
+    <t>Lampard</t>
+  </si>
+  <si>
+    <t>Stephane</t>
+  </si>
+  <si>
+    <t>Luwa</t>
+  </si>
+  <si>
+    <t>Dara</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Presly</t>
+  </si>
+  <si>
+    <t>Kouassi</t>
+  </si>
+  <si>
+    <t>Niaga</t>
+  </si>
+  <si>
+    <t>Hollande</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Lore</t>
+  </si>
+  <si>
+    <t>Ridwan</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Bauer</t>
+  </si>
+  <si>
+    <t>Affi</t>
+  </si>
+  <si>
+    <t>Blessing</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>Bohiki</t>
+  </si>
+  <si>
+    <t>Allah</t>
+  </si>
+  <si>
+    <t>Sindou</t>
+  </si>
+  <si>
+    <t>Coul</t>
+  </si>
+  <si>
+    <t>Penney</t>
+  </si>
+  <si>
+    <t>Loza</t>
+  </si>
+  <si>
+    <t>Ajayi</t>
+  </si>
+  <si>
+    <t>Oke</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Lizarazu</t>
+  </si>
+  <si>
+    <t>Totti</t>
+  </si>
+  <si>
+    <t>Frorentino</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Kohl</t>
+  </si>
+  <si>
+    <t>Macy</t>
+  </si>
+  <si>
+    <t>Marlone</t>
+  </si>
+  <si>
+    <t>Bouba</t>
+  </si>
+  <si>
+    <t>Cisse</t>
+  </si>
+  <si>
+    <t>Kissia</t>
+  </si>
+  <si>
+    <t>Martins</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Baloteli</t>
+  </si>
+  <si>
+    <t>Krost</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +1498,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -774,8 +1531,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,18 +1851,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,100 +1873,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1220,432 +1979,1753 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD74DBE3-6ABC-4C44-AB0D-011BBC123A92}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>32885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>28789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>32894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="2">
+        <v>34265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="2">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="2">
+        <v>33897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="2">
+        <v>33176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="2">
+        <v>33086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="2">
+        <v>32906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="2">
+        <v>33210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="2">
+        <v>32908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="2">
+        <v>28891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32910</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C28" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="2">
+        <v>32393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="2">
+        <v>32547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="2">
+        <v>28530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="2">
+        <v>25609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="2">
+        <v>29263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="2">
+        <v>32946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="2">
+        <v>33709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" s="2">
+        <v>33009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="2">
+        <v>33071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="2">
+        <v>33468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D40" s="2">
+        <v>33073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" s="2">
+        <v>33197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" s="2">
+        <v>33898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2">
+        <v>32926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="2">
+        <v>33077</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="2">
+        <v>32928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="2">
+        <v>33232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" t="s">
+        <v>408</v>
+      </c>
+      <c r="D47" s="2">
+        <v>32930</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D48" s="2">
+        <v>32931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" t="s">
+        <v>410</v>
+      </c>
+      <c r="D49" s="2">
+        <v>32932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="2">
+        <v>32933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" t="s">
+        <v>412</v>
+      </c>
+      <c r="D51" s="2">
+        <v>32934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D52" s="2">
+        <v>32935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="2">
+        <v>32936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" t="s">
+        <v>415</v>
+      </c>
+      <c r="D54" s="2">
+        <v>32937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="2">
+        <v>32938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" t="s">
+        <v>320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="2">
+        <v>32939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="2">
+        <v>32940</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>419</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" t="s">
+        <v>420</v>
+      </c>
+      <c r="D60" s="2">
+        <v>33492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="2">
+        <v>32944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" s="2">
+        <v>32945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D63" s="2">
+        <v>32946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D64" s="2">
+        <v>32947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="2">
+        <v>32583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" t="s">
+        <v>426</v>
+      </c>
+      <c r="D66" s="2">
+        <v>32219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" t="s">
+        <v>427</v>
+      </c>
+      <c r="D67" s="2">
+        <v>33315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>428</v>
+      </c>
+      <c r="D68" s="2">
+        <v>33682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="2">
+        <v>32952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="2">
+        <v>34414</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>431</v>
+      </c>
+      <c r="D71" s="2">
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" t="s">
+        <v>432</v>
+      </c>
+      <c r="D72" s="2">
+        <v>33686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" s="2">
+        <v>33321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" s="2">
+        <v>34418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" t="s">
+        <v>435</v>
+      </c>
+      <c r="D75" s="2">
+        <v>34054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" t="s">
+        <v>436</v>
+      </c>
+      <c r="D76" s="2">
+        <v>25654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" t="s">
+        <v>437</v>
+      </c>
+      <c r="D77" s="2">
+        <v>27847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" t="s">
+        <v>438</v>
+      </c>
+      <c r="D78" s="2">
+        <v>28578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" s="2">
+        <v>34058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" s="2">
+        <v>29311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81" s="2">
+        <v>26755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82" t="s">
+        <v>442</v>
+      </c>
+      <c r="D82" s="2">
+        <v>32691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" s="2">
+        <v>30775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>347</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" s="2">
+        <v>31141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" t="s">
+        <v>444</v>
+      </c>
+      <c r="D85" s="2">
+        <v>31507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" t="s">
+        <v>445</v>
+      </c>
+      <c r="D86" s="2">
+        <v>32269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>350</v>
+      </c>
+      <c r="C87" t="s">
+        <v>446</v>
+      </c>
+      <c r="D87" s="2">
+        <v>32605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" t="s">
+        <v>447</v>
+      </c>
+      <c r="D88" s="2">
+        <v>32241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>236</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89" s="2">
+        <v>32607</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="2">
+        <v>26033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" s="2">
+        <v>25669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" t="s">
+        <v>451</v>
+      </c>
+      <c r="D92" s="2">
+        <v>30053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" t="s">
+        <v>452</v>
+      </c>
+      <c r="D93" s="2">
+        <v>25306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" t="s">
+        <v>453</v>
+      </c>
+      <c r="D94" s="2">
+        <v>33708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" t="s">
+        <v>454</v>
+      </c>
+      <c r="D95" s="2">
+        <v>28595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" t="s">
+        <v>455</v>
+      </c>
+      <c r="D96" s="2">
+        <v>26770</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C97" t="s">
+        <v>456</v>
+      </c>
+      <c r="D97" s="2">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>245</v>
+      </c>
+      <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" s="2">
+        <v>28233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>457</v>
+      </c>
+      <c r="D99" s="2">
+        <v>25312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s">
+        <v>363</v>
+      </c>
+      <c r="C100" t="s">
+        <v>422</v>
+      </c>
+      <c r="D100" s="2">
+        <v>32618</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" s="2">
+        <v>31888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B102" t="s">
+        <v>365</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="2">
+        <v>28602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C103" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" s="2">
+        <v>25681</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>251</v>
+      </c>
+      <c r="B104" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="2">
+        <v>28239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C105" t="s">
+        <v>461</v>
+      </c>
+      <c r="D105" s="2">
+        <v>32623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" t="s">
+        <v>462</v>
+      </c>
+      <c r="D106" s="2">
+        <v>31893</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" t="s">
+        <v>370</v>
+      </c>
+      <c r="C107" t="s">
+        <v>463</v>
+      </c>
+      <c r="D107" s="2">
+        <v>31529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B108" t="s">
+        <v>371</v>
+      </c>
+      <c r="C108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D108" s="2">
+        <v>33356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>256</v>
+      </c>
+      <c r="B109" t="s">
+        <v>372</v>
+      </c>
+      <c r="C109" t="s">
+        <v>465</v>
+      </c>
+      <c r="D109" s="2">
+        <v>34453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" t="s">
+        <v>466</v>
+      </c>
+      <c r="D110" s="2">
+        <v>29341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" t="s">
+        <v>374</v>
+      </c>
+      <c r="C111" t="s">
+        <v>467</v>
+      </c>
+      <c r="D111" s="2">
+        <v>22037</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" t="s">
+        <v>375</v>
+      </c>
+      <c r="C112" t="s">
+        <v>468</v>
+      </c>
+      <c r="D112" s="2">
+        <v>29343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>469</v>
+      </c>
+      <c r="D113" s="2">
+        <v>33727</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" t="s">
+        <v>377</v>
+      </c>
+      <c r="C114" t="s">
+        <v>470</v>
+      </c>
+      <c r="D114" s="2">
+        <v>32997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
+        <v>378</v>
+      </c>
+      <c r="C115" t="s">
+        <v>471</v>
+      </c>
+      <c r="D115" s="2">
+        <v>28250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" t="s">
+        <v>379</v>
+      </c>
+      <c r="C116" t="s">
+        <v>452</v>
+      </c>
+      <c r="D116" s="2">
+        <v>28616</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" t="s">
+        <v>472</v>
+      </c>
+      <c r="D117" s="2">
+        <v>32635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" t="s">
+        <v>473</v>
+      </c>
+      <c r="D118" s="2">
+        <v>25696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" t="s">
+        <v>474</v>
+      </c>
+      <c r="D119" s="2">
+        <v>33733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" s="2">
+        <v>34099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" t="s">
+        <v>384</v>
+      </c>
+      <c r="C121" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" s="2">
+        <v>33369</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1655,108 +3735,108 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1769,101 +3849,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1879,169 +3957,169 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2054,815 +4132,815 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032382B-5B62-4C5B-AC12-CE1F890B35DB}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C46">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="C59">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="C61">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2884,90 +4962,90 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2977,119 +5055,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3099,100 +5152,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CF0C34-8521-4D3D-9253-A46290CACE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F90B8-F30E-4F84-92D0-F24802FCA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2940" windowWidth="21420" windowHeight="11385" activeTab="1" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="12" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Outposts 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
     <sheet name="People 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Jobs 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Roles 3" sheetId="3" r:id="rId3"/>
     <sheet name="People Jobs" sheetId="4" r:id="rId4"/>
     <sheet name="Inventory Description 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Outpost Inventory" sheetId="6" r:id="rId6"/>
+    <sheet name="Settlement Inventory" sheetId="6" r:id="rId6"/>
     <sheet name="Weapons 5" sheetId="7" r:id="rId7"/>
     <sheet name="Foods 6" sheetId="8" r:id="rId8"/>
     <sheet name="Vehicles 7" sheetId="9" r:id="rId9"/>
-    <sheet name="Housing 8" sheetId="10" r:id="rId10"/>
-    <sheet name="Transactions 9" sheetId="12" r:id="rId11"/>
-    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId12"/>
+    <sheet name="Medicine" sheetId="14" r:id="rId10"/>
+    <sheet name="Housing 8" sheetId="10" r:id="rId11"/>
+    <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
+    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,80 +46,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="478">
-  <si>
-    <t>CityID</t>
-  </si>
-  <si>
-    <t>Outpost Location</t>
-  </si>
-  <si>
-    <t>Security Level</t>
-  </si>
-  <si>
-    <t>OP001</t>
-  </si>
-  <si>
-    <t>SCSU Outpost</t>
-  </si>
-  <si>
-    <t>OP002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="567">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
   <si>
-    <t>OP003</t>
-  </si>
-  <si>
     <t>North Saint Cloud</t>
   </si>
   <si>
-    <t>OP004</t>
-  </si>
-  <si>
-    <t>River Outpost</t>
-  </si>
-  <si>
-    <t>OP005</t>
-  </si>
-  <si>
-    <t>Saint Joseph Outpost</t>
-  </si>
-  <si>
-    <t>OP006</t>
-  </si>
-  <si>
-    <t>I94 Outpost</t>
-  </si>
-  <si>
-    <t>OP007</t>
-  </si>
-  <si>
-    <t>HW15 Outpost</t>
-  </si>
-  <si>
-    <t>OP008</t>
-  </si>
-  <si>
-    <t>SCTCC Outpost</t>
-  </si>
-  <si>
-    <t>OP009</t>
-  </si>
-  <si>
-    <t>Crossroads Outpost</t>
-  </si>
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>P0001</t>
   </si>
   <si>
@@ -386,9 +321,6 @@
     <t>Flashlight</t>
   </si>
   <si>
-    <t>Outpost</t>
-  </si>
-  <si>
     <t>Quanitity</t>
   </si>
   <si>
@@ -1478,7 +1410,343 @@
     <t>Krost</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>SCSU Settlement</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>River Settlement</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>Saint Joseph Settlement</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>I94 Settlement</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>HW15 Settlement</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>SCTCC Settlement</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>Crossroads Settlement</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>SettlementID</t>
+  </si>
+  <si>
+    <t>Peas</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>F011</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>VehicleDescription</t>
+  </si>
+  <si>
+    <t>V001</t>
+  </si>
+  <si>
+    <t>ATV</t>
+  </si>
+  <si>
+    <t>V002</t>
+  </si>
+  <si>
+    <t>MotorCycle</t>
+  </si>
+  <si>
+    <t>V003</t>
+  </si>
+  <si>
+    <t>Dirt Bike</t>
+  </si>
+  <si>
+    <t>V004</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>V005</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>V006</t>
+  </si>
+  <si>
+    <t>Helicopter</t>
+  </si>
+  <si>
+    <t>V007</t>
+  </si>
+  <si>
+    <t>Horse w/ Buggy</t>
+  </si>
+  <si>
+    <t>V008</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>V009</t>
+  </si>
+  <si>
+    <t>V010</t>
+  </si>
+  <si>
+    <t>FirstAidDescription</t>
+  </si>
+  <si>
+    <t>Antibiotics</t>
+  </si>
+  <si>
+    <t>Tylenol</t>
+  </si>
+  <si>
+    <t>Syringes</t>
+  </si>
+  <si>
+    <t>Gause</t>
+  </si>
+  <si>
+    <t>Band-Aids</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Tournequet</t>
+  </si>
+  <si>
+    <t>Stitches</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>Cough Syrup</t>
+  </si>
+  <si>
+    <t>MedicineID</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>HousingID</t>
+  </si>
+  <si>
+    <t>HousingDescription</t>
+  </si>
+  <si>
+    <t>H001</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>H002</t>
+  </si>
+  <si>
+    <t>Camper</t>
+  </si>
+  <si>
+    <t>H003</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>H004</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>H005</t>
+  </si>
+  <si>
+    <t>H006</t>
+  </si>
+  <si>
+    <t>H007</t>
+  </si>
+  <si>
+    <t>H008</t>
+  </si>
+  <si>
+    <t>ZombieID</t>
+  </si>
+  <si>
+    <t>ZombieDescription</t>
+  </si>
+  <si>
+    <t>Z001</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Z002</t>
+  </si>
+  <si>
+    <t>Crawler</t>
+  </si>
+  <si>
+    <t>Z003</t>
+  </si>
+  <si>
+    <t>Exploder</t>
+  </si>
+  <si>
+    <t>Z004</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>Z005</t>
+  </si>
+  <si>
+    <t>Leaper</t>
+  </si>
+  <si>
+    <t>Z006</t>
+  </si>
+  <si>
+    <t>Z007</t>
+  </si>
+  <si>
+    <t>Z008</t>
+  </si>
+  <si>
+    <t>Z009</t>
+  </si>
+  <si>
+    <t>Z010</t>
+  </si>
+  <si>
+    <t>SettlementLocation</t>
+  </si>
+  <si>
+    <t>SecurityLevel</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
   </si>
 </sst>
 </file>
@@ -1486,9 +1754,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,14 +1766,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1533,8 +1793,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,33 +2112,33 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>455</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1886,10 +2146,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1897,10 +2157,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1908,10 +2168,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1919,10 +2179,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1930,10 +2190,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>463</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1941,10 +2201,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1952,10 +2212,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1963,10 +2223,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1979,37 +2239,298 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="C11:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2018,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,1696 +2552,1696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>477</v>
+      <c r="A1" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
         <v>32885</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>29507</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>32887</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>33202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
         <v>28789</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
         <v>32890</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
         <v>25890</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
         <v>32892</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
         <v>29514</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
         <v>32894</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="2">
+        <v>246</v>
+      </c>
+      <c r="D12" s="1">
         <v>25590</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="2">
+        <v>248</v>
+      </c>
+      <c r="D13" s="1">
         <v>34265</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="2">
+        <v>250</v>
+      </c>
+      <c r="D14" s="1">
         <v>26200</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="2">
+        <v>252</v>
+      </c>
+      <c r="D15" s="1">
         <v>33897</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D16" s="2">
+        <v>254</v>
+      </c>
+      <c r="D16" s="1">
         <v>32838</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="2">
+        <v>256</v>
+      </c>
+      <c r="D17" s="1">
         <v>32900</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="2">
+        <v>257</v>
+      </c>
+      <c r="D18" s="1">
         <v>33158</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="2">
+        <v>259</v>
+      </c>
+      <c r="D19" s="1">
         <v>32810</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="2">
+        <v>261</v>
+      </c>
+      <c r="D20" s="1">
         <v>33176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="2">
+        <v>263</v>
+      </c>
+      <c r="D21" s="1">
         <v>32904</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D22" s="2">
+        <v>363</v>
+      </c>
+      <c r="D22" s="1">
         <v>33086</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="2">
+        <v>364</v>
+      </c>
+      <c r="D23" s="1">
         <v>32906</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="2">
+        <v>365</v>
+      </c>
+      <c r="D24" s="1">
         <v>33210</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
-      </c>
-      <c r="D25" s="2">
+        <v>366</v>
+      </c>
+      <c r="D25" s="1">
         <v>32908</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D26" s="2">
+        <v>367</v>
+      </c>
+      <c r="D26" s="1">
         <v>28891</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
-      </c>
-      <c r="D27" s="2">
+        <v>368</v>
+      </c>
+      <c r="D27" s="1">
         <v>32910</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="2">
+        <v>369</v>
+      </c>
+      <c r="D28" s="1">
         <v>32393</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>393</v>
-      </c>
-      <c r="D29" s="2">
+        <v>370</v>
+      </c>
+      <c r="D29" s="1">
         <v>32547</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="2">
+        <v>371</v>
+      </c>
+      <c r="D30" s="1">
         <v>28530</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="2">
+        <v>372</v>
+      </c>
+      <c r="D31" s="1">
         <v>25609</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
-      </c>
-      <c r="D32" s="2">
+        <v>373</v>
+      </c>
+      <c r="D32" s="1">
         <v>32915</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" s="2">
+        <v>374</v>
+      </c>
+      <c r="D33" s="1">
         <v>29263</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
-      </c>
-      <c r="D34" s="2">
+        <v>375</v>
+      </c>
+      <c r="D34" s="1">
         <v>32917</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" s="2">
+        <v>376</v>
+      </c>
+      <c r="D35" s="1">
         <v>32946</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>400</v>
-      </c>
-      <c r="D36" s="2">
+        <v>377</v>
+      </c>
+      <c r="D36" s="1">
         <v>33709</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
-      </c>
-      <c r="D37" s="2">
+        <v>378</v>
+      </c>
+      <c r="D37" s="1">
         <v>33009</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
-      </c>
-      <c r="D38" s="2">
+        <v>379</v>
+      </c>
+      <c r="D38" s="1">
         <v>33071</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="2">
+        <v>261</v>
+      </c>
+      <c r="D39" s="1">
         <v>33468</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
-      </c>
-      <c r="D40" s="2">
+        <v>380</v>
+      </c>
+      <c r="D40" s="1">
         <v>33073</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>404</v>
-      </c>
-      <c r="D41" s="2">
+        <v>381</v>
+      </c>
+      <c r="D41" s="1">
         <v>33197</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>405</v>
-      </c>
-      <c r="D42" s="2">
+        <v>382</v>
+      </c>
+      <c r="D42" s="1">
         <v>33898</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1">
         <v>32926</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="2">
+        <v>246</v>
+      </c>
+      <c r="D44" s="1">
         <v>33077</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
-      </c>
-      <c r="D45" s="2">
+        <v>383</v>
+      </c>
+      <c r="D45" s="1">
         <v>32928</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>407</v>
-      </c>
-      <c r="D46" s="2">
+        <v>384</v>
+      </c>
+      <c r="D46" s="1">
         <v>33232</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>408</v>
-      </c>
-      <c r="D47" s="2">
+        <v>385</v>
+      </c>
+      <c r="D47" s="1">
         <v>32930</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
-        <v>409</v>
-      </c>
-      <c r="D48" s="2">
+        <v>386</v>
+      </c>
+      <c r="D48" s="1">
         <v>32931</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="2">
+        <v>387</v>
+      </c>
+      <c r="D49" s="1">
         <v>32932</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C50" t="s">
-        <v>411</v>
-      </c>
-      <c r="D50" s="2">
+        <v>388</v>
+      </c>
+      <c r="D50" s="1">
         <v>32933</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C51" t="s">
-        <v>412</v>
-      </c>
-      <c r="D51" s="2">
+        <v>389</v>
+      </c>
+      <c r="D51" s="1">
         <v>32934</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
-      </c>
-      <c r="D52" s="2">
+        <v>390</v>
+      </c>
+      <c r="D52" s="1">
         <v>32935</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
-      </c>
-      <c r="D53" s="2">
+        <v>391</v>
+      </c>
+      <c r="D53" s="1">
         <v>32936</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>415</v>
-      </c>
-      <c r="D54" s="2">
+        <v>392</v>
+      </c>
+      <c r="D54" s="1">
         <v>32937</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
-      </c>
-      <c r="D55" s="2">
+        <v>393</v>
+      </c>
+      <c r="D55" s="1">
         <v>32938</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D56" s="2">
+        <v>394</v>
+      </c>
+      <c r="D56" s="1">
         <v>32939</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>322</v>
-      </c>
-      <c r="D57" s="2">
+        <v>299</v>
+      </c>
+      <c r="D57" s="1">
         <v>32940</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
-      </c>
-      <c r="D58" s="2">
+        <v>395</v>
+      </c>
+      <c r="D58" s="1">
         <v>32941</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
-      </c>
-      <c r="D59" s="2">
+        <v>396</v>
+      </c>
+      <c r="D59" s="1">
         <v>32942</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
-      </c>
-      <c r="D60" s="2">
+        <v>397</v>
+      </c>
+      <c r="D60" s="1">
         <v>33492</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
-      </c>
-      <c r="D61" s="2">
+        <v>398</v>
+      </c>
+      <c r="D61" s="1">
         <v>32944</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D62" s="2">
+        <v>399</v>
+      </c>
+      <c r="D62" s="1">
         <v>32945</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>423</v>
-      </c>
-      <c r="D63" s="2">
+        <v>400</v>
+      </c>
+      <c r="D63" s="1">
         <v>32946</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>424</v>
-      </c>
-      <c r="D64" s="2">
+        <v>401</v>
+      </c>
+      <c r="D64" s="1">
         <v>32947</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C65" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="2">
+        <v>402</v>
+      </c>
+      <c r="D65" s="1">
         <v>32583</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C66" t="s">
-        <v>426</v>
-      </c>
-      <c r="D66" s="2">
+        <v>403</v>
+      </c>
+      <c r="D66" s="1">
         <v>32219</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D67" s="2">
+        <v>404</v>
+      </c>
+      <c r="D67" s="1">
         <v>33315</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
-      </c>
-      <c r="D68" s="2">
+        <v>405</v>
+      </c>
+      <c r="D68" s="1">
         <v>33682</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>429</v>
-      </c>
-      <c r="D69" s="2">
+        <v>406</v>
+      </c>
+      <c r="D69" s="1">
         <v>32952</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>430</v>
-      </c>
-      <c r="D70" s="2">
+        <v>407</v>
+      </c>
+      <c r="D70" s="1">
         <v>34414</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C71" t="s">
-        <v>431</v>
-      </c>
-      <c r="D71" s="2">
+        <v>408</v>
+      </c>
+      <c r="D71" s="1">
         <v>34050</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C72" t="s">
-        <v>432</v>
-      </c>
-      <c r="D72" s="2">
+        <v>409</v>
+      </c>
+      <c r="D72" s="1">
         <v>33686</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>433</v>
-      </c>
-      <c r="D73" s="2">
+        <v>410</v>
+      </c>
+      <c r="D73" s="1">
         <v>33321</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="2">
+        <v>411</v>
+      </c>
+      <c r="D74" s="1">
         <v>34418</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
-        <v>435</v>
-      </c>
-      <c r="D75" s="2">
+        <v>412</v>
+      </c>
+      <c r="D75" s="1">
         <v>34054</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C76" t="s">
-        <v>436</v>
-      </c>
-      <c r="D76" s="2">
+        <v>413</v>
+      </c>
+      <c r="D76" s="1">
         <v>25654</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
-        <v>437</v>
-      </c>
-      <c r="D77" s="2">
+        <v>414</v>
+      </c>
+      <c r="D77" s="1">
         <v>27847</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
-        <v>438</v>
-      </c>
-      <c r="D78" s="2">
+        <v>415</v>
+      </c>
+      <c r="D78" s="1">
         <v>28578</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C79" t="s">
-        <v>439</v>
-      </c>
-      <c r="D79" s="2">
+        <v>416</v>
+      </c>
+      <c r="D79" s="1">
         <v>34058</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>440</v>
-      </c>
-      <c r="D80" s="2">
+        <v>417</v>
+      </c>
+      <c r="D80" s="1">
         <v>29311</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C81" t="s">
-        <v>441</v>
-      </c>
-      <c r="D81" s="2">
+        <v>418</v>
+      </c>
+      <c r="D81" s="1">
         <v>26755</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B82" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
-        <v>442</v>
-      </c>
-      <c r="D82" s="2">
+        <v>419</v>
+      </c>
+      <c r="D82" s="1">
         <v>32691</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
-      </c>
-      <c r="D83" s="2">
+        <v>420</v>
+      </c>
+      <c r="D83" s="1">
         <v>30775</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C84" t="s">
-        <v>382</v>
-      </c>
-      <c r="D84" s="2">
+        <v>359</v>
+      </c>
+      <c r="D84" s="1">
         <v>31141</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
-      </c>
-      <c r="D85" s="2">
+        <v>421</v>
+      </c>
+      <c r="D85" s="1">
         <v>31507</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>445</v>
-      </c>
-      <c r="D86" s="2">
+        <v>422</v>
+      </c>
+      <c r="D86" s="1">
         <v>32269</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
-      </c>
-      <c r="D87" s="2">
+        <v>423</v>
+      </c>
+      <c r="D87" s="1">
         <v>32605</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
-        <v>447</v>
-      </c>
-      <c r="D88" s="2">
+        <v>424</v>
+      </c>
+      <c r="D88" s="1">
         <v>32241</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>448</v>
-      </c>
-      <c r="D89" s="2">
+        <v>425</v>
+      </c>
+      <c r="D89" s="1">
         <v>32607</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
-        <v>449</v>
-      </c>
-      <c r="D90" s="2">
+        <v>426</v>
+      </c>
+      <c r="D90" s="1">
         <v>26033</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
-      </c>
-      <c r="D91" s="2">
+        <v>427</v>
+      </c>
+      <c r="D91" s="1">
         <v>25669</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>451</v>
-      </c>
-      <c r="D92" s="2">
+        <v>428</v>
+      </c>
+      <c r="D92" s="1">
         <v>30053</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" s="2">
+        <v>429</v>
+      </c>
+      <c r="D93" s="1">
         <v>25306</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
-      </c>
-      <c r="D94" s="2">
+        <v>430</v>
+      </c>
+      <c r="D94" s="1">
         <v>33708</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B95" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s">
-        <v>454</v>
-      </c>
-      <c r="D95" s="2">
+        <v>431</v>
+      </c>
+      <c r="D95" s="1">
         <v>28595</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
-      </c>
-      <c r="D96" s="2">
+        <v>432</v>
+      </c>
+      <c r="D96" s="1">
         <v>26770</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
-        <v>456</v>
-      </c>
-      <c r="D97" s="2">
+        <v>433</v>
+      </c>
+      <c r="D97" s="1">
         <v>32250</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C98" t="s">
-        <v>441</v>
-      </c>
-      <c r="D98" s="2">
+        <v>418</v>
+      </c>
+      <c r="D98" s="1">
         <v>28233</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C99" t="s">
-        <v>457</v>
-      </c>
-      <c r="D99" s="2">
+        <v>434</v>
+      </c>
+      <c r="D99" s="1">
         <v>25312</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
-        <v>422</v>
-      </c>
-      <c r="D100" s="2">
+        <v>399</v>
+      </c>
+      <c r="D100" s="1">
         <v>32618</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
-      </c>
-      <c r="D101" s="2">
+        <v>435</v>
+      </c>
+      <c r="D101" s="1">
         <v>31888</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
-      </c>
-      <c r="D102" s="2">
+        <v>253</v>
+      </c>
+      <c r="D102" s="1">
         <v>28602</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C103" t="s">
-        <v>459</v>
-      </c>
-      <c r="D103" s="2">
+        <v>436</v>
+      </c>
+      <c r="D103" s="1">
         <v>25681</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s">
-        <v>460</v>
-      </c>
-      <c r="D104" s="2">
+        <v>437</v>
+      </c>
+      <c r="D104" s="1">
         <v>28239</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
-      </c>
-      <c r="D105" s="2">
+        <v>438</v>
+      </c>
+      <c r="D105" s="1">
         <v>32623</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C106" t="s">
-        <v>462</v>
-      </c>
-      <c r="D106" s="2">
+        <v>439</v>
+      </c>
+      <c r="D106" s="1">
         <v>31893</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C107" t="s">
-        <v>463</v>
-      </c>
-      <c r="D107" s="2">
+        <v>440</v>
+      </c>
+      <c r="D107" s="1">
         <v>31529</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
-      </c>
-      <c r="D108" s="2">
+        <v>441</v>
+      </c>
+      <c r="D108" s="1">
         <v>33356</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B109" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s">
-        <v>465</v>
-      </c>
-      <c r="D109" s="2">
+        <v>442</v>
+      </c>
+      <c r="D109" s="1">
         <v>34453</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C110" t="s">
-        <v>466</v>
-      </c>
-      <c r="D110" s="2">
+        <v>443</v>
+      </c>
+      <c r="D110" s="1">
         <v>29341</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B111" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C111" t="s">
-        <v>467</v>
-      </c>
-      <c r="D111" s="2">
+        <v>444</v>
+      </c>
+      <c r="D111" s="1">
         <v>22037</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B112" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C112" t="s">
-        <v>468</v>
-      </c>
-      <c r="D112" s="2">
+        <v>445</v>
+      </c>
+      <c r="D112" s="1">
         <v>29343</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>469</v>
-      </c>
-      <c r="D113" s="2">
+        <v>446</v>
+      </c>
+      <c r="D113" s="1">
         <v>33727</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>470</v>
-      </c>
-      <c r="D114" s="2">
+        <v>447</v>
+      </c>
+      <c r="D114" s="1">
         <v>32997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C115" t="s">
-        <v>471</v>
-      </c>
-      <c r="D115" s="2">
+        <v>448</v>
+      </c>
+      <c r="D115" s="1">
         <v>28250</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="C116" t="s">
-        <v>452</v>
-      </c>
-      <c r="D116" s="2">
+        <v>429</v>
+      </c>
+      <c r="D116" s="1">
         <v>28616</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C117" t="s">
-        <v>472</v>
-      </c>
-      <c r="D117" s="2">
+        <v>449</v>
+      </c>
+      <c r="D117" s="1">
         <v>32635</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="C118" t="s">
-        <v>473</v>
-      </c>
-      <c r="D118" s="2">
+        <v>450</v>
+      </c>
+      <c r="D118" s="1">
         <v>25696</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C119" t="s">
-        <v>474</v>
-      </c>
-      <c r="D119" s="2">
+        <v>451</v>
+      </c>
+      <c r="D119" s="1">
         <v>33733</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>475</v>
-      </c>
-      <c r="D120" s="2">
+        <v>452</v>
+      </c>
+      <c r="D120" s="1">
         <v>34099</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="C121" t="s">
-        <v>476</v>
-      </c>
-      <c r="D121" s="2">
+        <v>453</v>
+      </c>
+      <c r="D121" s="1">
         <v>33369</v>
       </c>
     </row>
@@ -3745,98 +4266,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3849,99 +4370,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3964,162 +4487,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4133,33 +4656,34 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -4167,10 +4691,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>320</v>
@@ -4178,10 +4702,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -4189,10 +4713,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -4200,10 +4724,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -4211,10 +4735,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -4222,10 +4746,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -4233,10 +4757,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>49</v>
@@ -4244,10 +4768,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -4255,10 +4779,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4266,10 +4790,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4277,10 +4801,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4288,10 +4812,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -4299,10 +4823,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4310,10 +4834,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -4321,10 +4845,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4332,10 +4856,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4343,10 +4867,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4354,10 +4878,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4365,10 +4889,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -4376,10 +4900,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>423</v>
@@ -4387,10 +4911,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>200</v>
@@ -4398,10 +4922,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4409,10 +4933,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -4420,10 +4944,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -4431,10 +4955,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>61</v>
@@ -4442,10 +4966,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>73</v>
@@ -4453,10 +4977,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4464,10 +4988,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4475,10 +4999,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -4486,10 +5010,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>43</v>
@@ -4497,10 +5021,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4508,10 +5032,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4519,10 +5043,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -4530,10 +5054,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -4541,10 +5065,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>468</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -4552,10 +5076,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4563,10 +5087,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>142</v>
@@ -4574,10 +5098,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>134</v>
@@ -4585,10 +5109,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>56</v>
@@ -4596,10 +5120,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>13</v>
@@ -4607,10 +5131,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -4618,10 +5142,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4629,10 +5153,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -4640,10 +5164,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -4651,10 +5175,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -4662,10 +5186,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4673,10 +5197,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4684,10 +5208,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -4695,10 +5219,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4706,10 +5230,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4717,10 +5241,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -4728,10 +5252,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -4739,10 +5263,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -4750,10 +5274,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -4761,10 +5285,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>138</v>
@@ -4772,10 +5296,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>200</v>
@@ -4783,10 +5307,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -4794,10 +5318,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -4805,10 +5329,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>26</v>
@@ -4816,10 +5340,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -4827,10 +5351,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>18</v>
@@ -4838,10 +5362,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>30</v>
@@ -4849,10 +5373,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4860,10 +5384,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4871,10 +5395,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4882,10 +5406,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -4893,10 +5417,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4904,10 +5428,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -4915,10 +5439,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4926,10 +5450,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -4937,10 +5461,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -4965,87 +5489,87 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5055,10 +5579,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5068,81 +5592,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5152,12 +5701,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F90B8-F30E-4F84-92D0-F24802FCA949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BDF4D-4AC1-4108-93C5-CC507B746813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="12" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Medicine" sheetId="14" r:id="rId10"/>
     <sheet name="Housing 8" sheetId="10" r:id="rId11"/>
     <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
-    <sheet name="Types of Zombies 10" sheetId="13" r:id="rId13"/>
+    <sheet name="TransactionDetails" sheetId="15" r:id="rId13"/>
+    <sheet name="Zombies 10" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="576">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -1747,6 +1748,33 @@
   </si>
   <si>
     <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>TransID</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -2111,14 +2139,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2240,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,15 +2280,18 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>521</v>
       </c>
       <c r="B1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>522</v>
       </c>
@@ -2268,7 +2299,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>523</v>
       </c>
@@ -2276,7 +2307,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -2284,7 +2315,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>525</v>
       </c>
@@ -2292,7 +2323,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -2300,7 +2331,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>527</v>
       </c>
@@ -2308,7 +2339,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>528</v>
       </c>
@@ -2316,7 +2347,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -2324,7 +2355,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>530</v>
       </c>
@@ -2332,7 +2363,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>531</v>
       </c>
@@ -2348,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,15 +2391,18 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>532</v>
       </c>
       <c r="B1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>534</v>
       </c>
@@ -2376,7 +2410,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>536</v>
       </c>
@@ -2384,7 +2418,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>538</v>
       </c>
@@ -2392,7 +2426,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>540</v>
       </c>
@@ -2400,22 +2434,22 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>545</v>
       </c>
@@ -2427,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="C11:D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,16 +2472,137 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BE864-610B-4211-BA0B-18B272702EA2}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4368,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4379,15 +4534,18 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>565</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4395,7 +4553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4403,7 +4561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4411,7 +4569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4419,7 +4577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4427,7 +4585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4435,7 +4593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4443,7 +4601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4451,7 +4609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4459,7 +4617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4474,10 +4632,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C1780-0DD5-41AF-BC3E-FC07A2BBFA9C}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,15 +4643,18 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4501,7 +4662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -4509,7 +4670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4517,7 +4678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4525,7 +4686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -4533,7 +4694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -4541,7 +4702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -4549,7 +4710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -4557,7 +4718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -4565,7 +4726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -4573,7 +4734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4581,7 +4742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -4589,7 +4750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4597,7 +4758,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -4605,7 +4766,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5480,10 +5641,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E64E3-2EEF-4D35-A877-B30CDD63B6A3}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,15 +5653,18 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -5508,7 +5672,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -5516,7 +5680,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -5524,7 +5688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -5532,7 +5696,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -5540,7 +5704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -5548,7 +5712,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -5556,7 +5720,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -5564,7 +5728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -5579,26 +5743,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5606,7 +5773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5614,7 +5781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -5622,7 +5789,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -5630,7 +5797,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -5638,7 +5805,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -5646,7 +5813,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -5654,7 +5821,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -5662,7 +5829,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -5670,7 +5837,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -5678,7 +5845,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>486</v>
       </c>
@@ -5686,7 +5853,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>488</v>
       </c>
@@ -5701,26 +5868,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>490</v>
       </c>
       <c r="B1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -5728,7 +5899,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>494</v>
       </c>
@@ -5736,7 +5907,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>496</v>
       </c>
@@ -5744,7 +5915,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>498</v>
       </c>
@@ -5752,7 +5923,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>500</v>
       </c>
@@ -5760,7 +5931,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>502</v>
       </c>
@@ -5768,7 +5939,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>504</v>
       </c>
@@ -5776,7 +5947,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>506</v>
       </c>
@@ -5784,12 +5955,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>509</v>
       </c>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BDF4D-4AC1-4108-93C5-CC507B746813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7DD079-8005-4146-8F28-0B5B30054580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="14" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
-    <sheet name="People 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Roles 3" sheetId="3" r:id="rId3"/>
-    <sheet name="People Jobs" sheetId="4" r:id="rId4"/>
-    <sheet name="Inventory Description 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Settlement Inventory" sheetId="6" r:id="rId6"/>
-    <sheet name="Weapons 5" sheetId="7" r:id="rId7"/>
-    <sheet name="Foods 6" sheetId="8" r:id="rId8"/>
-    <sheet name="Vehicles 7" sheetId="9" r:id="rId9"/>
-    <sheet name="Medicine" sheetId="14" r:id="rId10"/>
-    <sheet name="Housing 8" sheetId="10" r:id="rId11"/>
-    <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
-    <sheet name="TransactionDetails" sheetId="15" r:id="rId13"/>
-    <sheet name="Zombies 10" sheetId="13" r:id="rId14"/>
+    <sheet name="Settlements" sheetId="1" r:id="rId1"/>
+    <sheet name="People" sheetId="2" r:id="rId2"/>
+    <sheet name="PeopleSettlements" sheetId="16" r:id="rId3"/>
+    <sheet name="Jobs" sheetId="3" r:id="rId4"/>
+    <sheet name="PeopleJobs" sheetId="4" r:id="rId5"/>
+    <sheet name="Items" sheetId="5" r:id="rId6"/>
+    <sheet name="SettlementItems" sheetId="6" r:id="rId7"/>
+    <sheet name="Weapons" sheetId="7" r:id="rId8"/>
+    <sheet name="Foods" sheetId="8" r:id="rId9"/>
+    <sheet name="Vehicles" sheetId="9" r:id="rId10"/>
+    <sheet name="Medicine" sheetId="14" r:id="rId11"/>
+    <sheet name="Housing" sheetId="10" r:id="rId12"/>
+    <sheet name="Transactions" sheetId="12" r:id="rId13"/>
+    <sheet name="TransactionDetails" sheetId="15" r:id="rId14"/>
+    <sheet name="Zombies" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="533">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -211,117 +212,60 @@
     <t>Scientist</t>
   </si>
   <si>
-    <t>InvID</t>
-  </si>
-  <si>
-    <t>InvDescription</t>
-  </si>
-  <si>
     <t>I0001</t>
   </si>
   <si>
-    <t>Hand Tools</t>
-  </si>
-  <si>
     <t>I0002</t>
   </si>
   <si>
-    <t>Handgun Ammunition</t>
-  </si>
-  <si>
     <t>I0003</t>
   </si>
   <si>
-    <t>Rifle Ammunition</t>
-  </si>
-  <si>
     <t>I0004</t>
   </si>
   <si>
-    <t>Shotgun Ammunition</t>
-  </si>
-  <si>
     <t>I0005</t>
   </si>
   <si>
-    <t>Concrete/Sand bags</t>
-  </si>
-  <si>
     <t>I0006</t>
   </si>
   <si>
-    <t>Boards</t>
-  </si>
-  <si>
     <t>I0007</t>
   </si>
   <si>
-    <t>Nails/Screws</t>
-  </si>
-  <si>
     <t>I0008</t>
   </si>
   <si>
-    <t>Cans of food</t>
-  </si>
-  <si>
     <t>I0009</t>
   </si>
   <si>
-    <t>Bottle of Water</t>
-  </si>
-  <si>
     <t>I0010</t>
   </si>
   <si>
-    <t>Bandages</t>
-  </si>
-  <si>
     <t>I0011</t>
   </si>
   <si>
-    <t>Blood Bags</t>
-  </si>
-  <si>
     <t>I0012</t>
   </si>
   <si>
     <t>I0013</t>
   </si>
   <si>
-    <t>Scrap Metal</t>
-  </si>
-  <si>
     <t>I0014</t>
   </si>
   <si>
-    <t>Generator</t>
-  </si>
-  <si>
     <t>I0015</t>
   </si>
   <si>
-    <t>Tires</t>
-  </si>
-  <si>
     <t>I0016</t>
   </si>
   <si>
-    <t>Sleeping Bags</t>
-  </si>
-  <si>
     <t>I0017</t>
   </si>
   <si>
-    <t>Body Armor</t>
-  </si>
-  <si>
     <t>I0018</t>
   </si>
   <si>
-    <t>Flashlight</t>
-  </si>
-  <si>
     <t>Quanitity</t>
   </si>
   <si>
@@ -331,48 +275,15 @@
     <t>Gatherer/Looter</t>
   </si>
   <si>
-    <t>Gas cans(empty)</t>
-  </si>
-  <si>
     <t>I0019</t>
   </si>
   <si>
-    <t>Gas cans(full)</t>
-  </si>
-  <si>
     <t>WeaponID</t>
   </si>
   <si>
     <t>WeaponDescription</t>
   </si>
   <si>
-    <t>W001</t>
-  </si>
-  <si>
-    <t>W002</t>
-  </si>
-  <si>
-    <t>W003</t>
-  </si>
-  <si>
-    <t>W004</t>
-  </si>
-  <si>
-    <t>W005</t>
-  </si>
-  <si>
-    <t>W006</t>
-  </si>
-  <si>
-    <t>W007</t>
-  </si>
-  <si>
-    <t>W008</t>
-  </si>
-  <si>
-    <t>W009</t>
-  </si>
-  <si>
     <t>Small machine gun</t>
   </si>
   <si>
@@ -406,36 +317,6 @@
     <t>FoodDescription</t>
   </si>
   <si>
-    <t>F010</t>
-  </si>
-  <si>
-    <t>F001</t>
-  </si>
-  <si>
-    <t>F002</t>
-  </si>
-  <si>
-    <t>F003</t>
-  </si>
-  <si>
-    <t>F004</t>
-  </si>
-  <si>
-    <t>F005</t>
-  </si>
-  <si>
-    <t>F006</t>
-  </si>
-  <si>
-    <t>F007</t>
-  </si>
-  <si>
-    <t>F008</t>
-  </si>
-  <si>
-    <t>F009</t>
-  </si>
-  <si>
     <t>Corn</t>
   </si>
   <si>
@@ -1465,36 +1346,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
     <t>SettlementID</t>
   </si>
   <si>
@@ -1507,15 +1358,9 @@
     <t>Cucumber</t>
   </si>
   <si>
-    <t>F011</t>
-  </si>
-  <si>
     <t>Beans</t>
   </si>
   <si>
-    <t>F012</t>
-  </si>
-  <si>
     <t>Watermelon</t>
   </si>
   <si>
@@ -1525,63 +1370,30 @@
     <t>VehicleDescription</t>
   </si>
   <si>
-    <t>V001</t>
-  </si>
-  <si>
     <t>ATV</t>
   </si>
   <si>
-    <t>V002</t>
-  </si>
-  <si>
     <t>MotorCycle</t>
   </si>
   <si>
-    <t>V003</t>
-  </si>
-  <si>
     <t>Dirt Bike</t>
   </si>
   <si>
-    <t>V004</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
-    <t>V005</t>
-  </si>
-  <si>
     <t>Truck</t>
   </si>
   <si>
-    <t>V006</t>
-  </si>
-  <si>
     <t>Helicopter</t>
   </si>
   <si>
-    <t>V007</t>
-  </si>
-  <si>
     <t>Horse w/ Buggy</t>
   </si>
   <si>
-    <t>V008</t>
-  </si>
-  <si>
     <t>Boat</t>
   </si>
   <si>
-    <t>V009</t>
-  </si>
-  <si>
-    <t>V010</t>
-  </si>
-  <si>
-    <t>FirstAidDescription</t>
-  </si>
-  <si>
     <t>Antibiotics</t>
   </si>
   <si>
@@ -1615,78 +1427,24 @@
     <t>MedicineID</t>
   </si>
   <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>M002</t>
-  </si>
-  <si>
-    <t>M003</t>
-  </si>
-  <si>
-    <t>M004</t>
-  </si>
-  <si>
-    <t>M005</t>
-  </si>
-  <si>
-    <t>M006</t>
-  </si>
-  <si>
-    <t>M007</t>
-  </si>
-  <si>
-    <t>M008</t>
-  </si>
-  <si>
-    <t>M009</t>
-  </si>
-  <si>
-    <t>M010</t>
-  </si>
-  <si>
     <t>HousingID</t>
   </si>
   <si>
     <t>HousingDescription</t>
   </si>
   <si>
-    <t>H001</t>
-  </si>
-  <si>
     <t>Tent</t>
   </si>
   <si>
-    <t>H002</t>
-  </si>
-  <si>
     <t>Camper</t>
   </si>
   <si>
-    <t>H003</t>
-  </si>
-  <si>
     <t>House</t>
   </si>
   <si>
-    <t>H004</t>
-  </si>
-  <si>
     <t>Prison</t>
   </si>
   <si>
-    <t>H005</t>
-  </si>
-  <si>
-    <t>H006</t>
-  </si>
-  <si>
-    <t>H007</t>
-  </si>
-  <si>
-    <t>H008</t>
-  </si>
-  <si>
     <t>ZombieID</t>
   </si>
   <si>
@@ -1723,21 +1481,6 @@
     <t>Leaper</t>
   </si>
   <si>
-    <t>Z006</t>
-  </si>
-  <si>
-    <t>Z007</t>
-  </si>
-  <si>
-    <t>Z008</t>
-  </si>
-  <si>
-    <t>Z009</t>
-  </si>
-  <si>
-    <t>Z010</t>
-  </si>
-  <si>
     <t>SettlementLocation</t>
   </si>
   <si>
@@ -1753,9 +1496,6 @@
     <t>Wage</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>TransID</t>
   </si>
   <si>
@@ -1775,6 +1515,138 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>PeopleID</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>WeaponPrice</t>
+  </si>
+  <si>
+    <t>FoodPrice</t>
+  </si>
+  <si>
+    <t>VehiclePrice</t>
+  </si>
+  <si>
+    <t>MedicinePrice</t>
+  </si>
+  <si>
+    <t>HousingPrice</t>
+  </si>
+  <si>
+    <t>TransTimeStamp</t>
+  </si>
+  <si>
+    <t>I0020</t>
+  </si>
+  <si>
+    <t>I0021</t>
+  </si>
+  <si>
+    <t>I0022</t>
+  </si>
+  <si>
+    <t>I0023</t>
+  </si>
+  <si>
+    <t>I0024</t>
+  </si>
+  <si>
+    <t>I0025</t>
+  </si>
+  <si>
+    <t>I0026</t>
+  </si>
+  <si>
+    <t>I0027</t>
+  </si>
+  <si>
+    <t>I0028</t>
+  </si>
+  <si>
+    <t>I0029</t>
+  </si>
+  <si>
+    <t>I0030</t>
+  </si>
+  <si>
+    <t>I0031</t>
+  </si>
+  <si>
+    <t>I0032</t>
+  </si>
+  <si>
+    <t>I0033</t>
+  </si>
+  <si>
+    <t>I0034</t>
+  </si>
+  <si>
+    <t>I0035</t>
+  </si>
+  <si>
+    <t>I0036</t>
+  </si>
+  <si>
+    <t>I0037</t>
+  </si>
+  <si>
+    <t>I0038</t>
+  </si>
+  <si>
+    <t>I0039</t>
+  </si>
+  <si>
+    <t>I0040</t>
+  </si>
+  <si>
+    <t>I0041</t>
+  </si>
+  <si>
+    <t>I0042</t>
+  </si>
+  <si>
+    <t>I0043</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>MedicineDescription</t>
   </si>
 </sst>
 </file>
@@ -2139,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,21 +2024,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>563</v>
+        <v>477</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2174,7 +2046,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2185,7 +2057,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2196,10 +2068,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2207,10 +2079,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2218,10 +2090,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2229,10 +2101,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2240,10 +2112,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2251,10 +2123,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2267,108 +2139,204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2377,81 +2345,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E17" sqref="E17:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>545</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2459,50 +2408,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5460F396-EE8D-4AF0-A28A-36D1829C17FE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="D1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2514,12 +2468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BE864-610B-4211-BA0B-18B272702EA2}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,21 +2483,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>482</v>
       </c>
       <c r="B1" t="s">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>575</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2551,10 +2505,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2562,10 +2516,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2573,10 +2527,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2584,10 +2538,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2598,12 +2552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,75 +2568,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>465</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>562</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -2708,16 +2637,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>566</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,13 +2791,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1">
         <v>25590</v>
@@ -2876,13 +2805,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1">
         <v>34265</v>
@@ -2890,13 +2819,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1">
         <v>26200</v>
@@ -2904,13 +2833,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1">
         <v>33897</v>
@@ -2918,13 +2847,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1">
         <v>32838</v>
@@ -2932,13 +2861,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1">
         <v>32900</v>
@@ -2946,13 +2875,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1">
         <v>33158</v>
@@ -2960,13 +2889,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="D19" s="1">
         <v>32810</v>
@@ -2974,13 +2903,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D20" s="1">
         <v>33176</v>
@@ -2988,13 +2917,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1">
         <v>32904</v>
@@ -3002,13 +2931,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="D22" s="1">
         <v>33086</v>
@@ -3016,13 +2945,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="D23" s="1">
         <v>32906</v>
@@ -3030,13 +2959,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="D24" s="1">
         <v>33210</v>
@@ -3044,13 +2973,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="D25" s="1">
         <v>32908</v>
@@ -3058,13 +2987,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D26" s="1">
         <v>28891</v>
@@ -3072,13 +3001,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D27" s="1">
         <v>32910</v>
@@ -3086,13 +3015,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D28" s="1">
         <v>32393</v>
@@ -3100,13 +3029,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D29" s="1">
         <v>32547</v>
@@ -3114,13 +3043,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="D30" s="1">
         <v>28530</v>
@@ -3128,13 +3057,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="D31" s="1">
         <v>25609</v>
@@ -3142,13 +3071,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="D32" s="1">
         <v>32915</v>
@@ -3156,13 +3085,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="D33" s="1">
         <v>29263</v>
@@ -3170,13 +3099,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="D34" s="1">
         <v>32917</v>
@@ -3184,13 +3113,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="D35" s="1">
         <v>32946</v>
@@ -3198,13 +3127,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="D36" s="1">
         <v>33709</v>
@@ -3212,13 +3141,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="D37" s="1">
         <v>33009</v>
@@ -3226,13 +3155,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D38" s="1">
         <v>33071</v>
@@ -3240,13 +3169,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D39" s="1">
         <v>33468</v>
@@ -3254,13 +3183,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="D40" s="1">
         <v>33073</v>
@@ -3268,13 +3197,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="D41" s="1">
         <v>33197</v>
@@ -3282,13 +3211,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="D42" s="1">
         <v>33898</v>
@@ -3296,10 +3225,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3310,13 +3239,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="D44" s="1">
         <v>33077</v>
@@ -3324,13 +3253,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="D45" s="1">
         <v>32928</v>
@@ -3338,13 +3267,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="D46" s="1">
         <v>33232</v>
@@ -3352,13 +3281,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="D47" s="1">
         <v>32930</v>
@@ -3366,13 +3295,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="D48" s="1">
         <v>32931</v>
@@ -3380,13 +3309,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D49" s="1">
         <v>32932</v>
@@ -3394,13 +3323,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="D50" s="1">
         <v>32933</v>
@@ -3408,13 +3337,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="D51" s="1">
         <v>32934</v>
@@ -3422,13 +3351,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D52" s="1">
         <v>32935</v>
@@ -3436,13 +3365,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D53" s="1">
         <v>32936</v>
@@ -3450,13 +3379,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="D54" s="1">
         <v>32937</v>
@@ -3464,13 +3393,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="D55" s="1">
         <v>32938</v>
@@ -3478,13 +3407,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D56" s="1">
         <v>32939</v>
@@ -3492,13 +3421,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="D57" s="1">
         <v>32940</v>
@@ -3506,13 +3435,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D58" s="1">
         <v>32941</v>
@@ -3520,13 +3449,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="D59" s="1">
         <v>32942</v>
@@ -3534,13 +3463,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="D60" s="1">
         <v>33492</v>
@@ -3548,13 +3477,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D61" s="1">
         <v>32944</v>
@@ -3562,13 +3491,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D62" s="1">
         <v>32945</v>
@@ -3576,13 +3505,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="D63" s="1">
         <v>32946</v>
@@ -3590,13 +3519,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="D64" s="1">
         <v>32947</v>
@@ -3604,13 +3533,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="D65" s="1">
         <v>32583</v>
@@ -3618,13 +3547,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="D66" s="1">
         <v>32219</v>
@@ -3632,13 +3561,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D67" s="1">
         <v>33315</v>
@@ -3646,13 +3575,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="D68" s="1">
         <v>33682</v>
@@ -3660,13 +3589,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="D69" s="1">
         <v>32952</v>
@@ -3674,13 +3603,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D70" s="1">
         <v>34414</v>
@@ -3688,13 +3617,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="D71" s="1">
         <v>34050</v>
@@ -3702,13 +3631,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="D72" s="1">
         <v>33686</v>
@@ -3716,13 +3645,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="D73" s="1">
         <v>33321</v>
@@ -3730,13 +3659,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="D74" s="1">
         <v>34418</v>
@@ -3744,13 +3673,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="D75" s="1">
         <v>34054</v>
@@ -3758,13 +3687,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D76" s="1">
         <v>25654</v>
@@ -3772,13 +3701,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="D77" s="1">
         <v>27847</v>
@@ -3786,13 +3715,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D78" s="1">
         <v>28578</v>
@@ -3800,13 +3729,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="D79" s="1">
         <v>34058</v>
@@ -3814,13 +3743,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="D80" s="1">
         <v>29311</v>
@@ -3828,13 +3757,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="D81" s="1">
         <v>26755</v>
@@ -3842,13 +3771,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C82" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="D82" s="1">
         <v>32691</v>
@@ -3856,13 +3785,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="D83" s="1">
         <v>30775</v>
@@ -3870,13 +3799,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D84" s="1">
         <v>31141</v>
@@ -3884,13 +3813,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D85" s="1">
         <v>31507</v>
@@ -3898,13 +3827,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="D86" s="1">
         <v>32269</v>
@@ -3912,13 +3841,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="D87" s="1">
         <v>32605</v>
@@ -3926,13 +3855,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="D88" s="1">
         <v>32241</v>
@@ -3940,13 +3869,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="D89" s="1">
         <v>32607</v>
@@ -3954,13 +3883,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="D90" s="1">
         <v>26033</v>
@@ -3968,13 +3897,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="D91" s="1">
         <v>25669</v>
@@ -3982,13 +3911,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D92" s="1">
         <v>30053</v>
@@ -3996,13 +3925,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="D93" s="1">
         <v>25306</v>
@@ -4010,13 +3939,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="D94" s="1">
         <v>33708</v>
@@ -4024,13 +3953,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="D95" s="1">
         <v>28595</v>
@@ -4038,13 +3967,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="D96" s="1">
         <v>26770</v>
@@ -4052,13 +3981,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="D97" s="1">
         <v>32250</v>
@@ -4066,13 +3995,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="D98" s="1">
         <v>28233</v>
@@ -4080,13 +4009,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="D99" s="1">
         <v>25312</v>
@@ -4094,13 +4023,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D100" s="1">
         <v>32618</v>
@@ -4108,13 +4037,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="D101" s="1">
         <v>31888</v>
@@ -4122,13 +4051,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D102" s="1">
         <v>28602</v>
@@ -4136,13 +4065,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="D103" s="1">
         <v>25681</v>
@@ -4150,13 +4079,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C104" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="D104" s="1">
         <v>28239</v>
@@ -4164,13 +4093,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="D105" s="1">
         <v>32623</v>
@@ -4178,13 +4107,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="D106" s="1">
         <v>31893</v>
@@ -4192,13 +4121,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="D107" s="1">
         <v>31529</v>
@@ -4206,13 +4135,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="D108" s="1">
         <v>33356</v>
@@ -4220,13 +4149,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="D109" s="1">
         <v>34453</v>
@@ -4234,13 +4163,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D110" s="1">
         <v>29341</v>
@@ -4248,13 +4177,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="D111" s="1">
         <v>22037</v>
@@ -4262,13 +4191,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B112" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="D112" s="1">
         <v>29343</v>
@@ -4276,13 +4205,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="C113" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="D113" s="1">
         <v>33727</v>
@@ -4290,13 +4219,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="D114" s="1">
         <v>32997</v>
@@ -4304,13 +4233,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="D115" s="1">
         <v>28250</v>
@@ -4318,13 +4247,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="D116" s="1">
         <v>28616</v>
@@ -4332,13 +4261,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="C117" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D117" s="1">
         <v>32635</v>
@@ -4346,13 +4275,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C118" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D118" s="1">
         <v>25696</v>
@@ -4360,13 +4289,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="C119" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="D119" s="1">
         <v>33733</v>
@@ -4374,13 +4303,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C120" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="D120" s="1">
         <v>34099</v>
@@ -4388,13 +4317,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="D121" s="1">
         <v>33369</v>
@@ -4407,16 +4336,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72622FA-2519-49BE-9216-E94A2E26FE23}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4509,10 +4521,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4536,13 +4548,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>567</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4630,180 +4642,372 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C1780-0DD5-41AF-BC3E-FC07A2BBFA9C}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>512</v>
+      </c>
+      <c r="B31" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>513</v>
+      </c>
+      <c r="B32" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>515</v>
+      </c>
+      <c r="B34" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>516</v>
+      </c>
+      <c r="B35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>521</v>
+      </c>
+      <c r="B40" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>525</v>
+      </c>
+      <c r="B44" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4812,12 +5016,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032382B-5B62-4C5B-AC12-CE1F890B35DB}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4830,805 +5034,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>475</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>478</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>468</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>468</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>468</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>468</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>468</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>468</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>468</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>468</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>468</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>468</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>454</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>454</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>454</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>454</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>454</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>454</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>454</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>454</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>454</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>454</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>454</v>
-      </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>454</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>454</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>454</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>454</v>
-      </c>
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>454</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>454</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>457</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>457</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>457</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>457</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>457</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>457</v>
-      </c>
-      <c r="B61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>457</v>
-      </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>457</v>
-      </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>457</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>457</v>
-      </c>
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>457</v>
-      </c>
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>457</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>457</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>457</v>
-      </c>
-      <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>457</v>
-      </c>
-      <c r="B70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>457</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>457</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>457</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5639,226 +5051,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E64E3-2EEF-4D35-A877-B30CDD63B6A3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" t="s">
-        <v>489</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5867,102 +5155,125 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BDF4D-4AC1-4108-93C5-CC507B746813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742DDCC-94F4-4C56-923F-EC81D197DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-28920" yWindow="900" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="14" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements 1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Transactions 9" sheetId="12" r:id="rId12"/>
     <sheet name="TransactionDetails" sheetId="15" r:id="rId13"/>
     <sheet name="Zombies 10" sheetId="13" r:id="rId14"/>
+    <sheet name="People Missions" sheetId="17" r:id="rId15"/>
+    <sheet name="Missions" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="589">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -373,9 +375,6 @@
     <t>W009</t>
   </si>
   <si>
-    <t>Small machine gun</t>
-  </si>
-  <si>
     <t>Assault Rifle</t>
   </si>
   <si>
@@ -388,9 +387,6 @@
     <t>Grenade</t>
   </si>
   <si>
-    <t>Large machine gun</t>
-  </si>
-  <si>
     <t>Machete</t>
   </si>
   <si>
@@ -1672,9 +1668,6 @@
     <t>H004</t>
   </si>
   <si>
-    <t>Prison</t>
-  </si>
-  <si>
     <t>H005</t>
   </si>
   <si>
@@ -1732,12 +1725,6 @@
     <t>Z008</t>
   </si>
   <si>
-    <t>Z009</t>
-  </si>
-  <si>
-    <t>Z010</t>
-  </si>
-  <si>
     <t>SettlementLocation</t>
   </si>
   <si>
@@ -1775,13 +1762,68 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>PeopleID</t>
+  </si>
+  <si>
+    <t>Large Machine Gun</t>
+  </si>
+  <si>
+    <t>Light Machine Gun</t>
+  </si>
+  <si>
+    <t>Hoverboard</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Prison Cell</t>
+  </si>
+  <si>
+    <t>Brute</t>
+  </si>
+  <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>J012</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Cooks Choice</t>
+  </si>
+  <si>
+    <t>Screamer</t>
+  </si>
+  <si>
+    <t>MissionID</t>
+  </si>
+  <si>
+    <t>PricePerKill</t>
+  </si>
+  <si>
+    <t>MissionDate</t>
+  </si>
+  <si>
+    <t>MissionObjective</t>
+  </si>
+  <si>
+    <t>Gather raw materials from the nearby landfill.</t>
+  </si>
+  <si>
+    <t>Build a new watchtower on the south west corner of Saint Cloud Jail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -1819,10 +1861,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2152,21 +2196,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2174,7 +2218,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2185,7 +2229,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2196,10 +2240,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2207,10 +2251,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2218,10 +2262,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2229,10 +2273,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2240,10 +2284,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2251,10 +2295,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2282,93 +2326,93 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2426,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,65 +2437,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -2475,18 +2519,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2494,7 +2538,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2502,7 +2546,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2529,21 +2573,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" t="s">
         <v>569</v>
       </c>
-      <c r="B1" t="s">
-        <v>574</v>
-      </c>
       <c r="C1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2551,10 +2595,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2562,7 +2606,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -2573,10 +2617,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2584,10 +2628,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2600,89 +2644,236 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8060F430-C2C3-42B9-9DF0-07FD133C5473}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>562</v>
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5EE23A-6558-4BED-AE10-73586B6246B3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45961</v>
+      </c>
+      <c r="C2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45962</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2694,9 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2708,16 +2897,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,13 +3051,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" s="1">
         <v>25590</v>
@@ -2876,13 +3065,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1">
         <v>34265</v>
@@ -2890,13 +3079,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1">
         <v>26200</v>
@@ -2904,13 +3093,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1">
         <v>33897</v>
@@ -2918,13 +3107,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1">
         <v>32838</v>
@@ -2932,13 +3121,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D17" s="1">
         <v>32900</v>
@@ -2946,13 +3135,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D18" s="1">
         <v>33158</v>
@@ -2960,13 +3149,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19" s="1">
         <v>32810</v>
@@ -2974,13 +3163,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" s="1">
         <v>33176</v>
@@ -2988,13 +3177,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D21" s="1">
         <v>32904</v>
@@ -3002,13 +3191,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D22" s="1">
         <v>33086</v>
@@ -3016,13 +3205,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D23" s="1">
         <v>32906</v>
@@ -3030,13 +3219,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D24" s="1">
         <v>33210</v>
@@ -3044,13 +3233,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D25" s="1">
         <v>32908</v>
@@ -3058,13 +3247,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D26" s="1">
         <v>28891</v>
@@ -3072,13 +3261,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D27" s="1">
         <v>32910</v>
@@ -3086,13 +3275,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D28" s="1">
         <v>32393</v>
@@ -3100,13 +3289,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D29" s="1">
         <v>32547</v>
@@ -3114,13 +3303,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D30" s="1">
         <v>28530</v>
@@ -3128,13 +3317,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D31" s="1">
         <v>25609</v>
@@ -3142,13 +3331,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D32" s="1">
         <v>32915</v>
@@ -3156,13 +3345,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D33" s="1">
         <v>29263</v>
@@ -3170,13 +3359,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D34" s="1">
         <v>32917</v>
@@ -3184,13 +3373,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D35" s="1">
         <v>32946</v>
@@ -3198,13 +3387,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D36" s="1">
         <v>33709</v>
@@ -3212,13 +3401,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D37" s="1">
         <v>33009</v>
@@ -3226,13 +3415,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D38" s="1">
         <v>33071</v>
@@ -3240,13 +3429,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D39" s="1">
         <v>33468</v>
@@ -3254,13 +3443,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D40" s="1">
         <v>33073</v>
@@ -3268,13 +3457,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D41" s="1">
         <v>33197</v>
@@ -3282,13 +3471,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D42" s="1">
         <v>33898</v>
@@ -3296,10 +3485,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3310,13 +3499,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D44" s="1">
         <v>33077</v>
@@ -3324,13 +3513,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D45" s="1">
         <v>32928</v>
@@ -3338,13 +3527,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D46" s="1">
         <v>33232</v>
@@ -3352,13 +3541,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D47" s="1">
         <v>32930</v>
@@ -3366,13 +3555,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D48" s="1">
         <v>32931</v>
@@ -3380,13 +3569,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D49" s="1">
         <v>32932</v>
@@ -3394,13 +3583,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D50" s="1">
         <v>32933</v>
@@ -3408,13 +3597,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D51" s="1">
         <v>32934</v>
@@ -3422,13 +3611,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D52" s="1">
         <v>32935</v>
@@ -3436,13 +3625,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D53" s="1">
         <v>32936</v>
@@ -3450,13 +3639,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D54" s="1">
         <v>32937</v>
@@ -3464,13 +3653,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D55" s="1">
         <v>32938</v>
@@ -3478,13 +3667,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D56" s="1">
         <v>32939</v>
@@ -3492,13 +3681,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D57" s="1">
         <v>32940</v>
@@ -3506,13 +3695,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D58" s="1">
         <v>32941</v>
@@ -3520,13 +3709,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D59" s="1">
         <v>32942</v>
@@ -3534,13 +3723,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D60" s="1">
         <v>33492</v>
@@ -3548,13 +3737,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D61" s="1">
         <v>32944</v>
@@ -3562,13 +3751,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D62" s="1">
         <v>32945</v>
@@ -3576,13 +3765,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D63" s="1">
         <v>32946</v>
@@ -3590,13 +3779,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D64" s="1">
         <v>32947</v>
@@ -3604,13 +3793,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D65" s="1">
         <v>32583</v>
@@ -3618,13 +3807,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D66" s="1">
         <v>32219</v>
@@ -3632,13 +3821,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D67" s="1">
         <v>33315</v>
@@ -3646,13 +3835,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D68" s="1">
         <v>33682</v>
@@ -3660,13 +3849,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D69" s="1">
         <v>32952</v>
@@ -3674,13 +3863,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D70" s="1">
         <v>34414</v>
@@ -3688,13 +3877,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C71" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D71" s="1">
         <v>34050</v>
@@ -3702,13 +3891,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D72" s="1">
         <v>33686</v>
@@ -3716,13 +3905,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D73" s="1">
         <v>33321</v>
@@ -3730,13 +3919,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D74" s="1">
         <v>34418</v>
@@ -3744,13 +3933,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D75" s="1">
         <v>34054</v>
@@ -3758,13 +3947,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D76" s="1">
         <v>25654</v>
@@ -3772,13 +3961,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D77" s="1">
         <v>27847</v>
@@ -3786,13 +3975,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D78" s="1">
         <v>28578</v>
@@ -3800,13 +3989,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D79" s="1">
         <v>34058</v>
@@ -3814,13 +4003,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D80" s="1">
         <v>29311</v>
@@ -3828,13 +4017,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D81" s="1">
         <v>26755</v>
@@ -3842,13 +4031,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D82" s="1">
         <v>32691</v>
@@ -3856,13 +4045,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D83" s="1">
         <v>30775</v>
@@ -3870,13 +4059,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D84" s="1">
         <v>31141</v>
@@ -3884,13 +4073,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D85" s="1">
         <v>31507</v>
@@ -3898,13 +4087,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D86" s="1">
         <v>32269</v>
@@ -3912,13 +4101,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D87" s="1">
         <v>32605</v>
@@ -3926,13 +4115,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D88" s="1">
         <v>32241</v>
@@ -3940,13 +4129,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D89" s="1">
         <v>32607</v>
@@ -3954,13 +4143,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D90" s="1">
         <v>26033</v>
@@ -3968,13 +4157,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D91" s="1">
         <v>25669</v>
@@ -3982,13 +4171,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C92" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D92" s="1">
         <v>30053</v>
@@ -3996,13 +4185,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D93" s="1">
         <v>25306</v>
@@ -4010,13 +4199,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D94" s="1">
         <v>33708</v>
@@ -4024,13 +4213,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D95" s="1">
         <v>28595</v>
@@ -4038,13 +4227,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D96" s="1">
         <v>26770</v>
@@ -4052,13 +4241,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C97" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D97" s="1">
         <v>32250</v>
@@ -4066,13 +4255,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D98" s="1">
         <v>28233</v>
@@ -4080,13 +4269,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D99" s="1">
         <v>25312</v>
@@ -4094,13 +4283,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D100" s="1">
         <v>32618</v>
@@ -4108,13 +4297,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D101" s="1">
         <v>31888</v>
@@ -4122,13 +4311,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D102" s="1">
         <v>28602</v>
@@ -4136,13 +4325,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D103" s="1">
         <v>25681</v>
@@ -4150,13 +4339,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D104" s="1">
         <v>28239</v>
@@ -4164,13 +4353,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D105" s="1">
         <v>32623</v>
@@ -4178,13 +4367,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C106" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D106" s="1">
         <v>31893</v>
@@ -4192,13 +4381,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D107" s="1">
         <v>31529</v>
@@ -4206,13 +4395,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D108" s="1">
         <v>33356</v>
@@ -4220,13 +4409,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D109" s="1">
         <v>34453</v>
@@ -4234,13 +4423,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D110" s="1">
         <v>29341</v>
@@ -4248,13 +4437,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D111" s="1">
         <v>22037</v>
@@ -4262,13 +4451,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D112" s="1">
         <v>29343</v>
@@ -4276,13 +4465,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D113" s="1">
         <v>33727</v>
@@ -4290,13 +4479,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D114" s="1">
         <v>32997</v>
@@ -4304,13 +4493,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D115" s="1">
         <v>28250</v>
@@ -4318,13 +4507,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D116" s="1">
         <v>28616</v>
@@ -4332,13 +4521,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C117" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D117" s="1">
         <v>32635</v>
@@ -4346,13 +4535,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D118" s="1">
         <v>25696</v>
@@ -4360,13 +4549,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B119" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D119" s="1">
         <v>33733</v>
@@ -4374,13 +4563,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D120" s="1">
         <v>34099</v>
@@ -4388,13 +4577,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D121" s="1">
         <v>33369</v>
@@ -4408,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,6 +4704,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4525,9 +4722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4536,13 +4731,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4651,7 +4846,7 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4830,7 +5025,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
@@ -4841,7 +5036,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -4852,7 +5047,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -4863,7 +5058,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -4874,7 +5069,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -4885,7 +5080,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -4896,7 +5091,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4907,7 +5102,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -4918,7 +5113,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -4929,7 +5124,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -4940,7 +5135,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -4951,7 +5146,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -4962,7 +5157,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -4973,7 +5168,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -4984,7 +5179,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -4995,7 +5190,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -5006,7 +5201,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -5017,7 +5212,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -5028,7 +5223,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
@@ -5039,7 +5234,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -5050,7 +5245,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -5061,7 +5256,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
@@ -5072,7 +5267,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -5083,7 +5278,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -5094,7 +5289,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -5105,7 +5300,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -5116,7 +5311,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -5127,7 +5322,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -5138,7 +5333,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B29" t="s">
         <v>74</v>
@@ -5149,7 +5344,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
@@ -5160,7 +5355,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
@@ -5171,7 +5366,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
@@ -5182,7 +5377,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -5193,7 +5388,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -5204,7 +5399,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
@@ -5215,7 +5410,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -5226,7 +5421,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -5237,7 +5432,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -5248,7 +5443,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -5259,7 +5454,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -5270,7 +5465,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B41" t="s">
         <v>62</v>
@@ -5281,7 +5476,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
@@ -5292,7 +5487,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
@@ -5303,7 +5498,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
@@ -5314,7 +5509,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -5325,7 +5520,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s">
         <v>72</v>
@@ -5336,7 +5531,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B47" t="s">
         <v>74</v>
@@ -5347,7 +5542,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
@@ -5358,7 +5553,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
         <v>78</v>
@@ -5369,7 +5564,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s">
         <v>79</v>
@@ -5380,7 +5575,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s">
         <v>81</v>
@@ -5391,7 +5586,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
@@ -5402,7 +5597,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s">
         <v>85</v>
@@ -5413,7 +5608,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
         <v>87</v>
@@ -5424,7 +5619,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s">
         <v>89</v>
@@ -5435,7 +5630,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -5446,7 +5641,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -5457,7 +5652,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -5468,7 +5663,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -5479,7 +5674,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -5490,7 +5685,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -5501,7 +5696,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -5512,7 +5707,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -5523,7 +5718,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
@@ -5534,7 +5729,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
@@ -5545,7 +5740,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
@@ -5556,7 +5751,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s">
         <v>78</v>
@@ -5567,7 +5762,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s">
         <v>79</v>
@@ -5578,7 +5773,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s">
         <v>81</v>
@@ -5589,7 +5784,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -5600,7 +5795,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B71" t="s">
         <v>85</v>
@@ -5611,7 +5806,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s">
         <v>87</v>
@@ -5622,7 +5817,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s">
         <v>89</v>
@@ -5644,7 +5839,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,7 +5856,7 @@
         <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,7 +5864,7 @@
         <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5677,7 +5872,7 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5685,7 +5880,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,7 +5888,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,7 +5896,7 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5709,7 +5904,7 @@
         <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5717,7 +5912,7 @@
         <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,7 +5920,7 @@
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,7 +5928,7 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5743,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5756,109 +5951,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
-        <v>489</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5871,7 +6071,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5882,87 +6082,93 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>507</v>
+      </c>
+      <c r="B11" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7DD079-8005-4146-8F28-0B5B30054580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852207C5-989C-4E5B-8C2A-50B7A1E572B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="14" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Transactions" sheetId="12" r:id="rId13"/>
     <sheet name="TransactionDetails" sheetId="15" r:id="rId14"/>
     <sheet name="Zombies" sheetId="13" r:id="rId15"/>
+    <sheet name="Missions" sheetId="18" r:id="rId16"/>
+    <sheet name="PeopleMissions" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="553">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -1647,13 +1649,74 @@
   </si>
   <si>
     <t>MedicineDescription</t>
+  </si>
+  <si>
+    <t>J012</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>I0044</t>
+  </si>
+  <si>
+    <t>Cooks Choice</t>
+  </si>
+  <si>
+    <t>I0045</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>PricePerKill</t>
+  </si>
+  <si>
+    <t>Z006</t>
+  </si>
+  <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>Z007</t>
+  </si>
+  <si>
+    <t>Screamer</t>
+  </si>
+  <si>
+    <t>Z008</t>
+  </si>
+  <si>
+    <t>Brute</t>
+  </si>
+  <si>
+    <t>MissionID</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>MissionDate</t>
+  </si>
+  <si>
+    <t>MissionObjective</t>
+  </si>
+  <si>
+    <t>Gather raw materials from the nearby landfill.</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>Build a new watchtower on the south west corner of Saint Cloud Jail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -1691,10 +1754,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2011,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2140,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A88B7-DD6C-4E6A-A5B2-AC8BA1737824}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D9" sqref="D9:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2222,7 @@
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>438</v>
       </c>
@@ -2164,69 +2233,109 @@
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>504</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="B2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>505</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="B3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>506</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>507</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>508</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>509</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>510</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="B8" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>511</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="B9" t="s">
         <v>447</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2235,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D13" sqref="D13:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2357,7 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>458</v>
       </c>
@@ -2259,85 +2368,125 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>512</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="B2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>513</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>514</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="B4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>515</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>517</v>
       </c>
       <c r="B5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>516</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>517</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>518</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="B8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>519</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="B9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>520</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="B10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>521</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>457</v>
       </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2347,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:K29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2509,7 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>459</v>
       </c>
@@ -2371,37 +2520,53 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>522</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>524</v>
       </c>
       <c r="B2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>523</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="B3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>524</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="B4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>525</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="B5" t="s">
         <v>464</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2554,64 +2719,235 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC63D1C-58DF-4250-AF23-56F2205E3F0B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45961</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45962</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78BBBC-3DC7-4F60-A6BC-8C44646036BA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" t="s">
-        <v>466</v>
+      <c r="A1" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>468</v>
+      <c r="A2" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" t="s">
-        <v>470</v>
+      <c r="A3" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" t="s">
-        <v>472</v>
+      <c r="A4" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" t="s">
-        <v>474</v>
+      <c r="A5" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
+      <c r="A6" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4420,10 +4756,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,6 +4861,14 @@
       </c>
       <c r="B12" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4644,10 +4988,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99C1780-0DD5-41AF-BC3E-FC07A2BBFA9C}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4834,16 +5178,16 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B23" t="s">
-        <v>529</v>
+      <c r="B23" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>505</v>
       </c>
       <c r="B24" t="s">
@@ -4851,7 +5195,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>506</v>
       </c>
       <c r="B25" t="s">
@@ -4859,7 +5203,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>507</v>
       </c>
       <c r="B26" t="s">
@@ -4867,7 +5211,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>508</v>
       </c>
       <c r="B27" t="s">
@@ -4875,7 +5219,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>509</v>
       </c>
       <c r="B28" t="s">
@@ -4883,7 +5227,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>510</v>
       </c>
       <c r="B29" t="s">
@@ -4891,7 +5235,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>511</v>
       </c>
       <c r="B30" t="s">
@@ -4899,23 +5243,23 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B31" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B32" t="s">
-        <v>530</v>
+      <c r="B32" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>514</v>
       </c>
       <c r="B33" t="s">
@@ -4923,7 +5267,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>515</v>
       </c>
       <c r="B34" t="s">
@@ -4931,7 +5275,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>516</v>
       </c>
       <c r="B35" t="s">
@@ -4939,7 +5283,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B36" t="s">
@@ -4947,7 +5291,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>518</v>
       </c>
       <c r="B37" t="s">
@@ -4955,7 +5299,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>519</v>
       </c>
       <c r="B38" t="s">
@@ -4963,7 +5307,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>520</v>
       </c>
       <c r="B39" t="s">
@@ -4971,7 +5315,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B40" t="s">
@@ -4979,23 +5323,23 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>522</v>
       </c>
       <c r="B41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>524</v>
       </c>
       <c r="B43" t="s">
@@ -5003,12 +5347,34 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B44" t="s">
         <v>531</v>
       </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5156,10 +5522,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,6 +5642,14 @@
         <v>437</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852207C5-989C-4E5B-8C2A-50B7A1E572B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA2DE5-C63D-4D70-83AC-62D5B033BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-28920" yWindow="900" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="668">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -319,24 +319,6 @@
     <t>FoodDescription</t>
   </si>
   <si>
-    <t>Corn</t>
-  </si>
-  <si>
-    <t>Potatos</t>
-  </si>
-  <si>
-    <t>Pork</t>
-  </si>
-  <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Cabbage</t>
-  </si>
-  <si>
     <t>Tomatoes</t>
   </si>
   <si>
@@ -1360,9 +1342,6 @@
     <t>Cucumber</t>
   </si>
   <si>
-    <t>Beans</t>
-  </si>
-  <si>
     <t>Watermelon</t>
   </si>
   <si>
@@ -1495,9 +1474,6 @@
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>Wage</t>
-  </si>
-  <si>
     <t>TransID</t>
   </si>
   <si>
@@ -1709,15 +1685,385 @@
   </si>
   <si>
     <t>Build a new watchtower on the south west corner of Saint Cloud Jail</t>
+  </si>
+  <si>
+    <t>Beans/lb</t>
+  </si>
+  <si>
+    <t>Corn/piece</t>
+  </si>
+  <si>
+    <t>Potatos/piece</t>
+  </si>
+  <si>
+    <t>Pork/lb</t>
+  </si>
+  <si>
+    <t>Beef/lb</t>
+  </si>
+  <si>
+    <t>Chicken/lb</t>
+  </si>
+  <si>
+    <t>Cabbage/piece</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>P061</t>
+  </si>
+  <si>
+    <t>P062</t>
+  </si>
+  <si>
+    <t>P063</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P065</t>
+  </si>
+  <si>
+    <t>P066</t>
+  </si>
+  <si>
+    <t>P067</t>
+  </si>
+  <si>
+    <t>P068</t>
+  </si>
+  <si>
+    <t>P069</t>
+  </si>
+  <si>
+    <t>P070</t>
+  </si>
+  <si>
+    <t>P071</t>
+  </si>
+  <si>
+    <t>P072</t>
+  </si>
+  <si>
+    <t>P073</t>
+  </si>
+  <si>
+    <t>P074</t>
+  </si>
+  <si>
+    <t>P075</t>
+  </si>
+  <si>
+    <t>P076</t>
+  </si>
+  <si>
+    <t>P077</t>
+  </si>
+  <si>
+    <t>P078</t>
+  </si>
+  <si>
+    <t>P079</t>
+  </si>
+  <si>
+    <t>P080</t>
+  </si>
+  <si>
+    <t>P081</t>
+  </si>
+  <si>
+    <t>P082</t>
+  </si>
+  <si>
+    <t>P083</t>
+  </si>
+  <si>
+    <t>P084</t>
+  </si>
+  <si>
+    <t>P085</t>
+  </si>
+  <si>
+    <t>P086</t>
+  </si>
+  <si>
+    <t>P087</t>
+  </si>
+  <si>
+    <t>P088</t>
+  </si>
+  <si>
+    <t>P089</t>
+  </si>
+  <si>
+    <t>P090</t>
+  </si>
+  <si>
+    <t>P091</t>
+  </si>
+  <si>
+    <t>P092</t>
+  </si>
+  <si>
+    <t>P093</t>
+  </si>
+  <si>
+    <t>P094</t>
+  </si>
+  <si>
+    <t>P095</t>
+  </si>
+  <si>
+    <t>P096</t>
+  </si>
+  <si>
+    <t>P097</t>
+  </si>
+  <si>
+    <t>P098</t>
+  </si>
+  <si>
+    <t>P099</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>BasePay/Day</t>
+  </si>
+  <si>
+    <t>Wage/Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1754,7 +2100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1764,6 +2110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,21 +2440,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2115,7 +2462,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2126,7 +2473,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2137,10 +2484,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2148,10 +2495,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2159,10 +2506,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2170,10 +2517,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2181,10 +2528,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2192,10 +2539,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2212,7 +2559,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,87 +2571,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2359,93 +2706,93 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,45 +2858,45 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,21 +2938,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2613,7 +2960,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2621,7 +2968,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2648,21 +2995,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2670,7 +3017,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -2681,7 +3028,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -2692,10 +3039,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2703,10 +3050,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2722,7 +3069,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,21 +3081,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C2" s="5">
         <v>0.1</v>
@@ -2756,10 +3103,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C3" s="5">
         <v>0.1</v>
@@ -2767,10 +3114,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C4" s="5">
         <v>0.25</v>
@@ -2778,10 +3125,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C5" s="5">
         <v>0.25</v>
@@ -2789,10 +3136,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C6" s="5">
         <v>0.3</v>
@@ -2800,10 +3147,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C7" s="5">
         <v>0.3</v>
@@ -2811,10 +3158,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C8" s="5">
         <v>0.5</v>
@@ -2822,10 +3169,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2841,7 +3188,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,35 +3200,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B2" s="8">
         <v>45961</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B3" s="8">
         <v>45962</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +3241,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,39 +3251,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -2944,10 +3291,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2973,16 +3320,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,13 +3474,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1">
         <v>25590</v>
@@ -3141,13 +3488,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="1">
         <v>34265</v>
@@ -3155,13 +3502,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1">
         <v>26200</v>
@@ -3169,13 +3516,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1">
         <v>33897</v>
@@ -3183,13 +3530,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1">
         <v>32838</v>
@@ -3197,13 +3544,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D17" s="1">
         <v>32900</v>
@@ -3211,13 +3558,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1">
         <v>33158</v>
@@ -3225,13 +3572,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D19" s="1">
         <v>32810</v>
@@ -3239,13 +3586,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1">
         <v>33176</v>
@@ -3253,13 +3600,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D21" s="1">
         <v>32904</v>
@@ -3267,13 +3614,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D22" s="1">
         <v>33086</v>
@@ -3281,13 +3628,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D23" s="1">
         <v>32906</v>
@@ -3295,13 +3642,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D24" s="1">
         <v>33210</v>
@@ -3309,13 +3656,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D25" s="1">
         <v>32908</v>
@@ -3323,13 +3670,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D26" s="1">
         <v>28891</v>
@@ -3337,13 +3684,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D27" s="1">
         <v>32910</v>
@@ -3351,13 +3698,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1">
         <v>32393</v>
@@ -3365,13 +3712,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D29" s="1">
         <v>32547</v>
@@ -3379,13 +3726,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D30" s="1">
         <v>28530</v>
@@ -3393,13 +3740,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D31" s="1">
         <v>25609</v>
@@ -3407,13 +3754,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D32" s="1">
         <v>32915</v>
@@ -3421,13 +3768,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D33" s="1">
         <v>29263</v>
@@ -3435,13 +3782,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D34" s="1">
         <v>32917</v>
@@ -3449,13 +3796,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D35" s="1">
         <v>32946</v>
@@ -3463,13 +3810,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D36" s="1">
         <v>33709</v>
@@ -3477,13 +3824,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1">
         <v>33009</v>
@@ -3491,13 +3838,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D38" s="1">
         <v>33071</v>
@@ -3505,13 +3852,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D39" s="1">
         <v>33468</v>
@@ -3519,13 +3866,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D40" s="1">
         <v>33073</v>
@@ -3533,13 +3880,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D41" s="1">
         <v>33197</v>
@@ -3547,13 +3894,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D42" s="1">
         <v>33898</v>
@@ -3561,10 +3908,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -3575,13 +3922,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1">
         <v>33077</v>
@@ -3589,13 +3936,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D45" s="1">
         <v>32928</v>
@@ -3603,13 +3950,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D46" s="1">
         <v>33232</v>
@@ -3617,13 +3964,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D47" s="1">
         <v>32930</v>
@@ -3631,13 +3978,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D48" s="1">
         <v>32931</v>
@@ -3645,13 +3992,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D49" s="1">
         <v>32932</v>
@@ -3659,13 +4006,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D50" s="1">
         <v>32933</v>
@@ -3673,13 +4020,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D51" s="1">
         <v>32934</v>
@@ -3687,13 +4034,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D52" s="1">
         <v>32935</v>
@@ -3701,13 +4048,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D53" s="1">
         <v>32936</v>
@@ -3715,13 +4062,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D54" s="1">
         <v>32937</v>
@@ -3729,13 +4076,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D55" s="1">
         <v>32938</v>
@@ -3743,13 +4090,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D56" s="1">
         <v>32939</v>
@@ -3757,13 +4104,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D57" s="1">
         <v>32940</v>
@@ -3771,13 +4118,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D58" s="1">
         <v>32941</v>
@@ -3785,13 +4132,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D59" s="1">
         <v>32942</v>
@@ -3799,13 +4146,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D60" s="1">
         <v>33492</v>
@@ -3813,13 +4160,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D61" s="1">
         <v>32944</v>
@@ -3827,13 +4174,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D62" s="1">
         <v>32945</v>
@@ -3841,13 +4188,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D63" s="1">
         <v>32946</v>
@@ -3855,13 +4202,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D64" s="1">
         <v>32947</v>
@@ -3869,13 +4216,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D65" s="1">
         <v>32583</v>
@@ -3883,13 +4230,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D66" s="1">
         <v>32219</v>
@@ -3897,13 +4244,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D67" s="1">
         <v>33315</v>
@@ -3911,13 +4258,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1">
         <v>33682</v>
@@ -3925,13 +4272,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D69" s="1">
         <v>32952</v>
@@ -3939,13 +4286,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D70" s="1">
         <v>34414</v>
@@ -3953,13 +4300,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D71" s="1">
         <v>34050</v>
@@ -3967,13 +4314,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D72" s="1">
         <v>33686</v>
@@ -3981,13 +4328,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D73" s="1">
         <v>33321</v>
@@ -3995,13 +4342,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D74" s="1">
         <v>34418</v>
@@ -4009,13 +4356,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D75" s="1">
         <v>34054</v>
@@ -4023,13 +4370,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D76" s="1">
         <v>25654</v>
@@ -4037,13 +4384,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D77" s="1">
         <v>27847</v>
@@ -4051,13 +4398,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D78" s="1">
         <v>28578</v>
@@ -4065,13 +4412,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D79" s="1">
         <v>34058</v>
@@ -4079,13 +4426,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D80" s="1">
         <v>29311</v>
@@ -4093,13 +4440,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D81" s="1">
         <v>26755</v>
@@ -4107,13 +4454,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D82" s="1">
         <v>32691</v>
@@ -4121,13 +4468,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D83" s="1">
         <v>30775</v>
@@ -4135,13 +4482,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D84" s="1">
         <v>31141</v>
@@ -4149,13 +4496,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D85" s="1">
         <v>31507</v>
@@ -4163,13 +4510,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D86" s="1">
         <v>32269</v>
@@ -4177,13 +4524,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D87" s="1">
         <v>32605</v>
@@ -4191,13 +4538,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D88" s="1">
         <v>32241</v>
@@ -4205,13 +4552,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D89" s="1">
         <v>32607</v>
@@ -4219,13 +4566,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D90" s="1">
         <v>26033</v>
@@ -4233,13 +4580,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D91" s="1">
         <v>25669</v>
@@ -4247,13 +4594,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D92" s="1">
         <v>30053</v>
@@ -4261,13 +4608,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D93" s="1">
         <v>25306</v>
@@ -4275,13 +4622,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D94" s="1">
         <v>33708</v>
@@ -4289,13 +4636,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D95" s="1">
         <v>28595</v>
@@ -4303,13 +4650,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D96" s="1">
         <v>26770</v>
@@ -4317,13 +4664,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D97" s="1">
         <v>32250</v>
@@ -4331,13 +4678,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D98" s="1">
         <v>28233</v>
@@ -4345,13 +4692,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D99" s="1">
         <v>25312</v>
@@ -4359,13 +4706,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D100" s="1">
         <v>32618</v>
@@ -4373,13 +4720,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D101" s="1">
         <v>31888</v>
@@ -4387,13 +4734,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D102" s="1">
         <v>28602</v>
@@ -4401,13 +4748,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D103" s="1">
         <v>25681</v>
@@ -4415,13 +4762,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D104" s="1">
         <v>28239</v>
@@ -4429,13 +4776,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D105" s="1">
         <v>32623</v>
@@ -4443,13 +4790,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D106" s="1">
         <v>31893</v>
@@ -4457,13 +4804,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D107" s="1">
         <v>31529</v>
@@ -4471,13 +4818,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C108" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D108" s="1">
         <v>33356</v>
@@ -4485,13 +4832,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D109" s="1">
         <v>34453</v>
@@ -4499,13 +4846,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C110" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D110" s="1">
         <v>29341</v>
@@ -4513,13 +4860,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D111" s="1">
         <v>22037</v>
@@ -4527,13 +4874,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D112" s="1">
         <v>29343</v>
@@ -4541,13 +4888,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D113" s="1">
         <v>33727</v>
@@ -4555,13 +4902,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D114" s="1">
         <v>32997</v>
@@ -4569,13 +4916,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B115" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D115" s="1">
         <v>28250</v>
@@ -4583,13 +4930,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D116" s="1">
         <v>28616</v>
@@ -4597,13 +4944,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D117" s="1">
         <v>32635</v>
@@ -4611,13 +4958,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D118" s="1">
         <v>25696</v>
@@ -4625,13 +4972,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D119" s="1">
         <v>33733</v>
@@ -4639,13 +4986,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D120" s="1">
         <v>34099</v>
@@ -4653,13 +5000,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D121" s="1">
         <v>33369</v>
@@ -4673,10 +5020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72622FA-2519-49BE-9216-E94A2E26FE23}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,188 +5034,1133 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" t="s">
-        <v>491</v>
+        <v>408</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" t="s">
-        <v>492</v>
+        <v>408</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" t="s">
-        <v>493</v>
+        <v>408</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" t="s">
-        <v>491</v>
+        <v>408</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B52" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>416</v>
       </c>
-      <c r="B8" t="s">
-        <v>495</v>
+      <c r="B53" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>418</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>420</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4879,110 +6171,1392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CF1354-A4D5-4DC5-AD8A-D7ADDD7848F7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C63" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C75" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C84" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C96" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C118" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4991,7 +7565,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B46"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,10 +7578,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5015,7 +7589,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5023,7 +7597,7 @@
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5031,7 +7605,7 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5039,7 +7613,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5047,7 +7621,7 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,7 +7629,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5063,7 +7637,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,7 +7645,7 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,7 +7653,7 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +7661,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5095,7 +7669,7 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5103,7 +7677,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5111,7 +7685,7 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5119,7 +7693,7 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5127,7 +7701,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5135,7 +7709,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5143,7 +7717,7 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5151,7 +7725,7 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5159,215 +7733,215 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B25" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B26" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B27" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B31" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B34" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B36" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B37" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B38" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B39" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B40" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B41" t="s">
         <v>522</v>
-      </c>
-      <c r="B41" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B42" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B43" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B44" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B45" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B46" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5400,10 +7974,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C1" t="s">
         <v>72</v>
@@ -5422,7 +7996,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,7 +8014,7 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5450,6 +8024,9 @@
       <c r="B2" t="s">
         <v>78</v>
       </c>
+      <c r="C2" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5458,6 +8035,9 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5466,6 +8046,9 @@
       <c r="B4" t="s">
         <v>80</v>
       </c>
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5474,6 +8057,9 @@
       <c r="B5" t="s">
         <v>81</v>
       </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5482,6 +8068,9 @@
       <c r="B6" t="s">
         <v>82</v>
       </c>
+      <c r="C6" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5490,6 +8079,9 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
+      <c r="C7" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5498,6 +8090,9 @@
       <c r="B8" t="s">
         <v>84</v>
       </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5506,6 +8101,9 @@
       <c r="B9" t="s">
         <v>85</v>
       </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5513,6 +8111,9 @@
       </c>
       <c r="B10" t="s">
         <v>86</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +8126,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5543,7 +8144,7 @@
         <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5551,7 +8152,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>546</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,7 +8163,10 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>547</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5567,7 +8174,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>548</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5575,7 +8185,10 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>549</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,7 +8196,10 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>550</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,7 +8207,10 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>551</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5599,7 +8218,10 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,7 +8229,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>427</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5615,7 +8240,10 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>428</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,34 +8251,47 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>429</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>436</v>
+        <v>545</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>430</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
-        <v>536</v>
+        <v>528</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE8F8D6-8B91-4A1E-9C4E-4A93EE202C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FFD4E8-F0B2-4563-A466-CBD9D43B761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6930" windowHeight="11835" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="165" yWindow="375" windowWidth="19815" windowHeight="12480" firstSheet="11" activeTab="15" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="663">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -277,9 +277,6 @@
     <t>I0019</t>
   </si>
   <si>
-    <t>WeaponID</t>
-  </si>
-  <si>
     <t>WeaponDescription</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Spear</t>
   </si>
   <si>
-    <t>FoodID</t>
-  </si>
-  <si>
     <t>FoodDescription</t>
   </si>
   <si>
@@ -1339,9 +1333,6 @@
     <t>Watermelon</t>
   </si>
   <si>
-    <t>VehicleID</t>
-  </si>
-  <si>
     <t>VehicleDescription</t>
   </si>
   <si>
@@ -1402,9 +1393,6 @@
     <t>MedicineID</t>
   </si>
   <si>
-    <t>HousingID</t>
-  </si>
-  <si>
     <t>HousingDescription</t>
   </si>
   <si>
@@ -2050,7 +2038,7 @@
     <t>P120</t>
   </si>
   <si>
-    <t>BasePay/Day</t>
+    <t>JobBasePay/Day</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2478,21 +2466,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2500,7 +2488,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2511,7 +2499,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2522,10 +2510,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2533,10 +2521,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2544,10 +2532,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2555,10 +2543,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2566,10 +2554,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2577,10 +2565,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2597,7 +2585,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,21 +2597,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C2" s="40">
         <v>30</v>
@@ -2631,10 +2619,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C3" s="40">
         <v>80</v>
@@ -2642,10 +2630,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C4" s="40">
         <v>15</v>
@@ -2653,10 +2641,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C5" s="40">
         <v>100</v>
@@ -2664,10 +2652,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C6" s="40">
         <v>120</v>
@@ -2675,10 +2663,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C7" s="40">
         <v>200</v>
@@ -2686,10 +2674,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C8" s="40">
         <v>76</v>
@@ -2697,10 +2685,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C9" s="40">
         <v>60</v>
@@ -2710,10 +2698,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C10" s="40">
         <v>60</v>
@@ -2759,7 +2747,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,21 +2759,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C2" s="40">
         <v>5</v>
@@ -2793,10 +2781,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C3" s="40">
         <v>6.15</v>
@@ -2804,10 +2792,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C4" s="40">
         <v>2</v>
@@ -2815,10 +2803,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="40">
         <v>1.5</v>
@@ -2826,10 +2814,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C6" s="40">
         <v>1.75</v>
@@ -2837,10 +2825,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C7" s="40">
         <v>0.75</v>
@@ -2848,10 +2836,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C8" s="40">
         <v>0.5</v>
@@ -2859,10 +2847,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C9" s="40">
         <v>1.5</v>
@@ -2870,10 +2858,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C10" s="40">
         <v>3</v>
@@ -2881,10 +2869,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C11" s="40">
         <v>4.25</v>
@@ -2940,9 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2953,21 +2939,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C2" s="40">
         <v>30</v>
@@ -2975,10 +2961,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C3" s="40">
         <v>45</v>
@@ -2986,10 +2972,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C4" s="40">
         <v>150</v>
@@ -2997,10 +2983,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C5" s="40">
         <v>200</v>
@@ -3032,7 +3018,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,21 +3031,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>2</v>
@@ -3073,7 +3059,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>5</v>
@@ -3087,7 +3073,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>14</v>
@@ -3120,21 +3106,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>474</v>
-      </c>
       <c r="C1" s="29" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -3142,7 +3128,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -3153,7 +3139,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -3164,10 +3150,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3175,10 +3161,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3194,7 +3180,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,21 +3192,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C2" s="4">
         <v>0.1</v>
@@ -3228,10 +3214,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C3" s="4">
         <v>0.1</v>
@@ -3239,10 +3225,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C4" s="4">
         <v>0.25</v>
@@ -3250,10 +3236,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C5" s="4">
         <v>0.25</v>
@@ -3261,10 +3247,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C6" s="4">
         <v>0.3</v>
@@ -3272,10 +3258,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C7" s="4">
         <v>0.3</v>
@@ -3283,10 +3269,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C8" s="4">
         <v>0.5</v>
@@ -3294,10 +3280,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3310,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC63D1C-58DF-4250-AF23-56F2205E3F0B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,37 +3309,46 @@
     <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B2" s="7">
         <v>45961</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B3" s="7">
         <v>45962</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3366,61 +3361,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="D3:E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>533</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>533</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>533</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>533</v>
+        <v>143</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3446,16 +3441,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +3595,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1">
         <v>25590</v>
@@ -3614,13 +3609,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1">
         <v>34265</v>
@@ -3628,13 +3623,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D14" s="1">
         <v>26200</v>
@@ -3642,13 +3637,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1">
         <v>33897</v>
@@ -3656,13 +3651,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D16" s="1">
         <v>32838</v>
@@ -3670,13 +3665,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D17" s="1">
         <v>32900</v>
@@ -3684,13 +3679,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" s="1">
         <v>33158</v>
@@ -3698,13 +3693,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" s="1">
         <v>32810</v>
@@ -3712,13 +3707,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1">
         <v>33176</v>
@@ -3726,13 +3721,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="1">
         <v>32904</v>
@@ -3740,13 +3735,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D22" s="1">
         <v>33086</v>
@@ -3754,13 +3749,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D23" s="1">
         <v>32906</v>
@@ -3768,13 +3763,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1">
         <v>33210</v>
@@ -3782,13 +3777,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D25" s="1">
         <v>32908</v>
@@ -3796,13 +3791,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1">
         <v>28891</v>
@@ -3810,13 +3805,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D27" s="1">
         <v>32910</v>
@@ -3824,13 +3819,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1">
         <v>32393</v>
@@ -3838,13 +3833,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D29" s="1">
         <v>32547</v>
@@ -3852,13 +3847,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" s="1">
         <v>28530</v>
@@ -3866,13 +3861,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D31" s="1">
         <v>25609</v>
@@ -3880,13 +3875,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D32" s="1">
         <v>32915</v>
@@ -3894,13 +3889,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1">
         <v>29263</v>
@@ -3908,13 +3903,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D34" s="1">
         <v>32917</v>
@@ -3922,13 +3917,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D35" s="1">
         <v>32946</v>
@@ -3936,13 +3931,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D36" s="1">
         <v>33709</v>
@@ -3950,13 +3945,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D37" s="1">
         <v>33009</v>
@@ -3964,13 +3959,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D38" s="1">
         <v>33071</v>
@@ -3978,13 +3973,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D39" s="1">
         <v>33468</v>
@@ -3992,13 +3987,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D40" s="1">
         <v>33073</v>
@@ -4006,13 +4001,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D41" s="1">
         <v>33197</v>
@@ -4020,13 +4015,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D42" s="1">
         <v>33898</v>
@@ -4034,10 +4029,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -4048,13 +4043,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D44" s="1">
         <v>33077</v>
@@ -4062,13 +4057,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D45" s="1">
         <v>32928</v>
@@ -4076,13 +4071,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D46" s="1">
         <v>33232</v>
@@ -4090,13 +4085,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D47" s="1">
         <v>32930</v>
@@ -4104,13 +4099,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D48" s="1">
         <v>32931</v>
@@ -4118,13 +4113,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1">
         <v>32932</v>
@@ -4132,13 +4127,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D50" s="1">
         <v>32933</v>
@@ -4146,13 +4141,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D51" s="1">
         <v>32934</v>
@@ -4160,13 +4155,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D52" s="1">
         <v>32935</v>
@@ -4174,13 +4169,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1">
         <v>32936</v>
@@ -4188,13 +4183,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D54" s="1">
         <v>32937</v>
@@ -4202,13 +4197,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D55" s="1">
         <v>32938</v>
@@ -4216,13 +4211,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D56" s="1">
         <v>32939</v>
@@ -4230,13 +4225,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D57" s="1">
         <v>32940</v>
@@ -4244,13 +4239,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D58" s="1">
         <v>32941</v>
@@ -4258,13 +4253,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D59" s="1">
         <v>32942</v>
@@ -4272,13 +4267,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D60" s="1">
         <v>33492</v>
@@ -4286,13 +4281,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D61" s="1">
         <v>32944</v>
@@ -4300,13 +4295,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D62" s="1">
         <v>32945</v>
@@ -4314,13 +4309,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D63" s="1">
         <v>32946</v>
@@ -4328,13 +4323,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D64" s="1">
         <v>32947</v>
@@ -4342,13 +4337,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D65" s="1">
         <v>32583</v>
@@ -4356,13 +4351,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D66" s="1">
         <v>32219</v>
@@ -4370,13 +4365,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D67" s="1">
         <v>33315</v>
@@ -4384,13 +4379,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D68" s="1">
         <v>33682</v>
@@ -4398,13 +4393,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D69" s="1">
         <v>32952</v>
@@ -4412,13 +4407,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D70" s="1">
         <v>34414</v>
@@ -4426,13 +4421,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D71" s="1">
         <v>34050</v>
@@ -4440,13 +4435,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D72" s="1">
         <v>33686</v>
@@ -4454,13 +4449,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D73" s="1">
         <v>33321</v>
@@ -4468,13 +4463,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D74" s="1">
         <v>34418</v>
@@ -4482,13 +4477,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D75" s="1">
         <v>34054</v>
@@ -4496,13 +4491,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D76" s="1">
         <v>25654</v>
@@ -4510,13 +4505,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D77" s="1">
         <v>27847</v>
@@ -4524,13 +4519,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D78" s="1">
         <v>28578</v>
@@ -4538,13 +4533,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D79" s="1">
         <v>34058</v>
@@ -4552,13 +4547,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D80" s="1">
         <v>29311</v>
@@ -4566,13 +4561,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D81" s="1">
         <v>26755</v>
@@ -4580,13 +4575,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D82" s="1">
         <v>32691</v>
@@ -4594,13 +4589,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D83" s="1">
         <v>30775</v>
@@ -4608,13 +4603,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D84" s="1">
         <v>31141</v>
@@ -4622,13 +4617,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D85" s="1">
         <v>31507</v>
@@ -4636,13 +4631,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D86" s="1">
         <v>32269</v>
@@ -4650,13 +4645,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D87" s="1">
         <v>32605</v>
@@ -4664,13 +4659,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D88" s="1">
         <v>32241</v>
@@ -4678,13 +4673,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D89" s="1">
         <v>32607</v>
@@ -4692,13 +4687,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C90" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D90" s="1">
         <v>26033</v>
@@ -4706,13 +4701,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D91" s="1">
         <v>25669</v>
@@ -4720,13 +4715,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D92" s="1">
         <v>30053</v>
@@ -4734,13 +4729,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D93" s="1">
         <v>25306</v>
@@ -4748,13 +4743,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D94" s="1">
         <v>33708</v>
@@ -4762,13 +4757,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D95" s="1">
         <v>28595</v>
@@ -4776,13 +4771,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D96" s="1">
         <v>26770</v>
@@ -4790,13 +4785,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D97" s="1">
         <v>32250</v>
@@ -4804,13 +4799,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D98" s="1">
         <v>28233</v>
@@ -4818,13 +4813,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D99" s="1">
         <v>25312</v>
@@ -4832,13 +4827,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D100" s="1">
         <v>32618</v>
@@ -4846,13 +4841,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D101" s="1">
         <v>31888</v>
@@ -4860,13 +4855,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D102" s="1">
         <v>28602</v>
@@ -4874,13 +4869,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D103" s="1">
         <v>25681</v>
@@ -4888,13 +4883,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D104" s="1">
         <v>28239</v>
@@ -4902,13 +4897,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D105" s="1">
         <v>32623</v>
@@ -4916,13 +4911,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D106" s="1">
         <v>31893</v>
@@ -4930,13 +4925,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D107" s="1">
         <v>31529</v>
@@ -4944,13 +4939,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D108" s="1">
         <v>33356</v>
@@ -4958,13 +4953,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D109" s="1">
         <v>34453</v>
@@ -4972,13 +4967,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D110" s="1">
         <v>29341</v>
@@ -4986,13 +4981,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D111" s="1">
         <v>22037</v>
@@ -5000,13 +4995,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D112" s="1">
         <v>29343</v>
@@ -5014,13 +5009,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D113" s="1">
         <v>33727</v>
@@ -5028,13 +5023,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D114" s="1">
         <v>32997</v>
@@ -5042,13 +5037,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D115" s="1">
         <v>28250</v>
@@ -5056,13 +5051,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D116" s="1">
         <v>28616</v>
@@ -5070,13 +5065,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C117" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D117" s="1">
         <v>32635</v>
@@ -5084,13 +5079,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C118" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D118" s="1">
         <v>25696</v>
@@ -5098,13 +5093,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C119" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D119" s="1">
         <v>33733</v>
@@ -5112,13 +5107,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C120" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D120" s="1">
         <v>34099</v>
@@ -5126,13 +5121,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D121" s="1">
         <v>33369</v>
@@ -5149,981 +5144,981 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B121"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>481</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>482</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>408</v>
+        <v>548</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>552</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>408</v>
+        <v>549</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>553</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>408</v>
+        <v>550</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>408</v>
+        <v>551</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>555</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>410</v>
+        <v>552</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>410</v>
+        <v>553</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>557</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>410</v>
+        <v>554</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>558</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>559</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>410</v>
+        <v>556</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>560</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>410</v>
+        <v>557</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>561</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>410</v>
+        <v>558</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>562</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>563</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>410</v>
+        <v>560</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>564</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>565</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>410</v>
+        <v>562</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>566</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>410</v>
+        <v>563</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>567</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>410</v>
+        <v>564</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>568</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>410</v>
+        <v>565</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>569</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>410</v>
+        <v>566</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>570</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>410</v>
+        <v>567</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>571</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>572</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>410</v>
+        <v>569</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>573</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>574</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>410</v>
+        <v>571</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>575</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>410</v>
+        <v>572</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>576</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>411</v>
+        <v>573</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>577</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>411</v>
+        <v>574</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>578</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>579</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>580</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>411</v>
+        <v>577</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>581</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>411</v>
+        <v>578</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>582</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>583</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>412</v>
+        <v>580</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>412</v>
+        <v>581</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>585</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>412</v>
+        <v>582</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>586</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>412</v>
+        <v>583</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>587</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>412</v>
+        <v>584</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>588</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>414</v>
+        <v>585</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>589</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>414</v>
+        <v>586</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>590</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>414</v>
+        <v>587</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>591</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>592</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>414</v>
+        <v>589</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>593</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>414</v>
+        <v>590</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>594</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>414</v>
+        <v>591</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>595</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>416</v>
+        <v>592</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>596</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>416</v>
+        <v>593</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>597</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>416</v>
+        <v>594</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>598</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>416</v>
+        <v>595</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>599</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>416</v>
+        <v>596</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>600</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>416</v>
+        <v>597</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>601</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>416</v>
+        <v>598</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>602</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
-        <v>416</v>
+        <v>599</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>603</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>416</v>
+        <v>600</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>604</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>416</v>
+        <v>601</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>605</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>416</v>
+        <v>602</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>606</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
-        <v>418</v>
+        <v>603</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>607</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>418</v>
+        <v>604</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>608</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>418</v>
+        <v>605</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>609</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
-        <v>418</v>
+        <v>606</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>610</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
-        <v>418</v>
+        <v>607</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>611</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
-        <v>418</v>
+        <v>608</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>612</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>418</v>
+        <v>609</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>613</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>418</v>
+        <v>610</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>614</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
-        <v>418</v>
+        <v>611</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>615</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>418</v>
+        <v>612</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>616</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>418</v>
+        <v>613</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>617</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>420</v>
+        <v>614</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>618</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
-        <v>420</v>
+        <v>615</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>619</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>420</v>
+        <v>616</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>620</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>420</v>
+        <v>617</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>621</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>420</v>
+        <v>618</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>622</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>420</v>
+        <v>619</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>623</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>624</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>420</v>
+        <v>621</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>625</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
-        <v>420</v>
+        <v>622</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>626</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
-        <v>420</v>
+        <v>623</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>627</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
-        <v>420</v>
+        <v>624</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>628</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
-        <v>420</v>
+        <v>625</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>629</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
-        <v>420</v>
+        <v>626</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>630</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>420</v>
+        <v>627</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>631</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>632</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>420</v>
+        <v>629</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>633</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>422</v>
+        <v>630</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>634</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="35" t="s">
-        <v>422</v>
+        <v>631</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>635</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
-        <v>422</v>
+        <v>632</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>636</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>422</v>
+        <v>633</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>637</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>638</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
-        <v>422</v>
+        <v>635</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>639</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>422</v>
+        <v>636</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>640</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
-        <v>422</v>
+        <v>637</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>641</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
-        <v>422</v>
+        <v>638</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>642</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
-        <v>422</v>
+        <v>639</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>643</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
-        <v>422</v>
+        <v>640</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>644</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="35" t="s">
-        <v>422</v>
+        <v>641</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>645</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="35" t="s">
-        <v>422</v>
+        <v>642</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>646</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
-        <v>422</v>
+        <v>643</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>647</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
-        <v>422</v>
+        <v>644</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>648</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="35" t="s">
-        <v>422</v>
+        <v>645</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>649</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
-        <v>422</v>
+        <v>646</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>650</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
-        <v>422</v>
+        <v>647</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>651</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
-        <v>422</v>
+        <v>648</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>652</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
-        <v>422</v>
+        <v>649</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>653</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="35" t="s">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>654</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
-        <v>422</v>
+        <v>651</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>655</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
-        <v>422</v>
+        <v>652</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>656</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
-        <v>422</v>
+        <v>653</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>657</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="35" t="s">
-        <v>422</v>
+        <v>654</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>658</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="35" t="s">
-        <v>422</v>
+        <v>655</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>659</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
-        <v>422</v>
+        <v>656</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>660</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
-        <v>422</v>
+        <v>657</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>661</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
-        <v>422</v>
+        <v>658</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>662</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
-        <v>422</v>
+        <v>659</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>663</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
-        <v>422</v>
+        <v>660</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>664</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
-        <v>422</v>
+        <v>661</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>665</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -6136,14 +6131,14 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6146,10 @@
         <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6280,10 +6275,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C13" s="37">
         <v>3</v>
@@ -6310,13 +6305,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,10 +6426,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C12" s="34">
         <v>3</v>
@@ -6442,7 +6437,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>72</v>
@@ -6453,7 +6448,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>39</v>
@@ -6464,7 +6459,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>35</v>
@@ -6475,7 +6470,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>45</v>
@@ -6486,7 +6481,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>51</v>
@@ -6497,7 +6492,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>33</v>
@@ -6508,7 +6503,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>47</v>
@@ -6519,7 +6514,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>37</v>
@@ -6530,7 +6525,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>43</v>
@@ -6541,7 +6536,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>41</v>
@@ -6552,7 +6547,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>49</v>
@@ -6563,10 +6558,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C24" s="34">
         <v>3</v>
@@ -6574,7 +6569,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>72</v>
@@ -6585,7 +6580,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>39</v>
@@ -6596,7 +6591,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>35</v>
@@ -6607,7 +6602,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>45</v>
@@ -6618,7 +6613,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>51</v>
@@ -6629,7 +6624,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>33</v>
@@ -6640,7 +6635,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>47</v>
@@ -6651,7 +6646,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>37</v>
@@ -6662,7 +6657,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>43</v>
@@ -6673,7 +6668,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>41</v>
@@ -6684,7 +6679,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>49</v>
@@ -6695,10 +6690,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C36" s="34">
         <v>3</v>
@@ -6706,7 +6701,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>72</v>
@@ -6717,7 +6712,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>39</v>
@@ -6728,7 +6723,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>35</v>
@@ -6739,7 +6734,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>45</v>
@@ -6750,7 +6745,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>51</v>
@@ -6761,7 +6756,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>43</v>
@@ -6772,7 +6767,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>41</v>
@@ -6783,7 +6778,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>49</v>
@@ -6794,7 +6789,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>51</v>
@@ -6805,7 +6800,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="33" t="s">
         <v>33</v>
@@ -6816,7 +6811,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>47</v>
@@ -6827,7 +6822,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B48" s="33" t="s">
         <v>37</v>
@@ -6838,7 +6833,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="33" t="s">
         <v>39</v>
@@ -6849,7 +6844,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" s="33" t="s">
         <v>35</v>
@@ -6860,7 +6855,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>45</v>
@@ -6871,7 +6866,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>51</v>
@@ -6882,7 +6877,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" s="33" t="s">
         <v>33</v>
@@ -6893,7 +6888,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>47</v>
@@ -6904,7 +6899,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>37</v>
@@ -6915,7 +6910,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>43</v>
@@ -6926,7 +6921,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>41</v>
@@ -6937,7 +6932,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>49</v>
@@ -6948,7 +6943,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" s="33" t="s">
         <v>37</v>
@@ -6959,7 +6954,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>43</v>
@@ -6970,7 +6965,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>41</v>
@@ -6981,7 +6976,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62" s="33" t="s">
         <v>49</v>
@@ -6992,10 +6987,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C63" s="34">
         <v>3</v>
@@ -7003,7 +6998,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="33" t="s">
         <v>72</v>
@@ -7014,7 +7009,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65" s="33" t="s">
         <v>51</v>
@@ -7025,7 +7020,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>33</v>
@@ -7036,7 +7031,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>47</v>
@@ -7047,7 +7042,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>37</v>
@@ -7058,7 +7053,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="33" t="s">
         <v>43</v>
@@ -7069,7 +7064,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="33" t="s">
         <v>41</v>
@@ -7080,7 +7075,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="33" t="s">
         <v>49</v>
@@ -7091,7 +7086,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>37</v>
@@ -7102,7 +7097,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="33" t="s">
         <v>41</v>
@@ -7113,7 +7108,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>49</v>
@@ -7124,10 +7119,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C75" s="34">
         <v>3</v>
@@ -7135,7 +7130,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>72</v>
@@ -7146,7 +7141,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="33" t="s">
         <v>51</v>
@@ -7157,7 +7152,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>33</v>
@@ -7168,7 +7163,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>47</v>
@@ -7179,7 +7174,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>37</v>
@@ -7190,7 +7185,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>39</v>
@@ -7201,7 +7196,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>35</v>
@@ -7212,7 +7207,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>49</v>
@@ -7223,10 +7218,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C84" s="34">
         <v>3</v>
@@ -7234,7 +7229,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>72</v>
@@ -7245,7 +7240,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>51</v>
@@ -7256,7 +7251,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>33</v>
@@ -7267,7 +7262,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>47</v>
@@ -7278,7 +7273,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>33</v>
@@ -7289,7 +7284,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>47</v>
@@ -7300,7 +7295,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>41</v>
@@ -7311,7 +7306,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>49</v>
@@ -7322,7 +7317,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>37</v>
@@ -7333,7 +7328,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>41</v>
@@ -7344,7 +7339,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>49</v>
@@ -7355,10 +7350,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C96" s="34">
         <v>3</v>
@@ -7366,7 +7361,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>72</v>
@@ -7377,7 +7372,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>51</v>
@@ -7388,7 +7383,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>33</v>
@@ -7399,7 +7394,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>51</v>
@@ -7410,7 +7405,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>33</v>
@@ -7421,7 +7416,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>47</v>
@@ -7432,7 +7427,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B103" s="33" t="s">
         <v>33</v>
@@ -7443,7 +7438,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B104" s="33" t="s">
         <v>47</v>
@@ -7454,7 +7449,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>41</v>
@@ -7465,7 +7460,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>49</v>
@@ -7476,7 +7471,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>72</v>
@@ -7487,7 +7482,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>51</v>
@@ -7498,7 +7493,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>33</v>
@@ -7509,7 +7504,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>51</v>
@@ -7520,7 +7515,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>51</v>
@@ -7531,7 +7526,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>33</v>
@@ -7542,7 +7537,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>47</v>
@@ -7553,7 +7548,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>37</v>
@@ -7564,7 +7559,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>43</v>
@@ -7575,7 +7570,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B116" s="33" t="s">
         <v>41</v>
@@ -7586,7 +7581,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>49</v>
@@ -7597,10 +7592,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C118" s="34">
         <v>3</v>
@@ -7608,7 +7603,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>72</v>
@@ -7619,7 +7614,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>51</v>
@@ -7630,7 +7625,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>33</v>
@@ -7663,10 +7658,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7674,7 +7669,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7682,7 +7677,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7690,7 +7685,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7698,7 +7693,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7706,7 +7701,7 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7714,7 +7709,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7722,7 +7717,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7730,7 +7725,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7738,7 +7733,7 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7746,7 +7741,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7754,7 +7749,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7762,7 +7757,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7770,7 +7765,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7778,7 +7773,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7786,7 +7781,7 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7794,7 +7789,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7802,7 +7797,7 @@
         <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7810,7 +7805,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7818,215 +7813,215 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B31" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B33" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B36" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B37" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B38" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B42" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B44" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B45" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B46" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8059,10 +8054,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>71</v>
@@ -8070,7 +8065,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>53</v>
@@ -8081,7 +8076,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>54</v>
@@ -8092,7 +8087,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>55</v>
@@ -8103,7 +8098,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>56</v>
@@ -8114,7 +8109,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>57</v>
@@ -8125,7 +8120,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>58</v>
@@ -8136,7 +8131,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>59</v>
@@ -8147,7 +8142,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>60</v>
@@ -8158,7 +8153,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>61</v>
@@ -8169,7 +8164,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>62</v>
@@ -8180,7 +8175,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>63</v>
@@ -8191,7 +8186,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>64</v>
@@ -8202,7 +8197,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>65</v>
@@ -8213,7 +8208,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>66</v>
@@ -8224,7 +8219,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>67</v>
@@ -8235,7 +8230,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>68</v>
@@ -8246,7 +8241,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>69</v>
@@ -8257,7 +8252,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>70</v>
@@ -8268,7 +8263,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>74</v>
@@ -8279,10 +8274,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -8290,10 +8285,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8301,10 +8296,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -8312,10 +8307,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -8323,10 +8318,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -8334,10 +8329,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -8345,10 +8340,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -8356,10 +8351,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C28">
         <v>500</v>
@@ -8367,10 +8362,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C29">
         <v>500</v>
@@ -8378,10 +8373,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -8389,10 +8384,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C31">
         <v>80</v>
@@ -8400,10 +8395,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C32">
         <v>250</v>
@@ -8411,10 +8406,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C33">
         <v>50</v>
@@ -8422,10 +8417,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -8433,10 +8428,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C35">
         <v>200</v>
@@ -8444,10 +8439,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C36">
         <v>150</v>
@@ -8455,10 +8450,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C37">
         <v>60</v>
@@ -8466,10 +8461,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C38">
         <v>25</v>
@@ -8477,10 +8472,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -8488,10 +8483,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -8499,7 +8494,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>53</v>
@@ -8510,7 +8505,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>54</v>
@@ -8521,7 +8516,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>55</v>
@@ -8532,7 +8527,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>56</v>
@@ -8543,7 +8538,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>57</v>
@@ -8554,7 +8549,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>58</v>
@@ -8565,7 +8560,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>59</v>
@@ -8576,7 +8571,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>60</v>
@@ -8587,7 +8582,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>61</v>
@@ -8598,7 +8593,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>62</v>
@@ -8609,7 +8604,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>63</v>
@@ -8620,7 +8615,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>64</v>
@@ -8631,7 +8626,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>65</v>
@@ -8642,7 +8637,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>66</v>
@@ -8653,7 +8648,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>67</v>
@@ -8664,7 +8659,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>68</v>
@@ -8675,7 +8670,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>69</v>
@@ -8686,7 +8681,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>70</v>
@@ -8697,7 +8692,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>74</v>
@@ -8708,10 +8703,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C60">
         <v>80</v>
@@ -8719,10 +8714,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C61">
         <v>150</v>
@@ -8730,10 +8725,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -8741,10 +8736,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -8752,10 +8747,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -8763,10 +8758,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -8774,10 +8769,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -8785,10 +8780,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -8796,10 +8791,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -8807,10 +8802,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C69">
         <v>15</v>
@@ -8818,10 +8813,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C70">
         <v>500</v>
@@ -8829,10 +8824,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C71">
         <v>350</v>
@@ -8840,10 +8835,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C72">
         <v>100</v>
@@ -8851,10 +8846,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C73">
         <v>200</v>
@@ -8862,10 +8857,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -8873,10 +8868,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C75">
         <v>150</v>
@@ -8884,10 +8879,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C76">
         <v>90</v>
@@ -8895,10 +8890,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C77">
         <v>100</v>
@@ -8906,10 +8901,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C78">
         <v>125</v>
@@ -8917,10 +8912,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C79">
         <v>85</v>
@@ -8928,10 +8923,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C80">
         <v>15</v>
@@ -8939,10 +8934,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -8950,10 +8945,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -8961,10 +8956,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -8972,7 +8967,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>53</v>
@@ -8983,7 +8978,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>54</v>
@@ -8994,7 +8989,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>55</v>
@@ -9005,7 +9000,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>56</v>
@@ -9016,7 +9011,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>57</v>
@@ -9027,7 +9022,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>58</v>
@@ -9038,7 +9033,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>59</v>
@@ -9049,7 +9044,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>60</v>
@@ -9060,7 +9055,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>61</v>
@@ -9071,7 +9066,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>62</v>
@@ -9082,7 +9077,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>63</v>
@@ -9093,7 +9088,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>64</v>
@@ -9104,7 +9099,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>65</v>
@@ -9115,7 +9110,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>66</v>
@@ -9126,7 +9121,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>67</v>
@@ -9137,7 +9132,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>68</v>
@@ -9148,7 +9143,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>69</v>
@@ -9159,7 +9154,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>70</v>
@@ -9170,7 +9165,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>74</v>
@@ -9181,10 +9176,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C103" s="6">
         <v>60</v>
@@ -9192,10 +9187,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C104" s="6">
         <v>100</v>
@@ -9203,10 +9198,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C105" s="6">
         <v>3</v>
@@ -9214,10 +9209,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C106" s="6">
         <v>6</v>
@@ -9225,10 +9220,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C107" s="6">
         <v>2</v>
@@ -9236,10 +9231,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C108" s="6">
         <v>2</v>
@@ -9247,10 +9242,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C109" s="6">
         <v>10</v>
@@ -9258,10 +9253,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C110" s="6">
         <v>500</v>
@@ -9269,10 +9264,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C111" s="6">
         <v>500</v>
@@ -9280,10 +9275,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C112" s="6">
         <v>100</v>
@@ -9291,10 +9286,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C113" s="6">
         <v>80</v>
@@ -9302,10 +9297,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C114" s="6">
         <v>250</v>
@@ -9313,10 +9308,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C115" s="6">
         <v>50</v>
@@ -9324,10 +9319,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C116" s="6">
         <v>90</v>
@@ -9335,10 +9330,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C117" s="6">
         <v>200</v>
@@ -9346,10 +9341,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C118" s="6">
         <v>150</v>
@@ -9357,10 +9352,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C119" s="6">
         <v>60</v>
@@ -9368,10 +9363,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C120" s="6">
         <v>25</v>
@@ -9379,10 +9374,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C121" s="6">
         <v>10</v>
@@ -9390,10 +9385,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C122" s="6">
         <v>5</v>
@@ -9401,7 +9396,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>53</v>
@@ -9412,7 +9407,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>54</v>
@@ -9423,7 +9418,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>55</v>
@@ -9434,7 +9429,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>56</v>
@@ -9445,7 +9440,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>57</v>
@@ -9456,7 +9451,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>58</v>
@@ -9467,7 +9462,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>59</v>
@@ -9478,7 +9473,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>60</v>
@@ -9489,7 +9484,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>61</v>
@@ -9500,7 +9495,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>62</v>
@@ -9511,7 +9506,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>63</v>
@@ -9522,7 +9517,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>64</v>
@@ -9533,7 +9528,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>65</v>
@@ -9544,7 +9539,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>66</v>
@@ -9555,7 +9550,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>67</v>
@@ -9566,7 +9561,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>68</v>
@@ -9577,7 +9572,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>69</v>
@@ -9588,7 +9583,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>70</v>
@@ -9599,7 +9594,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>74</v>
@@ -9610,10 +9605,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C142" s="6">
         <v>80</v>
@@ -9621,10 +9616,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C143" s="6">
         <v>150</v>
@@ -9632,10 +9627,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C144" s="6">
         <v>5</v>
@@ -9643,10 +9638,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C145" s="6">
         <v>6</v>
@@ -9654,10 +9649,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C146" s="6">
         <v>3</v>
@@ -9665,10 +9660,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C147" s="6">
         <v>5</v>
@@ -9676,10 +9671,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C148" s="6">
         <v>2</v>
@@ -9687,10 +9682,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C149" s="6">
         <v>1</v>
@@ -9698,10 +9693,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C150" s="6">
         <v>1</v>
@@ -9709,10 +9704,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C151" s="6">
         <v>15</v>
@@ -9720,10 +9715,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C152" s="6">
         <v>500</v>
@@ -9731,10 +9726,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C153" s="6">
         <v>350</v>
@@ -9742,10 +9737,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C154" s="6">
         <v>100</v>
@@ -9753,10 +9748,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C155" s="6">
         <v>200</v>
@@ -9764,10 +9759,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C156" s="6">
         <v>500</v>
@@ -9775,10 +9770,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C157" s="6">
         <v>150</v>
@@ -9786,10 +9781,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C158" s="6">
         <v>90</v>
@@ -9797,10 +9792,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C159" s="6">
         <v>100</v>
@@ -9808,10 +9803,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C160" s="6">
         <v>125</v>
@@ -9819,10 +9814,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C161" s="6">
         <v>85</v>
@@ -9830,10 +9825,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C162" s="6">
         <v>15</v>
@@ -9841,10 +9836,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C163" s="6">
         <v>6</v>
@@ -9852,10 +9847,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C164" s="6">
         <v>2</v>
@@ -9863,7 +9858,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>53</v>
@@ -9874,7 +9869,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>54</v>
@@ -9885,7 +9880,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>55</v>
@@ -9896,7 +9891,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>56</v>
@@ -9907,7 +9902,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>57</v>
@@ -9918,7 +9913,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>58</v>
@@ -9929,7 +9924,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>59</v>
@@ -9940,7 +9935,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>60</v>
@@ -9951,7 +9946,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>61</v>
@@ -9962,7 +9957,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>62</v>
@@ -9973,7 +9968,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>63</v>
@@ -9984,7 +9979,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>64</v>
@@ -9995,7 +9990,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>65</v>
@@ -10006,7 +10001,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>66</v>
@@ -10017,7 +10012,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>67</v>
@@ -10028,7 +10023,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>68</v>
@@ -10039,7 +10034,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>69</v>
@@ -10050,7 +10045,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>70</v>
@@ -10061,7 +10056,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>74</v>
@@ -10072,10 +10067,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C184" s="6">
         <v>60</v>
@@ -10083,10 +10078,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C185" s="6">
         <v>100</v>
@@ -10094,10 +10089,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C186" s="6">
         <v>3</v>
@@ -10105,10 +10100,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C187" s="6">
         <v>6</v>
@@ -10116,10 +10111,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C188" s="6">
         <v>2</v>
@@ -10127,10 +10122,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C189" s="6">
         <v>2</v>
@@ -10138,10 +10133,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C190" s="6">
         <v>10</v>
@@ -10149,10 +10144,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C191" s="6">
         <v>500</v>
@@ -10160,10 +10155,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C192" s="6">
         <v>500</v>
@@ -10171,10 +10166,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C193" s="6">
         <v>100</v>
@@ -10182,10 +10177,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C194" s="6">
         <v>80</v>
@@ -10193,10 +10188,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C195" s="6">
         <v>250</v>
@@ -10204,10 +10199,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C196" s="6">
         <v>50</v>
@@ -10215,10 +10210,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C197" s="6">
         <v>90</v>
@@ -10226,10 +10221,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C198" s="6">
         <v>200</v>
@@ -10237,10 +10232,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C199" s="6">
         <v>150</v>
@@ -10248,10 +10243,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C200" s="6">
         <v>60</v>
@@ -10259,10 +10254,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C201" s="6">
         <v>25</v>
@@ -10270,10 +10265,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C202" s="6">
         <v>10</v>
@@ -10281,10 +10276,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C203" s="6">
         <v>5</v>
@@ -10292,7 +10287,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>53</v>
@@ -10303,7 +10298,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>54</v>
@@ -10314,7 +10309,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>55</v>
@@ -10325,7 +10320,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>56</v>
@@ -10336,7 +10331,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>57</v>
@@ -10347,7 +10342,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>58</v>
@@ -10358,7 +10353,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>59</v>
@@ -10369,7 +10364,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>60</v>
@@ -10380,7 +10375,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>61</v>
@@ -10391,7 +10386,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>62</v>
@@ -10402,7 +10397,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>63</v>
@@ -10413,7 +10408,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>64</v>
@@ -10424,7 +10419,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>65</v>
@@ -10435,7 +10430,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>66</v>
@@ -10446,7 +10441,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>67</v>
@@ -10457,7 +10452,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>68</v>
@@ -10468,7 +10463,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>69</v>
@@ -10479,7 +10474,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>70</v>
@@ -10490,7 +10485,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>74</v>
@@ -10501,10 +10496,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C223" s="6">
         <v>80</v>
@@ -10512,10 +10507,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C224" s="6">
         <v>150</v>
@@ -10523,10 +10518,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C225" s="6">
         <v>5</v>
@@ -10534,10 +10529,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C226" s="6">
         <v>6</v>
@@ -10545,10 +10540,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C227" s="6">
         <v>3</v>
@@ -10556,10 +10551,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C228" s="6">
         <v>5</v>
@@ -10567,10 +10562,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C229" s="6">
         <v>2</v>
@@ -10578,10 +10573,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C230" s="6">
         <v>1</v>
@@ -10589,10 +10584,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C231" s="6">
         <v>1</v>
@@ -10600,10 +10595,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C232" s="6">
         <v>15</v>
@@ -10611,10 +10606,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C233" s="6">
         <v>500</v>
@@ -10622,10 +10617,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C234" s="6">
         <v>350</v>
@@ -10633,10 +10628,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C235" s="6">
         <v>100</v>
@@ -10644,10 +10639,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C236" s="6">
         <v>200</v>
@@ -10655,10 +10650,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C237" s="6">
         <v>500</v>
@@ -10666,10 +10661,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C238" s="6">
         <v>150</v>
@@ -10677,10 +10672,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C239" s="6">
         <v>90</v>
@@ -10688,10 +10683,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C240" s="6">
         <v>100</v>
@@ -10699,10 +10694,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C241" s="6">
         <v>125</v>
@@ -10710,10 +10705,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C242" s="6">
         <v>85</v>
@@ -10721,10 +10716,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C243" s="6">
         <v>15</v>
@@ -10732,10 +10727,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C244" s="6">
         <v>6</v>
@@ -10743,10 +10738,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C245" s="6">
         <v>2</v>
@@ -10754,10 +10749,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C246" s="6">
         <v>1</v>
@@ -10765,7 +10760,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>53</v>
@@ -10776,7 +10771,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>54</v>
@@ -10787,7 +10782,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>55</v>
@@ -10798,7 +10793,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>56</v>
@@ -10809,7 +10804,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>57</v>
@@ -10820,7 +10815,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>58</v>
@@ -10831,7 +10826,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>59</v>
@@ -10842,7 +10837,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>60</v>
@@ -10853,7 +10848,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>61</v>
@@ -10864,7 +10859,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>62</v>
@@ -10875,7 +10870,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>63</v>
@@ -10886,7 +10881,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>64</v>
@@ -10897,7 +10892,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>65</v>
@@ -10908,7 +10903,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>66</v>
@@ -10919,7 +10914,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>67</v>
@@ -10930,7 +10925,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>68</v>
@@ -10941,7 +10936,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>69</v>
@@ -10952,7 +10947,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>70</v>
@@ -10963,7 +10958,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>74</v>
@@ -10974,10 +10969,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C266" s="6">
         <v>60</v>
@@ -10985,10 +10980,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C267" s="6">
         <v>100</v>
@@ -10996,10 +10991,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C268" s="6">
         <v>3</v>
@@ -11007,10 +11002,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C269" s="6">
         <v>6</v>
@@ -11018,10 +11013,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C270" s="6">
         <v>2</v>
@@ -11029,10 +11024,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C271" s="6">
         <v>2</v>
@@ -11040,10 +11035,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C272" s="6">
         <v>10</v>
@@ -11051,10 +11046,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C273" s="6">
         <v>500</v>
@@ -11062,10 +11057,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C274" s="6">
         <v>500</v>
@@ -11073,10 +11068,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C275" s="6">
         <v>100</v>
@@ -11084,10 +11079,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C276" s="6">
         <v>80</v>
@@ -11095,10 +11090,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C277" s="6">
         <v>250</v>
@@ -11106,10 +11101,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C278" s="6">
         <v>50</v>
@@ -11117,10 +11112,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C279" s="6">
         <v>90</v>
@@ -11128,10 +11123,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C280" s="6">
         <v>200</v>
@@ -11139,10 +11134,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C281" s="6">
         <v>150</v>
@@ -11150,10 +11145,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C282" s="6">
         <v>60</v>
@@ -11161,10 +11156,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C283" s="6">
         <v>25</v>
@@ -11172,10 +11167,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C284" s="6">
         <v>10</v>
@@ -11183,10 +11178,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C285" s="6">
         <v>5</v>
@@ -11194,7 +11189,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>53</v>
@@ -11205,7 +11200,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>54</v>
@@ -11216,7 +11211,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>55</v>
@@ -11227,7 +11222,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>56</v>
@@ -11238,7 +11233,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>57</v>
@@ -11249,7 +11244,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>58</v>
@@ -11260,7 +11255,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>59</v>
@@ -11271,7 +11266,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>60</v>
@@ -11282,7 +11277,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>61</v>
@@ -11293,7 +11288,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>62</v>
@@ -11304,7 +11299,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>63</v>
@@ -11315,7 +11310,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>64</v>
@@ -11326,7 +11321,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>65</v>
@@ -11337,7 +11332,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>66</v>
@@ -11348,7 +11343,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>67</v>
@@ -11359,7 +11354,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>68</v>
@@ -11370,7 +11365,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>69</v>
@@ -11381,7 +11376,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>70</v>
@@ -11392,7 +11387,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>74</v>
@@ -11403,10 +11398,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C305" s="6">
         <v>80</v>
@@ -11414,10 +11409,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C306" s="6">
         <v>150</v>
@@ -11425,10 +11420,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C307" s="6">
         <v>5</v>
@@ -11436,10 +11431,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C308" s="6">
         <v>6</v>
@@ -11447,10 +11442,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C309" s="6">
         <v>3</v>
@@ -11458,10 +11453,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C310" s="6">
         <v>5</v>
@@ -11469,10 +11464,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C311" s="6">
         <v>2</v>
@@ -11480,10 +11475,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C312" s="6">
         <v>1</v>
@@ -11491,10 +11486,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C313" s="6">
         <v>1</v>
@@ -11502,10 +11497,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C314" s="6">
         <v>15</v>
@@ -11513,10 +11508,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C315" s="6">
         <v>500</v>
@@ -11524,10 +11519,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C316" s="6">
         <v>350</v>
@@ -11535,10 +11530,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C317" s="6">
         <v>100</v>
@@ -11546,10 +11541,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C318" s="6">
         <v>200</v>
@@ -11557,10 +11552,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C319" s="6">
         <v>500</v>
@@ -11568,10 +11563,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C320" s="6">
         <v>150</v>
@@ -11579,10 +11574,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C321" s="6">
         <v>90</v>
@@ -11590,10 +11585,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C322" s="6">
         <v>100</v>
@@ -11601,10 +11596,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C323" s="6">
         <v>125</v>
@@ -11612,10 +11607,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C324" s="6">
         <v>85</v>
@@ -11623,10 +11618,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C325" s="6">
         <v>15</v>
@@ -11634,10 +11629,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C326" s="6">
         <v>6</v>
@@ -11645,10 +11640,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C327" s="6">
         <v>2</v>
@@ -11656,7 +11651,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>53</v>
@@ -11667,7 +11662,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>54</v>
@@ -11678,7 +11673,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>55</v>
@@ -11689,7 +11684,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>56</v>
@@ -11700,7 +11695,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>57</v>
@@ -11711,7 +11706,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>58</v>
@@ -11722,7 +11717,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>59</v>
@@ -11733,7 +11728,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>60</v>
@@ -11744,7 +11739,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>61</v>
@@ -11755,7 +11750,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>62</v>
@@ -11766,7 +11761,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>63</v>
@@ -11777,7 +11772,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>64</v>
@@ -11788,7 +11783,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>65</v>
@@ -11799,7 +11794,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>66</v>
@@ -11810,7 +11805,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>67</v>
@@ -11821,7 +11816,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>68</v>
@@ -11832,7 +11827,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>69</v>
@@ -11843,7 +11838,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>70</v>
@@ -11854,7 +11849,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>74</v>
@@ -11865,10 +11860,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C347" s="6">
         <v>60</v>
@@ -11876,10 +11871,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C348" s="6">
         <v>100</v>
@@ -11887,10 +11882,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C349" s="6">
         <v>3</v>
@@ -11898,10 +11893,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C350" s="6">
         <v>6</v>
@@ -11909,10 +11904,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C351" s="6">
         <v>2</v>
@@ -11920,10 +11915,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C352" s="6">
         <v>2</v>
@@ -11931,10 +11926,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C353" s="6">
         <v>10</v>
@@ -11942,10 +11937,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C354" s="6">
         <v>500</v>
@@ -11953,10 +11948,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C355" s="6">
         <v>500</v>
@@ -11964,10 +11959,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C356" s="6">
         <v>100</v>
@@ -11975,10 +11970,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C357" s="6">
         <v>80</v>
@@ -11986,10 +11981,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C358" s="6">
         <v>250</v>
@@ -11997,10 +11992,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C359" s="6">
         <v>50</v>
@@ -12008,10 +12003,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C360" s="6">
         <v>90</v>
@@ -12019,10 +12014,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C361" s="6">
         <v>200</v>
@@ -12030,10 +12025,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C362" s="6">
         <v>150</v>
@@ -12041,10 +12036,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C363" s="6">
         <v>60</v>
@@ -12052,10 +12047,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C364" s="6">
         <v>25</v>
@@ -12063,10 +12058,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C365" s="6">
         <v>10</v>
@@ -12074,10 +12069,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C366" s="6">
         <v>5</v>
@@ -12095,9 +12090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E64E3-2EEF-4D35-A877-B30CDD63B6A3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12108,13 +12101,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="C1" s="16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12122,7 +12115,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="38">
         <v>15</v>
@@ -12133,7 +12126,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="38">
         <v>20</v>
@@ -12144,7 +12137,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="38">
         <v>12</v>
@@ -12155,7 +12148,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="38">
         <v>5</v>
@@ -12166,7 +12159,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="38">
         <v>25</v>
@@ -12177,7 +12170,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="38">
         <v>25</v>
@@ -12188,7 +12181,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="38">
         <v>5</v>
@@ -12199,7 +12192,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="38">
         <v>15</v>
@@ -12210,7 +12203,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="38">
         <v>5</v>
@@ -12226,7 +12219,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12238,13 +12231,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>86</v>
+        <v>470</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12252,7 +12245,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C2" s="39">
         <v>0.05</v>
@@ -12263,7 +12256,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C3" s="39">
         <v>0.05</v>
@@ -12274,7 +12267,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C4" s="39">
         <v>0.25</v>
@@ -12285,7 +12278,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C5" s="39">
         <v>0.25</v>
@@ -12296,7 +12289,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C6" s="39">
         <v>0.15</v>
@@ -12307,7 +12300,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="39">
         <v>0.05</v>
@@ -12318,7 +12311,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="39">
         <v>0.05</v>
@@ -12329,7 +12322,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C9" s="39">
         <v>0.05</v>
@@ -12340,7 +12333,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C10" s="39">
         <v>0.05</v>
@@ -12351,7 +12344,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="39">
         <v>0.05</v>
@@ -12359,10 +12352,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C12" s="39">
         <v>0.25</v>
@@ -12370,10 +12363,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C13" s="39">
         <v>0.05</v>
@@ -12381,10 +12374,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C14" s="39">
         <v>0.75</v>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26280E00-886B-469E-A41D-2A267316B0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C60DF4-B9E5-4E99-A18A-648BCB8A0CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="2" activeTab="16" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="553">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -1691,6 +1691,24 @@
   </si>
   <si>
     <t>BasePay/Day</t>
+  </si>
+  <si>
+    <t>Z009</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>J013</t>
+  </si>
+  <si>
+    <t>J014</t>
+  </si>
+  <si>
+    <t>Ammunition Engineer</t>
+  </si>
+  <si>
+    <t>Doctor</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1791,6 +1809,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2107,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2833,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,6 +2965,17 @@
       </c>
       <c r="C9" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="44">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC78BBBC-3DC7-4F60-A6BC-8C44646036BA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -3083,7 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4799,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72622FA-2519-49BE-9216-E94A2E26FE23}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -5785,16 +5818,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C96AD8-5FEE-4D92-9967-E5EA988D7B27}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5939,6 +5972,28 @@
       </c>
       <c r="C13" s="32">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="46">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5952,7 +6007,7 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7274,7 +7329,7 @@
         <v>198</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>51</v>
+        <v>549</v>
       </c>
       <c r="C120" s="30">
         <v>8</v>
@@ -7285,10 +7340,10 @@
         <v>316</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>33</v>
+        <v>550</v>
       </c>
       <c r="C121" s="30">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4CBD2-CC6C-40A9-A83C-8F4B1B3234E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE1A53-4DE9-462E-A541-9A739584A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="5" activeTab="5" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,7 +2827,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +2905,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H1" sqref="H1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,6 +2916,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,7 +3260,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,7 +7565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C0820-B2DD-4CBE-A94B-B515E7AA03B9}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AE1A53-4DE9-462E-A541-9A739584A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27DCBA-DEEA-451A-A550-6D84D61B43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="18075" yWindow="2895" windowWidth="6930" windowHeight="11835" firstSheet="5" activeTab="5" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Vehicles" sheetId="9" r:id="rId10"/>
     <sheet name="Medicine" sheetId="14" r:id="rId11"/>
     <sheet name="Housing" sheetId="10" r:id="rId12"/>
-    <sheet name="Transactions" sheetId="12" r:id="rId13"/>
+    <sheet name="Transaction" sheetId="12" r:id="rId13"/>
     <sheet name="TransactionDetails" sheetId="15" r:id="rId14"/>
     <sheet name="Zombies" sheetId="13" r:id="rId15"/>
     <sheet name="Missions" sheetId="18" r:id="rId16"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="602">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -1838,6 +1838,24 @@
   </si>
   <si>
     <t>InvPrice</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Per Round</t>
+  </si>
+  <si>
+    <t>Per Pack</t>
+  </si>
+  <si>
+    <t>Pack</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1942,6 +1960,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2258,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2827,7 +2846,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,19 +2921,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BE864-610B-4211-BA0B-18B272702EA2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
@@ -2923,20 +2943,20 @@
       <c r="A1" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>430</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>446</v>
@@ -2949,14 +2969,14 @@
       <c r="B2" t="s">
         <v>594</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>555</v>
+      <c r="C2" t="s">
+        <v>594</v>
       </c>
       <c r="D2" t="s">
         <v>594</v>
       </c>
-      <c r="E2" t="s">
-        <v>594</v>
+      <c r="E2" s="46" t="s">
+        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>594</v>
@@ -2969,8 +2989,8 @@
       <c r="A3" t="s">
         <v>506</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>542</v>
+      <c r="B3" t="s">
+        <v>594</v>
       </c>
       <c r="C3" t="s">
         <v>594</v>
@@ -2981,8 +3001,8 @@
       <c r="E3" t="s">
         <v>594</v>
       </c>
-      <c r="F3" t="s">
-        <v>594</v>
+      <c r="F3" s="46" t="s">
+        <v>542</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2993,13 +3013,13 @@
         <v>506</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C4" t="s">
         <v>594</v>
       </c>
       <c r="D4" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="E4" t="s">
         <v>594</v>
@@ -3015,14 +3035,14 @@
       <c r="A5" t="s">
         <v>507</v>
       </c>
-      <c r="B5" t="s">
-        <v>594</v>
+      <c r="B5" s="46" t="s">
+        <v>566</v>
       </c>
       <c r="C5" t="s">
         <v>594</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>566</v>
+      <c r="D5" t="s">
+        <v>594</v>
       </c>
       <c r="E5" t="s">
         <v>594</v>
@@ -3044,17 +3064,22 @@
       <c r="C6" t="s">
         <v>594</v>
       </c>
-      <c r="D6" t="s">
-        <v>594</v>
+      <c r="D6" s="46" t="s">
+        <v>580</v>
       </c>
       <c r="E6" t="s">
         <v>594</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>580</v>
+      <c r="F6" t="s">
+        <v>594</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="47" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -7563,18 +7588,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C0820-B2DD-4CBE-A94B-B515E7AA03B9}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>520</v>
       </c>
@@ -7584,172 +7612,274 @@
       <c r="C1" s="40" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="C2" s="45"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="D3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>528</v>
       </c>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="45"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="44">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="45"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="44">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="44">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="C14" s="45"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="44">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="45"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="44">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="45"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="44">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="44">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="44">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="44">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>540</v>
+      </c>
+      <c r="C20" s="44">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -10174,7 +10304,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27DCBA-DEEA-451A-A550-6D84D61B43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B127305-886A-47F2-8320-86606C7794A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18075" yWindow="2895" windowWidth="6930" windowHeight="11835" firstSheet="5" activeTab="5" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Weapons" sheetId="7" r:id="rId8"/>
     <sheet name="Foods" sheetId="8" r:id="rId9"/>
     <sheet name="Vehicles" sheetId="9" r:id="rId10"/>
-    <sheet name="Medicine" sheetId="14" r:id="rId11"/>
-    <sheet name="Housing" sheetId="10" r:id="rId12"/>
+    <sheet name="Misc" sheetId="10" r:id="rId11"/>
+    <sheet name="Medicine" sheetId="14" r:id="rId12"/>
     <sheet name="Transaction" sheetId="12" r:id="rId13"/>
     <sheet name="TransactionDetails" sheetId="15" r:id="rId14"/>
     <sheet name="Zombies" sheetId="13" r:id="rId15"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="621">
   <si>
     <t>Saint Cloud Jail</t>
   </si>
@@ -1309,54 +1309,21 @@
     <t>Boat</t>
   </si>
   <si>
-    <t>Antibiotics</t>
-  </si>
-  <si>
-    <t>Tylenol</t>
-  </si>
-  <si>
     <t>Syringes</t>
   </si>
   <si>
     <t>Gause</t>
   </si>
   <si>
-    <t>Band-Aids</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
     <t>Tournequet</t>
   </si>
   <si>
     <t>Stitches</t>
   </si>
   <si>
-    <t>Hydrogen Peroxide</t>
-  </si>
-  <si>
-    <t>Cough Syrup</t>
-  </si>
-  <si>
     <t>MedicineID</t>
   </si>
   <si>
-    <t>HousingID</t>
-  </si>
-  <si>
-    <t>HousingDescription</t>
-  </si>
-  <si>
-    <t>Tent</t>
-  </si>
-  <si>
-    <t>Camper</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
     <t>Prison</t>
   </si>
   <si>
@@ -1408,9 +1375,6 @@
     <t>MedicinePrice</t>
   </si>
   <si>
-    <t>HousingPrice</t>
-  </si>
-  <si>
     <t>TransTimeStamp</t>
   </si>
   <si>
@@ -1792,18 +1756,6 @@
     <t>M0010</t>
   </si>
   <si>
-    <t>H0001</t>
-  </si>
-  <si>
-    <t>H0002</t>
-  </si>
-  <si>
-    <t>H0003</t>
-  </si>
-  <si>
-    <t>H0004</t>
-  </si>
-  <si>
     <t>S0010</t>
   </si>
   <si>
@@ -1855,19 +1807,125 @@
     <t>Per Pack</t>
   </si>
   <si>
-    <t>Pack</t>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>TypeOfHousing</t>
+  </si>
+  <si>
+    <t>Dorms</t>
+  </si>
+  <si>
+    <t>Tents</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>MiscID</t>
+  </si>
+  <si>
+    <t>MiscDescription</t>
+  </si>
+  <si>
+    <t>M0011</t>
+  </si>
+  <si>
+    <t>F0014</t>
+  </si>
+  <si>
+    <t>F0015</t>
+  </si>
+  <si>
+    <t>PayPerPerson</t>
+  </si>
+  <si>
+    <t>Armory Tent</t>
+  </si>
+  <si>
+    <t>Food Tent</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Medical Tent</t>
+  </si>
+  <si>
+    <t>MI0001</t>
+  </si>
+  <si>
+    <t>MI0002</t>
+  </si>
+  <si>
+    <t>MI0003</t>
+  </si>
+  <si>
+    <t>MI0004</t>
+  </si>
+  <si>
+    <t>MI0005</t>
+  </si>
+  <si>
+    <t>MI0006</t>
+  </si>
+  <si>
+    <t>MI0007</t>
+  </si>
+  <si>
+    <t>MI0008</t>
+  </si>
+  <si>
+    <t>MI0009</t>
+  </si>
+  <si>
+    <t>MI0010</t>
+  </si>
+  <si>
+    <t>MI0011</t>
+  </si>
+  <si>
+    <t>MI0012</t>
+  </si>
+  <si>
+    <t>MI0013</t>
+  </si>
+  <si>
+    <t>MI0014</t>
+  </si>
+  <si>
+    <t>Bottle of Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>Bottle of Cough Syrup</t>
+  </si>
+  <si>
+    <t>Cup of Sugar</t>
+  </si>
+  <si>
+    <t>Bottle of Antibiotics</t>
+  </si>
+  <si>
+    <t>Bottle of Tylenol</t>
+  </si>
+  <si>
+    <t>AmountOfMoney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1941,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1907,10 +1972,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1961,8 +2027,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2275,10 +2344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9221AE8C-B15A-49F6-9C79-44BEB4829E0A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,22 +2355,26 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>404</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>397</v>
@@ -2309,10 +2382,13 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -2320,10 +2396,13 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2331,10 +2410,13 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>398</v>
@@ -2342,10 +2424,13 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
         <v>399</v>
@@ -2353,10 +2438,13 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>400</v>
@@ -2364,10 +2452,13 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>401</v>
@@ -2375,10 +2466,13 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>402</v>
@@ -2386,16 +2480,22 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>403</v>
       </c>
       <c r="C10">
         <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2509,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,12 +2527,18 @@
         <v>410</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>450</v>
+        <v>439</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>411</v>
@@ -2440,10 +2546,16 @@
       <c r="C2" s="33">
         <v>30</v>
       </c>
+      <c r="D2" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>412</v>
@@ -2451,10 +2563,16 @@
       <c r="C3" s="33">
         <v>80</v>
       </c>
+      <c r="D3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>413</v>
@@ -2462,10 +2580,16 @@
       <c r="C4" s="33">
         <v>15</v>
       </c>
+      <c r="D4" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>414</v>
@@ -2473,10 +2597,16 @@
       <c r="C5" s="33">
         <v>100</v>
       </c>
+      <c r="D5" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>415</v>
@@ -2484,10 +2614,16 @@
       <c r="C6" s="33">
         <v>120</v>
       </c>
+      <c r="D6" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>416</v>
@@ -2495,10 +2631,16 @@
       <c r="C7" s="33">
         <v>200</v>
       </c>
+      <c r="D7" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>417</v>
@@ -2506,10 +2648,16 @@
       <c r="C8" s="33">
         <v>76</v>
       </c>
+      <c r="D8" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>418</v>
@@ -2517,21 +2665,29 @@
       <c r="C9" s="33">
         <v>60</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C10" s="33">
         <v>60</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="E10" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
@@ -2568,180 +2724,321 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" s="33">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="F7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" s="44">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="33">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="D10" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="44">
+        <v>8</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="44">
+        <v>8</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E12" t="s">
+        <v>597</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="44">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="33">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>577</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="D13" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E13" t="s">
+        <v>599</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>579</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="33">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D14" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E14" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" s="44">
+        <v>8</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="E15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2750,90 +3047,265 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F5377-2F06-4DE1-B5DC-B8DE28DFA4B2}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E99020-1F38-4EF4-9B42-42A68598E204}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>432</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>618</v>
       </c>
       <c r="C2" s="33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>433</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>619</v>
       </c>
       <c r="C3" s="33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.15</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>434</v>
+        <v>560</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="C4" s="33">
+        <v>2</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C10" s="33">
+        <v>3</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E10">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>583</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" s="33">
+        <v>4.25</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="44">
+        <v>5</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="46"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2846,7 +3318,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,21 +3331,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>2</v>
@@ -2887,7 +3359,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
@@ -2901,7 +3373,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>14</v>
@@ -2923,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292BE864-610B-4211-BA0B-18B272702EA2}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,54 +3404,54 @@
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>409</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="E1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>64</v>
       </c>
+      <c r="F1" s="40" t="s">
+        <v>591</v>
+      </c>
       <c r="G1" s="24" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>555</v>
+        <v>578</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>578</v>
       </c>
       <c r="F2" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2987,22 +3459,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>542</v>
+        <v>578</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="F3" t="s">
+        <v>578</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3010,22 +3482,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D4" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3033,22 +3505,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E5" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3056,22 +3528,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>580</v>
+        <v>578</v>
+      </c>
+      <c r="D6" t="s">
+        <v>578</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F6" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3079,7 +3551,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="47" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -3091,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CEEFC2-0361-4996-BE36-03671B1012D4}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,21 +3576,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C2" s="4">
         <v>0.1</v>
@@ -3126,10 +3598,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C3" s="4">
         <v>0.1</v>
@@ -3137,10 +3609,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C4" s="4">
         <v>0.25</v>
@@ -3148,10 +3620,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C5" s="4">
         <v>0.25</v>
@@ -3159,10 +3631,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C6" s="4">
         <v>0.3</v>
@@ -3170,10 +3642,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C7" s="4">
         <v>0.3</v>
@@ -3181,10 +3653,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C8" s="4">
         <v>0.5</v>
@@ -3192,10 +3664,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3203,10 +3675,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C10" s="42">
         <v>1.25</v>
@@ -3220,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC63D1C-58DF-4250-AF23-56F2205E3F0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,48 +3703,58 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B2" s="37">
         <v>45961</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="E2" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B3" s="37">
         <v>45962</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>516</v>
+        <v>504</v>
+      </c>
+      <c r="E3" s="44">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3296,10 +3778,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3789,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,7 +3797,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3805,7 @@
         <v>146</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3339,7 +3821,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -3349,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,23 +3843,27 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3390,8 +3876,11 @@
       <c r="D2" s="1">
         <v>32885</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="49">
+        <v>38.699953244937603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3404,8 +3893,11 @@
       <c r="D3" s="1">
         <v>29507</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="48">
+        <v>95.014787829869036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3418,8 +3910,11 @@
       <c r="D4" s="1">
         <v>32887</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="48">
+        <v>26.701414704121181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3432,8 +3927,11 @@
       <c r="D5" s="1">
         <v>33202</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="48">
+        <v>19.344929016518531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3446,8 +3944,11 @@
       <c r="D6" s="1">
         <v>28789</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="48">
+        <v>27.591795946953432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3460,8 +3961,11 @@
       <c r="D7" s="1">
         <v>32890</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="48">
+        <v>22.985126979242132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3474,8 +3978,11 @@
       <c r="D8" s="1">
         <v>25890</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="48">
+        <v>46.267581037735134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3488,8 +3995,11 @@
       <c r="D9" s="1">
         <v>32892</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="48">
+        <v>98.383502747147361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3502,8 +4012,11 @@
       <c r="D10" s="1">
         <v>29514</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="48">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3516,8 +4029,11 @@
       <c r="D11" s="1">
         <v>32894</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="48">
+        <v>17.005732136353732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -3530,8 +4046,11 @@
       <c r="D12" s="1">
         <v>25590</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="48">
+        <v>91.598790576297745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3544,8 +4063,11 @@
       <c r="D13" s="1">
         <v>34265</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="48">
+        <v>66.787212489698419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3558,8 +4080,11 @@
       <c r="D14" s="1">
         <v>26200</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="48">
+        <v>10.070253280571938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3572,8 +4097,11 @@
       <c r="D15" s="1">
         <v>33897</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="48">
+        <v>47.612208675066412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3586,8 +4114,11 @@
       <c r="D16" s="1">
         <v>32838</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="48">
+        <v>58.629626067914039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3600,8 +4131,11 @@
       <c r="D17" s="1">
         <v>32900</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="48">
+        <v>31.125249557926484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3614,8 +4148,11 @@
       <c r="D18" s="1">
         <v>33158</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="48">
+        <v>77.513478215721392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -3628,8 +4165,11 @@
       <c r="D19" s="1">
         <v>32810</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="48">
+        <v>84.611799216196616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -3642,8 +4182,11 @@
       <c r="D20" s="1">
         <v>33176</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="48">
+        <v>83.359105126166455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -3656,8 +4199,11 @@
       <c r="D21" s="1">
         <v>32904</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="48">
+        <v>78.175747152132942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -3670,8 +4216,11 @@
       <c r="D22" s="1">
         <v>33086</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="48">
+        <v>41.261059911773806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -3684,8 +4233,11 @@
       <c r="D23" s="1">
         <v>32906</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="48">
+        <v>50.011189847426522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3698,8 +4250,11 @@
       <c r="D24" s="1">
         <v>33210</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="48">
+        <v>97.063699036865174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -3712,8 +4267,11 @@
       <c r="D25" s="1">
         <v>32908</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="48">
+        <v>33.162506293929397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3726,8 +4284,11 @@
       <c r="D26" s="1">
         <v>28891</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="48">
+        <v>71.824985741114077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -3740,8 +4301,11 @@
       <c r="D27" s="1">
         <v>32910</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="48">
+        <v>82.700469873631732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -3754,8 +4318,11 @@
       <c r="D28" s="1">
         <v>32393</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="48">
+        <v>63.754463953657861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -3768,8 +4335,11 @@
       <c r="D29" s="1">
         <v>32547</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="48">
+        <v>56.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -3782,8 +4352,11 @@
       <c r="D30" s="1">
         <v>28530</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="48">
+        <v>39.125641127792996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -3796,8 +4369,11 @@
       <c r="D31" s="1">
         <v>25609</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="48">
+        <v>31.1246731448426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -3810,8 +4386,11 @@
       <c r="D32" s="1">
         <v>32915</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="48">
+        <v>79.872250045432239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3824,8 +4403,11 @@
       <c r="D33" s="1">
         <v>29263</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="48">
+        <v>13.320302941211036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -3838,8 +4420,11 @@
       <c r="D34" s="1">
         <v>32917</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="48">
+        <v>39.657844487112001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -3852,8 +4437,11 @@
       <c r="D35" s="1">
         <v>32946</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="48">
+        <v>89.952007947773311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -3866,8 +4454,11 @@
       <c r="D36" s="1">
         <v>33709</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="48">
+        <v>28.463829439590192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -3880,8 +4471,11 @@
       <c r="D37" s="1">
         <v>33009</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="48">
+        <v>32.644356326502312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -3894,8 +4488,11 @@
       <c r="D38" s="1">
         <v>33071</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="48">
+        <v>98.708021741940314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -3908,8 +4505,11 @@
       <c r="D39" s="1">
         <v>33468</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="48">
+        <v>54.669464006773516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -3922,8 +4522,11 @@
       <c r="D40" s="1">
         <v>33073</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="48">
+        <v>43.123935009628219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>108</v>
       </c>
@@ -3936,8 +4539,11 @@
       <c r="D41" s="1">
         <v>33197</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="48">
+        <v>65.710126085194602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -3950,8 +4556,11 @@
       <c r="D42" s="1">
         <v>33898</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="48">
+        <v>42.218106357002561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3964,8 +4573,11 @@
       <c r="D43" s="1">
         <v>32926</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="48">
+        <v>71.084166858185654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -3978,8 +4590,11 @@
       <c r="D44" s="1">
         <v>33077</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="48">
+        <v>85.44513890730201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -3992,8 +4607,11 @@
       <c r="D45" s="1">
         <v>32928</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="48">
+        <v>82.970725090903585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -4006,8 +4624,11 @@
       <c r="D46" s="1">
         <v>33232</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="48">
+        <v>24.408852251658846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -4020,8 +4641,11 @@
       <c r="D47" s="1">
         <v>32930</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="48">
+        <v>11.959979922702969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -4034,8 +4658,11 @@
       <c r="D48" s="1">
         <v>32931</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="48">
+        <v>60.65300837177498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -4048,8 +4675,11 @@
       <c r="D49" s="1">
         <v>32932</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="48">
+        <v>68.428757469177711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -4062,8 +4692,11 @@
       <c r="D50" s="1">
         <v>32933</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="48">
+        <v>22.72778965923591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -4076,8 +4709,11 @@
       <c r="D51" s="1">
         <v>32934</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="48">
+        <v>29.737485516709754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -4090,8 +4726,11 @@
       <c r="D52" s="1">
         <v>32935</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="48">
+        <v>80.573689360416083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -4104,8 +4743,11 @@
       <c r="D53" s="1">
         <v>32936</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="48">
+        <v>57.698158906883805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -4118,8 +4760,11 @@
       <c r="D54" s="1">
         <v>32937</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="48">
+        <v>58.302213288192995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -4132,8 +4777,11 @@
       <c r="D55" s="1">
         <v>32938</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="48">
+        <v>45.725501107918078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -4146,8 +4794,11 @@
       <c r="D56" s="1">
         <v>32939</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="48">
+        <v>12.232193190217698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -4160,8 +4811,11 @@
       <c r="D57" s="1">
         <v>32940</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="48">
+        <v>24.269515667946916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -4174,8 +4828,11 @@
       <c r="D58" s="1">
         <v>32941</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="48">
+        <v>87.723883070565776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -4188,8 +4845,11 @@
       <c r="D59" s="1">
         <v>32942</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="48">
+        <v>14.893547065334353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -4202,8 +4862,11 @@
       <c r="D60" s="1">
         <v>33492</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="48">
+        <v>29.433425938351956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -4216,8 +4879,11 @@
       <c r="D61" s="1">
         <v>32944</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="48">
+        <v>83.012018271907394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -4230,8 +4896,11 @@
       <c r="D62" s="1">
         <v>32945</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="48">
+        <v>36.69528018068582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -4244,8 +4913,11 @@
       <c r="D63" s="1">
         <v>32946</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="48">
+        <v>54.565329643063343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -4258,8 +4930,11 @@
       <c r="D64" s="1">
         <v>32947</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="48">
+        <v>23.555970328351535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -4272,8 +4947,11 @@
       <c r="D65" s="1">
         <v>32583</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="48">
+        <v>27.438944498035742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -4286,8 +4964,11 @@
       <c r="D66" s="1">
         <v>32219</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="48">
+        <v>87.902671024440593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -4300,8 +4981,11 @@
       <c r="D67" s="1">
         <v>33315</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="48">
+        <v>19.136172642844709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -4314,8 +4998,11 @@
       <c r="D68" s="1">
         <v>33682</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="48">
+        <v>40.925994138682945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -4328,8 +5015,11 @@
       <c r="D69" s="1">
         <v>32952</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="48">
+        <v>18.88803493398834</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -4342,8 +5032,11 @@
       <c r="D70" s="1">
         <v>34414</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="48">
+        <v>78.299309493636031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -4356,8 +5049,11 @@
       <c r="D71" s="1">
         <v>34050</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="48">
+        <v>80.535841790514112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -4370,8 +5066,11 @@
       <c r="D72" s="1">
         <v>33686</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="48">
+        <v>7.3141193745137834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -4384,8 +5083,11 @@
       <c r="D73" s="1">
         <v>33321</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="48">
+        <v>91.885028075591137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -4398,8 +5100,11 @@
       <c r="D74" s="1">
         <v>34418</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="48">
+        <v>80.910932395945608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -4412,8 +5117,11 @@
       <c r="D75" s="1">
         <v>34054</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="48">
+        <v>62.814128742891569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -4426,8 +5134,11 @@
       <c r="D76" s="1">
         <v>25654</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="48">
+        <v>5.4835290082391683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -4440,8 +5151,11 @@
       <c r="D77" s="1">
         <v>27847</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="48">
+        <v>45.25795374947436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -4454,8 +5168,11 @@
       <c r="D78" s="1">
         <v>28578</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="48">
+        <v>63.052340190233203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -4468,8 +5185,11 @@
       <c r="D79" s="1">
         <v>34058</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="48">
+        <v>28.110810815973949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -4482,8 +5202,11 @@
       <c r="D80" s="1">
         <v>29311</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="48">
+        <v>98.199881815822707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -4496,8 +5219,11 @@
       <c r="D81" s="1">
         <v>26755</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="48">
+        <v>26.534237574410621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -4510,8 +5236,11 @@
       <c r="D82" s="1">
         <v>32691</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="48">
+        <v>77.262919633704101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -4524,8 +5253,11 @@
       <c r="D83" s="1">
         <v>30775</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="48">
+        <v>53.264182055697695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -4538,8 +5270,11 @@
       <c r="D84" s="1">
         <v>31141</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="48">
+        <v>14.17526749643298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -4552,8 +5287,11 @@
       <c r="D85" s="1">
         <v>31507</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="48">
+        <v>17.715625720466441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -4566,8 +5304,11 @@
       <c r="D86" s="1">
         <v>32269</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="48">
+        <v>54.596376531893029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>154</v>
       </c>
@@ -4580,8 +5321,11 @@
       <c r="D87" s="1">
         <v>32605</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="48">
+        <v>84.177488469818115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -4594,8 +5338,11 @@
       <c r="D88" s="1">
         <v>32241</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="48">
+        <v>44.41560993131629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -4608,8 +5355,11 @@
       <c r="D89" s="1">
         <v>32607</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="48">
+        <v>43.54466577127333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>157</v>
       </c>
@@ -4622,8 +5372,11 @@
       <c r="D90" s="1">
         <v>26033</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="48">
+        <v>79.521766095965489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -4636,8 +5389,11 @@
       <c r="D91" s="1">
         <v>25669</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="48">
+        <v>94.590790477820505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>159</v>
       </c>
@@ -4650,8 +5406,11 @@
       <c r="D92" s="1">
         <v>30053</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="48">
+        <v>12.770066235419845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -4664,8 +5423,11 @@
       <c r="D93" s="1">
         <v>25306</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="48">
+        <v>89.718790525645005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>161</v>
       </c>
@@ -4678,8 +5440,11 @@
       <c r="D94" s="1">
         <v>33708</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="48">
+        <v>60.437226198391514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>162</v>
       </c>
@@ -4692,8 +5457,11 @@
       <c r="D95" s="1">
         <v>28595</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="48">
+        <v>33.792465739652506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -4706,8 +5474,11 @@
       <c r="D96" s="1">
         <v>26770</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="48">
+        <v>45.996169876310368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -4720,8 +5491,11 @@
       <c r="D97" s="1">
         <v>32250</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="48">
+        <v>69.20477410624423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -4734,8 +5508,11 @@
       <c r="D98" s="1">
         <v>28233</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="48">
+        <v>72.391897150434829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -4748,8 +5525,11 @@
       <c r="D99" s="1">
         <v>25312</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="48">
+        <v>14.801801540308702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -4762,8 +5542,11 @@
       <c r="D100" s="1">
         <v>32618</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="48">
+        <v>19.056888645934531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -4776,8 +5559,11 @@
       <c r="D101" s="1">
         <v>31888</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="48">
+        <v>56.045526028935797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -4790,8 +5576,11 @@
       <c r="D102" s="1">
         <v>28602</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="48">
+        <v>47.333943665201609</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -4804,8 +5593,11 @@
       <c r="D103" s="1">
         <v>25681</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="48">
+        <v>91.471330547825559</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -4818,8 +5610,11 @@
       <c r="D104" s="1">
         <v>28239</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="48">
+        <v>11.597423925280189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -4832,8 +5627,11 @@
       <c r="D105" s="1">
         <v>32623</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="48">
+        <v>16.695815356159493</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -4846,8 +5644,11 @@
       <c r="D106" s="1">
         <v>31893</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="48">
+        <v>49.368651162460203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -4860,8 +5661,11 @@
       <c r="D107" s="1">
         <v>31529</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="48">
+        <v>83.669161535373277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -4874,8 +5678,11 @@
       <c r="D108" s="1">
         <v>33356</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="48">
+        <v>94.252764150853281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -4888,8 +5695,11 @@
       <c r="D109" s="1">
         <v>34453</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="48">
+        <v>93.960753173106795</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -4902,8 +5712,11 @@
       <c r="D110" s="1">
         <v>29341</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="48">
+        <v>33.049958907251217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -4916,8 +5729,11 @@
       <c r="D111" s="1">
         <v>22037</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="48">
+        <v>44.565659789937797</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -4930,8 +5746,11 @@
       <c r="D112" s="1">
         <v>29343</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="48">
+        <v>20.664735509418776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -4944,8 +5763,11 @@
       <c r="D113" s="1">
         <v>33727</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="48">
+        <v>73.146374229234581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -4958,8 +5780,11 @@
       <c r="D114" s="1">
         <v>32997</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="48">
+        <v>34.250835598136192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -4972,8 +5797,11 @@
       <c r="D115" s="1">
         <v>28250</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="48">
+        <v>59.800482362396004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -4986,8 +5814,11 @@
       <c r="D116" s="1">
         <v>28616</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="48">
+        <v>95.976131498141413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -5000,8 +5831,11 @@
       <c r="D117" s="1">
         <v>32635</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="48">
+        <v>73.789397884865437</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>185</v>
       </c>
@@ -5014,8 +5848,11 @@
       <c r="D118" s="1">
         <v>25696</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="48">
+        <v>70.025521855525824</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -5028,8 +5865,11 @@
       <c r="D119" s="1">
         <v>33733</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="48">
+        <v>96.143763397527763</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -5042,8 +5882,11 @@
       <c r="D120" s="1">
         <v>34099</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="48">
+        <v>76.627303927749196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>305</v>
       </c>
@@ -5055,6 +5898,9 @@
       </c>
       <c r="D121" s="1">
         <v>33369</v>
+      </c>
+      <c r="E121" s="48">
+        <v>79.598325759285501</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5914,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B121"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,7 +5925,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>404</v>
@@ -5090,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5106,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5960,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,7 +5968,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5130,7 +5976,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5138,7 +5984,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5146,7 +5992,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5154,7 +6000,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +6008,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5170,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5178,7 +6024,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5186,7 +6032,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5194,7 +6040,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +6048,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,7 +6056,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5218,7 +6064,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5226,7 +6072,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5234,7 +6080,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5242,7 +6088,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5250,7 +6096,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5258,7 +6104,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5266,7 +6112,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,7 +6120,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +6128,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5290,7 +6136,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5298,7 +6144,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5306,7 +6152,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5314,7 +6160,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5322,7 +6168,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5330,7 +6176,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5338,7 +6184,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5346,7 +6192,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5354,7 +6200,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5362,7 +6208,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5370,7 +6216,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5378,7 +6224,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5386,7 +6232,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5394,7 +6240,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5402,7 +6248,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5410,7 +6256,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5418,7 +6264,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +6272,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5434,7 +6280,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5442,7 +6288,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5450,7 +6296,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5458,7 +6304,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5466,7 +6312,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5474,7 +6320,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5482,7 +6328,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -5490,7 +6336,7 @@
         <v>119</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -5498,7 +6344,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5506,7 +6352,7 @@
         <v>121</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5514,7 +6360,7 @@
         <v>122</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5522,7 +6368,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5530,7 +6376,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5538,7 +6384,7 @@
         <v>125</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5546,7 +6392,7 @@
         <v>126</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5554,7 +6400,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5562,7 +6408,7 @@
         <v>128</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5570,7 +6416,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5578,7 +6424,7 @@
         <v>130</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5586,7 +6432,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5594,7 +6440,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5602,7 +6448,7 @@
         <v>133</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5610,7 +6456,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5618,7 +6464,7 @@
         <v>135</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5626,7 +6472,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5634,7 +6480,7 @@
         <v>137</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5642,7 +6488,7 @@
         <v>138</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5650,7 +6496,7 @@
         <v>139</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5658,7 +6504,7 @@
         <v>140</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5666,7 +6512,7 @@
         <v>141</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5674,7 +6520,7 @@
         <v>142</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5682,7 +6528,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5690,7 +6536,7 @@
         <v>144</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5698,7 +6544,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5706,7 +6552,7 @@
         <v>146</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5714,7 +6560,7 @@
         <v>147</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5722,7 +6568,7 @@
         <v>148</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5730,7 +6576,7 @@
         <v>149</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5738,7 +6584,7 @@
         <v>150</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5746,7 +6592,7 @@
         <v>151</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5754,7 +6600,7 @@
         <v>152</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5762,7 +6608,7 @@
         <v>153</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5770,7 +6616,7 @@
         <v>154</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5778,7 +6624,7 @@
         <v>155</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5786,7 +6632,7 @@
         <v>156</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5794,7 +6640,7 @@
         <v>157</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5802,7 +6648,7 @@
         <v>158</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5810,7 +6656,7 @@
         <v>159</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5818,7 +6664,7 @@
         <v>160</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -5826,7 +6672,7 @@
         <v>161</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5834,7 +6680,7 @@
         <v>162</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5842,7 +6688,7 @@
         <v>163</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5850,7 +6696,7 @@
         <v>164</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5858,7 +6704,7 @@
         <v>165</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5866,7 +6712,7 @@
         <v>166</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5874,7 +6720,7 @@
         <v>167</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5882,7 +6728,7 @@
         <v>168</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5890,7 +6736,7 @@
         <v>169</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5898,7 +6744,7 @@
         <v>170</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5906,7 +6752,7 @@
         <v>171</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5914,7 +6760,7 @@
         <v>172</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5922,7 +6768,7 @@
         <v>173</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5930,7 +6776,7 @@
         <v>174</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -5938,7 +6784,7 @@
         <v>175</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5946,7 +6792,7 @@
         <v>176</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -5954,7 +6800,7 @@
         <v>177</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5962,7 +6808,7 @@
         <v>178</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5970,7 +6816,7 @@
         <v>179</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5978,7 +6824,7 @@
         <v>180</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5986,7 +6832,7 @@
         <v>181</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5994,7 +6840,7 @@
         <v>182</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -6002,7 +6848,7 @@
         <v>183</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6010,7 +6856,7 @@
         <v>184</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6018,7 +6864,7 @@
         <v>185</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -6026,7 +6872,7 @@
         <v>186</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6034,7 +6880,7 @@
         <v>187</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6042,7 +6888,7 @@
         <v>305</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6071,15 +6917,15 @@
         <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>33</v>
@@ -6090,7 +6936,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>34</v>
@@ -6101,7 +6947,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>35</v>
@@ -6112,7 +6958,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>36</v>
@@ -6123,7 +6969,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>37</v>
@@ -6134,7 +6980,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>38</v>
@@ -6145,7 +6991,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>39</v>
@@ -6156,7 +7002,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>40</v>
@@ -6167,7 +7013,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>41</v>
@@ -6178,7 +7024,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>42</v>
@@ -6189,7 +7035,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>62</v>
@@ -6200,10 +7046,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C13" s="30">
         <v>3</v>
@@ -6211,10 +7057,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C14" s="44">
         <v>8</v>
@@ -6222,10 +7068,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C15" s="44">
         <v>12</v>
@@ -6252,13 +7098,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6266,7 +7112,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C2" s="28">
         <v>3</v>
@@ -6277,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C3" s="28">
         <v>8</v>
@@ -6288,7 +7134,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C4" s="28">
         <v>8</v>
@@ -6299,7 +7145,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C5" s="28">
         <v>8</v>
@@ -6310,7 +7156,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C6" s="28">
         <v>5</v>
@@ -6321,7 +7167,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C7" s="28">
         <v>2</v>
@@ -6332,7 +7178,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C8" s="28">
         <v>4</v>
@@ -6343,7 +7189,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C9" s="28">
         <v>3</v>
@@ -6354,7 +7200,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C10" s="28">
         <v>10</v>
@@ -6365,7 +7211,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C11" s="28">
         <v>10</v>
@@ -6376,7 +7222,7 @@
         <v>79</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C12" s="28">
         <v>3</v>
@@ -6387,7 +7233,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C13" s="28">
         <v>10</v>
@@ -6398,7 +7244,7 @@
         <v>81</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C14" s="28">
         <v>3</v>
@@ -6409,7 +7255,7 @@
         <v>82</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C15" s="28">
         <v>8</v>
@@ -6420,7 +7266,7 @@
         <v>83</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C16" s="28">
         <v>8</v>
@@ -6431,7 +7277,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C17" s="28">
         <v>8</v>
@@ -6442,7 +7288,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C18" s="28">
         <v>5</v>
@@ -6453,7 +7299,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C19" s="28">
         <v>2</v>
@@ -6464,7 +7310,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C20" s="28">
         <v>4</v>
@@ -6475,7 +7321,7 @@
         <v>88</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C21" s="28">
         <v>3</v>
@@ -6486,7 +7332,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C22" s="28">
         <v>10</v>
@@ -6497,7 +7343,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C23" s="28">
         <v>10</v>
@@ -6508,7 +7354,7 @@
         <v>91</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C24" s="28">
         <v>3</v>
@@ -6519,7 +7365,7 @@
         <v>92</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C25" s="28">
         <v>10</v>
@@ -6530,7 +7376,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C26" s="28">
         <v>3</v>
@@ -6541,7 +7387,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C27" s="28">
         <v>8</v>
@@ -6552,7 +7398,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C28" s="28">
         <v>8</v>
@@ -6563,7 +7409,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C29" s="28">
         <v>8</v>
@@ -6574,7 +7420,7 @@
         <v>97</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C30" s="28">
         <v>5</v>
@@ -6585,7 +7431,7 @@
         <v>98</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C31" s="28">
         <v>2</v>
@@ -6596,7 +7442,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C32" s="28">
         <v>4</v>
@@ -6607,7 +7453,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C33" s="28">
         <v>3</v>
@@ -6618,7 +7464,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C34" s="28">
         <v>10</v>
@@ -6629,7 +7475,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C35" s="28">
         <v>10</v>
@@ -6640,7 +7486,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C36" s="28">
         <v>3</v>
@@ -6651,7 +7497,7 @@
         <v>104</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C37" s="28">
         <v>10</v>
@@ -6662,7 +7508,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C38" s="28">
         <v>3</v>
@@ -6673,7 +7519,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C39" s="28">
         <v>8</v>
@@ -6684,7 +7530,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C40" s="28">
         <v>8</v>
@@ -6695,7 +7541,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C41" s="28">
         <v>8</v>
@@ -6706,7 +7552,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C42" s="28">
         <v>3</v>
@@ -6717,7 +7563,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C43" s="28">
         <v>10</v>
@@ -6728,7 +7574,7 @@
         <v>111</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C44" s="28">
         <v>10</v>
@@ -6739,7 +7585,7 @@
         <v>112</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C45" s="28">
         <v>8</v>
@@ -6750,7 +7596,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C46" s="28">
         <v>5</v>
@@ -6761,7 +7607,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C47" s="28">
         <v>2</v>
@@ -6772,7 +7618,7 @@
         <v>115</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C48" s="28">
         <v>4</v>
@@ -6783,7 +7629,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C49" s="28">
         <v>3</v>
@@ -6794,7 +7640,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C50" s="28">
         <v>8</v>
@@ -6805,7 +7651,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C51" s="28">
         <v>8</v>
@@ -6816,7 +7662,7 @@
         <v>119</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C52" s="28">
         <v>8</v>
@@ -6827,7 +7673,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C53" s="28">
         <v>5</v>
@@ -6838,7 +7684,7 @@
         <v>121</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C54" s="28">
         <v>2</v>
@@ -6849,7 +7695,7 @@
         <v>122</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C55" s="28">
         <v>4</v>
@@ -6860,7 +7706,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C56" s="28">
         <v>3</v>
@@ -6871,7 +7717,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C57" s="28">
         <v>10</v>
@@ -6882,7 +7728,7 @@
         <v>125</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C58" s="28">
         <v>10</v>
@@ -6893,7 +7739,7 @@
         <v>126</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C59" s="28">
         <v>4</v>
@@ -6904,7 +7750,7 @@
         <v>127</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C60" s="28">
         <v>3</v>
@@ -6915,7 +7761,7 @@
         <v>128</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C61" s="28">
         <v>10</v>
@@ -6926,7 +7772,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C62" s="28">
         <v>10</v>
@@ -6937,7 +7783,7 @@
         <v>130</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C63" s="28">
         <v>3</v>
@@ -6948,7 +7794,7 @@
         <v>131</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C64" s="28">
         <v>10</v>
@@ -6959,7 +7805,7 @@
         <v>132</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C65" s="28">
         <v>8</v>
@@ -6970,7 +7816,7 @@
         <v>133</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C66" s="28">
         <v>5</v>
@@ -6981,7 +7827,7 @@
         <v>134</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C67" s="28">
         <v>2</v>
@@ -6992,7 +7838,7 @@
         <v>135</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C68" s="28">
         <v>4</v>
@@ -7003,7 +7849,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C69" s="28">
         <v>3</v>
@@ -7014,7 +7860,7 @@
         <v>137</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C70" s="28">
         <v>10</v>
@@ -7025,7 +7871,7 @@
         <v>138</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C71" s="28">
         <v>10</v>
@@ -7036,7 +7882,7 @@
         <v>139</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C72" s="28">
         <v>4</v>
@@ -7047,7 +7893,7 @@
         <v>140</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C73" s="28">
         <v>10</v>
@@ -7058,7 +7904,7 @@
         <v>141</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C74" s="28">
         <v>10</v>
@@ -7069,7 +7915,7 @@
         <v>142</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C75" s="28">
         <v>3</v>
@@ -7080,7 +7926,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C76" s="28">
         <v>10</v>
@@ -7091,7 +7937,7 @@
         <v>144</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C77" s="28">
         <v>8</v>
@@ -7102,7 +7948,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C78" s="28">
         <v>5</v>
@@ -7113,7 +7959,7 @@
         <v>146</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C79" s="28">
         <v>2</v>
@@ -7124,7 +7970,7 @@
         <v>147</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C80" s="28">
         <v>4</v>
@@ -7135,7 +7981,7 @@
         <v>148</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C81" s="28">
         <v>3</v>
@@ -7146,7 +7992,7 @@
         <v>149</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C82" s="28">
         <v>8</v>
@@ -7157,7 +8003,7 @@
         <v>150</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C83" s="28">
         <v>10</v>
@@ -7168,7 +8014,7 @@
         <v>151</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C84" s="28">
         <v>3</v>
@@ -7179,7 +8025,7 @@
         <v>152</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C85" s="28">
         <v>10</v>
@@ -7190,7 +8036,7 @@
         <v>153</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C86" s="28">
         <v>8</v>
@@ -7201,7 +8047,7 @@
         <v>154</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C87" s="28">
         <v>5</v>
@@ -7212,7 +8058,7 @@
         <v>155</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C88" s="28">
         <v>2</v>
@@ -7223,7 +8069,7 @@
         <v>156</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C89" s="28">
         <v>5</v>
@@ -7234,7 +8080,7 @@
         <v>157</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C90" s="28">
         <v>2</v>
@@ -7245,7 +8091,7 @@
         <v>158</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C91" s="28">
         <v>10</v>
@@ -7256,7 +8102,7 @@
         <v>159</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C92" s="28">
         <v>10</v>
@@ -7267,7 +8113,7 @@
         <v>160</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C93" s="28">
         <v>4</v>
@@ -7278,7 +8124,7 @@
         <v>161</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C94" s="28">
         <v>10</v>
@@ -7289,7 +8135,7 @@
         <v>162</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C95" s="28">
         <v>10</v>
@@ -7300,7 +8146,7 @@
         <v>163</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C96" s="28">
         <v>3</v>
@@ -7311,7 +8157,7 @@
         <v>164</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C97" s="28">
         <v>10</v>
@@ -7322,7 +8168,7 @@
         <v>165</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C98" s="28">
         <v>8</v>
@@ -7333,7 +8179,7 @@
         <v>166</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C99" s="28">
         <v>5</v>
@@ -7344,7 +8190,7 @@
         <v>167</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C100" s="28">
         <v>8</v>
@@ -7355,7 +8201,7 @@
         <v>168</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C101" s="28">
         <v>5</v>
@@ -7366,7 +8212,7 @@
         <v>169</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C102" s="28">
         <v>2</v>
@@ -7377,7 +8223,7 @@
         <v>170</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C103" s="28">
         <v>5</v>
@@ -7388,7 +8234,7 @@
         <v>171</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C104" s="28">
         <v>2</v>
@@ -7399,7 +8245,7 @@
         <v>172</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C105" s="28">
         <v>10</v>
@@ -7410,7 +8256,7 @@
         <v>173</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C106" s="28">
         <v>10</v>
@@ -7421,7 +8267,7 @@
         <v>174</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C107" s="28">
         <v>10</v>
@@ -7432,7 +8278,7 @@
         <v>175</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C108" s="28">
         <v>8</v>
@@ -7443,7 +8289,7 @@
         <v>176</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C109" s="28">
         <v>5</v>
@@ -7454,7 +8300,7 @@
         <v>177</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C110" s="28">
         <v>8</v>
@@ -7465,7 +8311,7 @@
         <v>178</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C111" s="28">
         <v>8</v>
@@ -7476,7 +8322,7 @@
         <v>179</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C112" s="28">
         <v>5</v>
@@ -7487,7 +8333,7 @@
         <v>180</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C113" s="28">
         <v>2</v>
@@ -7498,7 +8344,7 @@
         <v>181</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C114" s="28">
         <v>4</v>
@@ -7509,7 +8355,7 @@
         <v>182</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C115" s="28">
         <v>3</v>
@@ -7520,7 +8366,7 @@
         <v>183</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C116" s="28">
         <v>10</v>
@@ -7531,7 +8377,7 @@
         <v>184</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C117" s="28">
         <v>10</v>
@@ -7542,7 +8388,7 @@
         <v>185</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C118" s="28">
         <v>3</v>
@@ -7553,7 +8399,7 @@
         <v>186</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C119" s="28">
         <v>10</v>
@@ -7564,7 +8410,7 @@
         <v>187</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C120" s="28">
         <v>8</v>
@@ -7575,7 +8421,7 @@
         <v>305</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C121" s="28">
         <v>12</v>
@@ -7588,10 +8434,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C0820-B2DD-4CBE-A94B-B515E7AA03B9}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7602,285 +8448,186 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>521</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>523</v>
-      </c>
-      <c r="C3" s="44">
-        <v>0.05</v>
-      </c>
-      <c r="D3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="44">
-        <v>0.15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="C5" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="F5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" s="44">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>528</v>
-      </c>
-      <c r="C8" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0.75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="44">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0.75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="C12" s="44">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="C13" s="44">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="C15" s="44">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C16" s="44">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="C17" s="44">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="C18" s="44">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="C19" s="44">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="C20" s="44">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>598</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="F20" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7892,7 +8639,7 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,7 +8655,7 @@
         <v>404</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>61</v>
@@ -7916,7 +8663,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>43</v>
@@ -7927,7 +8674,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>44</v>
@@ -7938,7 +8685,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>45</v>
@@ -7949,7 +8696,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>46</v>
@@ -7960,7 +8707,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>47</v>
@@ -7971,7 +8718,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>48</v>
@@ -7982,7 +8729,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>49</v>
@@ -7993,7 +8740,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>50</v>
@@ -8004,7 +8751,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B10" s="46" t="s">
         <v>51</v>
@@ -8015,7 +8762,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>52</v>
@@ -8026,7 +8773,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>53</v>
@@ -8037,7 +8784,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>54</v>
@@ -8048,7 +8795,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>55</v>
@@ -8059,7 +8806,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>56</v>
@@ -8070,7 +8817,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>57</v>
@@ -8081,7 +8828,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>58</v>
@@ -8092,7 +8839,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>59</v>
@@ -8103,7 +8850,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>60</v>
@@ -8114,7 +8861,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>43</v>
@@ -8125,7 +8872,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>44</v>
@@ -8136,7 +8883,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>45</v>
@@ -8147,7 +8894,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>46</v>
@@ -8158,7 +8905,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>47</v>
@@ -8169,7 +8916,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B25" s="46" t="s">
         <v>48</v>
@@ -8180,7 +8927,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>49</v>
@@ -8191,7 +8938,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>50</v>
@@ -8202,7 +8949,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B28" s="46" t="s">
         <v>51</v>
@@ -8213,7 +8960,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>52</v>
@@ -8224,7 +8971,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>53</v>
@@ -8235,7 +8982,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>54</v>
@@ -8246,7 +8993,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>55</v>
@@ -8257,7 +9004,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>56</v>
@@ -8268,7 +9015,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>57</v>
@@ -8279,7 +9026,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>58</v>
@@ -8290,7 +9037,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>59</v>
@@ -8301,7 +9048,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>60</v>
@@ -8312,7 +9059,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>43</v>
@@ -8323,7 +9070,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>44</v>
@@ -8334,7 +9081,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>45</v>
@@ -8345,7 +9092,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>46</v>
@@ -8356,7 +9103,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>47</v>
@@ -8367,7 +9114,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>48</v>
@@ -8378,7 +9125,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>49</v>
@@ -8389,7 +9136,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>50</v>
@@ -8400,7 +9147,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>51</v>
@@ -8411,7 +9158,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>52</v>
@@ -8422,7 +9169,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B48" s="46" t="s">
         <v>53</v>
@@ -8433,7 +9180,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B49" s="46" t="s">
         <v>54</v>
@@ -8444,7 +9191,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B50" s="46" t="s">
         <v>55</v>
@@ -8455,7 +9202,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B51" s="46" t="s">
         <v>56</v>
@@ -8466,7 +9213,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B52" s="46" t="s">
         <v>57</v>
@@ -8477,7 +9224,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B53" s="46" t="s">
         <v>58</v>
@@ -8488,7 +9235,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>59</v>
@@ -8499,7 +9246,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B55" s="46" t="s">
         <v>60</v>
@@ -8510,7 +9257,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B56" s="46" t="s">
         <v>43</v>
@@ -8521,7 +9268,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B57" s="46" t="s">
         <v>44</v>
@@ -8532,7 +9279,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B58" s="46" t="s">
         <v>45</v>
@@ -8543,7 +9290,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>46</v>
@@ -8554,7 +9301,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B60" s="46" t="s">
         <v>47</v>
@@ -8565,7 +9312,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>48</v>
@@ -8576,7 +9323,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B62" s="46" t="s">
         <v>49</v>
@@ -8587,7 +9334,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B63" s="46" t="s">
         <v>50</v>
@@ -8598,7 +9345,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B64" s="46" t="s">
         <v>51</v>
@@ -8609,7 +9356,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B65" s="46" t="s">
         <v>52</v>
@@ -8620,7 +9367,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B66" s="46" t="s">
         <v>53</v>
@@ -8631,7 +9378,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B67" s="46" t="s">
         <v>54</v>
@@ -8642,7 +9389,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B68" s="46" t="s">
         <v>55</v>
@@ -8653,7 +9400,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B69" s="46" t="s">
         <v>56</v>
@@ -8664,7 +9411,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B70" s="46" t="s">
         <v>57</v>
@@ -8675,7 +9422,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B71" s="46" t="s">
         <v>58</v>
@@ -8686,7 +9433,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B72" s="46" t="s">
         <v>59</v>
@@ -8697,7 +9444,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="46" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B73" s="46" t="s">
         <v>60</v>
@@ -10171,10 +10918,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E64E3-2EEF-4D35-A877-B30CDD63B6A3}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10182,9 +10929,10 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -10192,12 +10940,18 @@
         <v>65</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>66</v>
@@ -10205,10 +10959,16 @@
       <c r="C2" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>67</v>
@@ -10216,10 +10976,16 @@
       <c r="C3" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>68</v>
@@ -10227,10 +10993,16 @@
       <c r="C4" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>69</v>
@@ -10238,10 +11010,16 @@
       <c r="C5" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>70</v>
@@ -10249,10 +11027,16 @@
       <c r="C6" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>71</v>
@@ -10260,10 +11044,16 @@
       <c r="C7" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>72</v>
@@ -10271,10 +11061,16 @@
       <c r="C8" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>73</v>
@@ -10282,16 +11078,28 @@
       <c r="C9" s="31">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="31">
         <v>5</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="E10">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -10301,10 +11109,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C91FCC-5EE5-41F4-A868-AE68AE5C3103}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,9 +11120,10 @@
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
@@ -10322,67 +11131,103 @@
         <v>76</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C2" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C3" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C4" s="32">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C5" s="32">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C6" s="32">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>77</v>
@@ -10390,10 +11235,16 @@
       <c r="C7" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>78</v>
@@ -10401,10 +11252,16 @@
       <c r="C8" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>405</v>
@@ -10412,10 +11269,16 @@
       <c r="C9" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>406</v>
@@ -10423,10 +11286,16 @@
       <c r="C10" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>407</v>
@@ -10434,21 +11303,33 @@
       <c r="C11" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C12" s="32">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>408</v>
@@ -10456,16 +11337,62 @@
       <c r="C13" s="32">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C14" s="32">
         <v>0.75</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E15">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="E16">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/WIP Tables.xlsx
+++ b/WIP Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B127305-886A-47F2-8320-86606C7794A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2CEF0B-DB01-4D8E-B7AD-FB764DDEFD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="6" xr2:uid="{91DA0EEF-BA49-49F6-A3DD-F411B57496AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Jobs" sheetId="3" r:id="rId4"/>
     <sheet name="PeopleJobs" sheetId="4" r:id="rId5"/>
     <sheet name="Inventory" sheetId="19" r:id="rId6"/>
-    <sheet name="SettlementItems" sheetId="6" r:id="rId7"/>
+    <sheet name="SettlementInventory" sheetId="6" r:id="rId7"/>
     <sheet name="Weapons" sheetId="7" r:id="rId8"/>
     <sheet name="Foods" sheetId="8" r:id="rId9"/>
     <sheet name="Vehicles" sheetId="9" r:id="rId10"/>
@@ -3833,7 +3833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7CAE82-898C-4B10-AEA2-CAB3932C7D32}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -8638,7 +8638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032382B-5B62-4C5B-AC12-CE1F890B35DB}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
